--- a/NetCorePSAV/wwwroot/reports/EPTTem.xlsx
+++ b/NetCorePSAV/wwwroot/reports/EPTTem.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guich\OneDrive\Documentos\Visual Studio 2017\Projects\GCCorePSAV\GCCorePSAV\wwwroot\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guich\OneDrive\Documentos\Visual Studio 2017\Projects\NetCorePSAV\NetCorePSAV\wwwroot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="906" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="906" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Resumen" sheetId="20" r:id="rId1"/>
@@ -6703,14 +6703,40 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -6735,30 +6761,64 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -6773,10 +6833,6 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="74" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection hidden="1"/>
@@ -6789,14 +6845,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
@@ -6805,53 +6853,41 @@
       <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="10" borderId="34" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="10" borderId="30" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6859,18 +6895,6 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6883,12 +6907,6 @@
     <xf numFmtId="0" fontId="51" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6901,21 +6919,6 @@
     <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="10" borderId="34" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="10" borderId="30" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -6930,9 +6933,6 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
@@ -7018,6 +7018,30 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
@@ -7038,10 +7062,6 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
@@ -7062,24 +7082,28 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -7098,30 +7122,6 @@
       <alignment horizontal="left"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -7194,31 +7194,31 @@
     <xf numFmtId="0" fontId="46" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="80" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -22012,7 +22012,7 @@
       </c>
       <c r="G3" s="415">
         <f ca="1">+'2-Cotización'!H5</f>
-        <v>42985</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="398" customFormat="1" ht="11.25">
@@ -22025,16 +22025,16 @@
       <c r="G4" s="416"/>
     </row>
     <row r="5" spans="1:7" s="398" customFormat="1" ht="11.25">
-      <c r="A5" s="716">
+      <c r="A5" s="723">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B5" s="716"/>
-      <c r="C5" s="716"/>
-      <c r="D5" s="716"/>
-      <c r="E5" s="716"/>
-      <c r="F5" s="716"/>
-      <c r="G5" s="716"/>
+      <c r="B5" s="723"/>
+      <c r="C5" s="723"/>
+      <c r="D5" s="723"/>
+      <c r="E5" s="723"/>
+      <c r="F5" s="723"/>
+      <c r="G5" s="723"/>
     </row>
     <row r="6" spans="1:7" s="162" customFormat="1" ht="3" customHeight="1"/>
     <row r="7" spans="1:7" s="162" customFormat="1" ht="11.25">
@@ -22066,11 +22066,11 @@
       <c r="A9" s="402" t="s">
         <v>534</v>
       </c>
-      <c r="B9" s="713">
+      <c r="B9" s="721">
         <f>+'2-Cotización'!C11</f>
         <v>0</v>
       </c>
-      <c r="C9" s="713"/>
+      <c r="C9" s="721"/>
       <c r="E9" s="403" t="s">
         <v>529</v>
       </c>
@@ -22081,8 +22081,8 @@
     </row>
     <row r="10" spans="1:7" s="162" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="402"/>
-      <c r="B10" s="713"/>
-      <c r="C10" s="713"/>
+      <c r="B10" s="721"/>
+      <c r="C10" s="721"/>
       <c r="E10" s="403" t="s">
         <v>526</v>
       </c>
@@ -22212,28 +22212,28 @@
       <c r="G19" s="292"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="718" t="str">
+      <c r="A20" s="725" t="str">
         <f ca="1">+'4b-Venta-Comisión'!B29</f>
         <v>OK</v>
       </c>
-      <c r="B20" s="718"/>
-      <c r="C20" s="718"/>
-      <c r="D20" s="718"/>
-      <c r="E20" s="719" t="str">
+      <c r="B20" s="725"/>
+      <c r="C20" s="725"/>
+      <c r="D20" s="725"/>
+      <c r="E20" s="726" t="str">
         <f ca="1">+'4b-Venta-Comisión'!I29</f>
         <v>OK</v>
       </c>
-      <c r="F20" s="719"/>
-      <c r="G20" s="719"/>
+      <c r="F20" s="726"/>
+      <c r="G20" s="726"/>
     </row>
     <row r="21" spans="1:7" s="417" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A21" s="75"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="717" t="s">
+      <c r="C21" s="724" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="717"/>
-      <c r="E21" s="717"/>
+      <c r="D21" s="724"/>
+      <c r="E21" s="724"/>
       <c r="F21" s="435" t="s">
         <v>957</v>
       </c>
@@ -22257,7 +22257,7 @@
       </c>
       <c r="F23" s="585">
         <f>+'4a-Venta-Des.'!F19</f>
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="398" customFormat="1" ht="11.25">
@@ -22275,7 +22275,7 @@
       </c>
       <c r="F24" s="585">
         <f>+'4a-Venta-Des.'!F20</f>
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="398" customFormat="1" ht="11.25">
@@ -22293,7 +22293,7 @@
       </c>
       <c r="F25" s="585">
         <f>+'4a-Venta-Des.'!F21</f>
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="398" customFormat="1" ht="11.25">
@@ -22311,7 +22311,7 @@
       </c>
       <c r="F26" s="585">
         <f>+'4a-Venta-Des.'!F22</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="398" customFormat="1" ht="11.25">
@@ -22347,7 +22347,7 @@
       </c>
       <c r="F28" s="585">
         <f>+'4a-Venta-Des.'!F24</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="398" customFormat="1" ht="11.25">
@@ -22633,11 +22633,11 @@
         <f t="shared" ref="E46:E51" si="1">IF(D46=0,0,(D46/$D$40))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="720" t="str">
+      <c r="F46" s="727" t="str">
         <f>+'5-Subrentas'!A9</f>
         <v/>
       </c>
-      <c r="G46" s="720"/>
+      <c r="G46" s="727"/>
     </row>
     <row r="47" spans="1:7" s="582" customFormat="1" ht="11.25">
       <c r="B47" s="586"/>
@@ -22922,16 +22922,16 @@
       <c r="F72" s="212"/>
     </row>
     <row r="73" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A73" s="722">
+      <c r="A73" s="715">
         <f>+'4a-Venta-Des.'!B38</f>
         <v>0</v>
       </c>
-      <c r="B73" s="723"/>
-      <c r="C73" s="723"/>
-      <c r="D73" s="723"/>
-      <c r="E73" s="723"/>
-      <c r="F73" s="723"/>
-      <c r="G73" s="724"/>
+      <c r="B73" s="716"/>
+      <c r="C73" s="716"/>
+      <c r="D73" s="716"/>
+      <c r="E73" s="716"/>
+      <c r="F73" s="716"/>
+      <c r="G73" s="717"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="420" t="s">
@@ -22945,13 +22945,13 @@
       <c r="G74" s="432"/>
     </row>
     <row r="75" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A75" s="725"/>
-      <c r="B75" s="726"/>
-      <c r="C75" s="726"/>
-      <c r="D75" s="726"/>
-      <c r="E75" s="726"/>
-      <c r="F75" s="726"/>
-      <c r="G75" s="727"/>
+      <c r="A75" s="718"/>
+      <c r="B75" s="719"/>
+      <c r="C75" s="719"/>
+      <c r="D75" s="719"/>
+      <c r="E75" s="719"/>
+      <c r="F75" s="719"/>
+      <c r="G75" s="720"/>
     </row>
     <row r="76" spans="1:7" ht="3.75" customHeight="1">
       <c r="A76" s="399"/>
@@ -22966,12 +22966,12 @@
     <row r="78" spans="1:7" s="417" customFormat="1">
       <c r="A78" s="445"/>
       <c r="B78" s="446"/>
-      <c r="C78" s="715" t="s">
+      <c r="C78" s="722" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="715"/>
-      <c r="E78" s="715"/>
-      <c r="F78" s="715"/>
+      <c r="D78" s="722"/>
+      <c r="E78" s="722"/>
+      <c r="F78" s="722"/>
     </row>
     <row r="79" spans="1:7" s="417" customFormat="1">
       <c r="C79" s="460">
@@ -22980,10 +22980,10 @@
       <c r="D79" s="448">
         <v>0.19989999999999999</v>
       </c>
-      <c r="E79" s="714" t="s">
+      <c r="E79" s="713" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="714"/>
+      <c r="F79" s="713"/>
       <c r="G79" s="447"/>
     </row>
     <row r="80" spans="1:7" s="417" customFormat="1">
@@ -22993,10 +22993,10 @@
       <c r="D80" s="448">
         <v>0.24990000000000001</v>
       </c>
-      <c r="E80" s="714" t="s">
+      <c r="E80" s="713" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="714"/>
+      <c r="F80" s="713"/>
       <c r="G80" s="447"/>
     </row>
     <row r="81" spans="1:7" s="417" customFormat="1">
@@ -23006,10 +23006,10 @@
       <c r="D81" s="448">
         <v>0.34989999999999999</v>
       </c>
-      <c r="E81" s="714" t="s">
+      <c r="E81" s="713" t="s">
         <v>978</v>
       </c>
-      <c r="F81" s="714"/>
+      <c r="F81" s="713"/>
       <c r="G81" s="447"/>
     </row>
     <row r="82" spans="1:7" s="417" customFormat="1">
@@ -23019,10 +23019,10 @@
       <c r="D82" s="448">
         <v>0.44990000000000002</v>
       </c>
-      <c r="E82" s="714" t="s">
+      <c r="E82" s="713" t="s">
         <v>977</v>
       </c>
-      <c r="F82" s="714"/>
+      <c r="F82" s="713"/>
       <c r="G82" s="447"/>
     </row>
     <row r="83" spans="1:7" s="417" customFormat="1">
@@ -23032,32 +23032,25 @@
       <c r="D83" s="448">
         <v>1</v>
       </c>
-      <c r="E83" s="714" t="s">
+      <c r="E83" s="713" t="s">
         <v>976</v>
       </c>
-      <c r="F83" s="714"/>
+      <c r="F83" s="713"/>
       <c r="G83" s="447"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="721" t="s">
+      <c r="A84" s="714" t="s">
         <v>956</v>
       </c>
-      <c r="B84" s="721"/>
-      <c r="C84" s="721"/>
-      <c r="D84" s="721"/>
-      <c r="E84" s="721"/>
-      <c r="F84" s="721"/>
-      <c r="G84" s="721"/>
+      <c r="B84" s="714"/>
+      <c r="C84" s="714"/>
+      <c r="D84" s="714"/>
+      <c r="E84" s="714"/>
+      <c r="F84" s="714"/>
+      <c r="G84" s="714"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E80:F80"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="C78:F78"/>
@@ -23066,6 +23059,13 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="F46:G46"/>
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E80:F80"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G79:G83">
@@ -23437,10 +23437,10 @@
       <c r="T1" s="307" t="s">
         <v>859</v>
       </c>
-      <c r="U1" s="852" t="s">
+      <c r="U1" s="848" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="853"/>
+      <c r="V1" s="849"/>
       <c r="W1" s="450" t="s">
         <v>5</v>
       </c>
@@ -24451,19 +24451,19 @@
       <c r="AH23"/>
     </row>
     <row r="24" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A24" s="851" t="s">
+      <c r="A24" s="847" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="851"/>
-      <c r="C24" s="851"/>
-      <c r="D24" s="851"/>
-      <c r="E24" s="851"/>
-      <c r="F24" s="851"/>
-      <c r="G24" s="851"/>
-      <c r="H24" s="851"/>
-      <c r="I24" s="851"/>
-      <c r="J24" s="851"/>
-      <c r="K24" s="851"/>
+      <c r="B24" s="847"/>
+      <c r="C24" s="847"/>
+      <c r="D24" s="847"/>
+      <c r="E24" s="847"/>
+      <c r="F24" s="847"/>
+      <c r="G24" s="847"/>
+      <c r="H24" s="847"/>
+      <c r="I24" s="847"/>
+      <c r="J24" s="847"/>
+      <c r="K24" s="847"/>
       <c r="S24" s="561"/>
       <c r="AA24" s="650">
         <v>968</v>
@@ -24482,19 +24482,19 @@
       <c r="AH24"/>
     </row>
     <row r="25" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A25" s="851" t="s">
+      <c r="A25" s="847" t="s">
         <v>879</v>
       </c>
-      <c r="B25" s="851"/>
-      <c r="C25" s="851"/>
-      <c r="D25" s="851"/>
-      <c r="E25" s="851"/>
-      <c r="F25" s="851"/>
-      <c r="G25" s="851"/>
-      <c r="H25" s="851"/>
-      <c r="I25" s="851"/>
-      <c r="J25" s="851"/>
-      <c r="K25" s="851"/>
+      <c r="B25" s="847"/>
+      <c r="C25" s="847"/>
+      <c r="D25" s="847"/>
+      <c r="E25" s="847"/>
+      <c r="F25" s="847"/>
+      <c r="G25" s="847"/>
+      <c r="H25" s="847"/>
+      <c r="I25" s="847"/>
+      <c r="J25" s="847"/>
+      <c r="K25" s="847"/>
       <c r="L25" s="648"/>
       <c r="M25" s="648"/>
       <c r="N25" s="648"/>
@@ -24749,19 +24749,19 @@
       <c r="IV25" s="648"/>
     </row>
     <row r="26" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A26" s="851" t="s">
+      <c r="A26" s="847" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="851"/>
-      <c r="C26" s="851"/>
-      <c r="D26" s="851"/>
-      <c r="E26" s="851"/>
-      <c r="F26" s="851"/>
-      <c r="G26" s="851"/>
-      <c r="H26" s="851"/>
-      <c r="I26" s="851"/>
-      <c r="J26" s="851"/>
-      <c r="K26" s="851"/>
+      <c r="B26" s="847"/>
+      <c r="C26" s="847"/>
+      <c r="D26" s="847"/>
+      <c r="E26" s="847"/>
+      <c r="F26" s="847"/>
+      <c r="G26" s="847"/>
+      <c r="H26" s="847"/>
+      <c r="I26" s="847"/>
+      <c r="J26" s="847"/>
+      <c r="K26" s="847"/>
       <c r="L26" s="648"/>
       <c r="M26" s="648"/>
       <c r="N26" s="648"/>
@@ -25016,19 +25016,19 @@
       <c r="IV26" s="648"/>
     </row>
     <row r="27" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A27" s="851" t="s">
+      <c r="A27" s="847" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="851"/>
-      <c r="C27" s="851"/>
-      <c r="D27" s="851"/>
-      <c r="E27" s="851"/>
-      <c r="F27" s="851"/>
-      <c r="G27" s="851"/>
-      <c r="H27" s="851"/>
-      <c r="I27" s="851"/>
-      <c r="J27" s="851"/>
-      <c r="K27" s="851"/>
+      <c r="B27" s="847"/>
+      <c r="C27" s="847"/>
+      <c r="D27" s="847"/>
+      <c r="E27" s="847"/>
+      <c r="F27" s="847"/>
+      <c r="G27" s="847"/>
+      <c r="H27" s="847"/>
+      <c r="I27" s="847"/>
+      <c r="J27" s="847"/>
+      <c r="K27" s="847"/>
       <c r="L27" s="648"/>
       <c r="M27" s="648"/>
       <c r="N27" s="648"/>
@@ -25276,19 +25276,19 @@
       <c r="IV27" s="648"/>
     </row>
     <row r="28" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A28" s="851" t="s">
+      <c r="A28" s="847" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="851"/>
-      <c r="C28" s="851"/>
-      <c r="D28" s="851"/>
-      <c r="E28" s="851"/>
-      <c r="F28" s="851"/>
-      <c r="G28" s="851"/>
-      <c r="H28" s="851"/>
-      <c r="I28" s="851"/>
-      <c r="J28" s="851"/>
-      <c r="K28" s="851"/>
+      <c r="B28" s="847"/>
+      <c r="C28" s="847"/>
+      <c r="D28" s="847"/>
+      <c r="E28" s="847"/>
+      <c r="F28" s="847"/>
+      <c r="G28" s="847"/>
+      <c r="H28" s="847"/>
+      <c r="I28" s="847"/>
+      <c r="J28" s="847"/>
+      <c r="K28" s="847"/>
       <c r="L28" s="648"/>
       <c r="M28" s="648"/>
       <c r="N28" s="648"/>
@@ -25536,19 +25536,19 @@
       <c r="IV28" s="648"/>
     </row>
     <row r="29" spans="1:256" s="313" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A29" s="851" t="s">
+      <c r="A29" s="847" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="851"/>
-      <c r="C29" s="851"/>
-      <c r="D29" s="851"/>
-      <c r="E29" s="851"/>
-      <c r="F29" s="851"/>
-      <c r="G29" s="851"/>
-      <c r="H29" s="851"/>
-      <c r="I29" s="851"/>
-      <c r="J29" s="851"/>
-      <c r="K29" s="851"/>
+      <c r="B29" s="847"/>
+      <c r="C29" s="847"/>
+      <c r="D29" s="847"/>
+      <c r="E29" s="847"/>
+      <c r="F29" s="847"/>
+      <c r="G29" s="847"/>
+      <c r="H29" s="847"/>
+      <c r="I29" s="847"/>
+      <c r="J29" s="847"/>
+      <c r="K29" s="847"/>
       <c r="L29" s="648"/>
       <c r="M29" s="648"/>
       <c r="N29" s="648"/>
@@ -25796,19 +25796,19 @@
       <c r="IV29" s="648"/>
     </row>
     <row r="30" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A30" s="851" t="s">
+      <c r="A30" s="847" t="s">
         <v>953</v>
       </c>
-      <c r="B30" s="851"/>
-      <c r="C30" s="851"/>
-      <c r="D30" s="851"/>
-      <c r="E30" s="851"/>
-      <c r="F30" s="851"/>
-      <c r="G30" s="851"/>
-      <c r="H30" s="851"/>
-      <c r="I30" s="851"/>
-      <c r="J30" s="851"/>
-      <c r="K30" s="851"/>
+      <c r="B30" s="847"/>
+      <c r="C30" s="847"/>
+      <c r="D30" s="847"/>
+      <c r="E30" s="847"/>
+      <c r="F30" s="847"/>
+      <c r="G30" s="847"/>
+      <c r="H30" s="847"/>
+      <c r="I30" s="847"/>
+      <c r="J30" s="847"/>
+      <c r="K30" s="847"/>
       <c r="L30" s="648"/>
       <c r="M30" s="648"/>
       <c r="N30" s="648"/>
@@ -26056,19 +26056,19 @@
       <c r="IV30" s="648"/>
     </row>
     <row r="31" spans="1:256" s="313" customFormat="1">
-      <c r="A31" s="851" t="s">
+      <c r="A31" s="847" t="s">
         <v>846</v>
       </c>
-      <c r="B31" s="851"/>
-      <c r="C31" s="851"/>
-      <c r="D31" s="851"/>
-      <c r="E31" s="851"/>
-      <c r="F31" s="851"/>
-      <c r="G31" s="851"/>
-      <c r="H31" s="851"/>
-      <c r="I31" s="851"/>
-      <c r="J31" s="851"/>
-      <c r="K31" s="851"/>
+      <c r="B31" s="847"/>
+      <c r="C31" s="847"/>
+      <c r="D31" s="847"/>
+      <c r="E31" s="847"/>
+      <c r="F31" s="847"/>
+      <c r="G31" s="847"/>
+      <c r="H31" s="847"/>
+      <c r="I31" s="847"/>
+      <c r="J31" s="847"/>
+      <c r="K31" s="847"/>
       <c r="L31" s="648"/>
       <c r="M31" s="648"/>
       <c r="N31" s="648"/>
@@ -26316,19 +26316,19 @@
       <c r="IV31" s="648"/>
     </row>
     <row r="32" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A32" s="850" t="s">
+      <c r="A32" s="851" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="850"/>
-      <c r="C32" s="850"/>
-      <c r="D32" s="850"/>
-      <c r="E32" s="850"/>
-      <c r="F32" s="850"/>
-      <c r="G32" s="850"/>
-      <c r="H32" s="850"/>
-      <c r="I32" s="850"/>
-      <c r="J32" s="850"/>
-      <c r="K32" s="850"/>
+      <c r="B32" s="851"/>
+      <c r="C32" s="851"/>
+      <c r="D32" s="851"/>
+      <c r="E32" s="851"/>
+      <c r="F32" s="851"/>
+      <c r="G32" s="851"/>
+      <c r="H32" s="851"/>
+      <c r="I32" s="851"/>
+      <c r="J32" s="851"/>
+      <c r="K32" s="851"/>
       <c r="S32" s="561"/>
     </row>
     <row r="33" spans="1:256" s="313" customFormat="1">
@@ -26366,35 +26366,35 @@
       <c r="S34" s="561"/>
     </row>
     <row r="35" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A35" s="849" t="s">
+      <c r="A35" s="850" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="849"/>
-      <c r="C35" s="849"/>
-      <c r="D35" s="849"/>
-      <c r="E35" s="849"/>
-      <c r="F35" s="849"/>
-      <c r="G35" s="849"/>
-      <c r="H35" s="849"/>
-      <c r="I35" s="849"/>
-      <c r="J35" s="849"/>
-      <c r="K35" s="849"/>
+      <c r="B35" s="850"/>
+      <c r="C35" s="850"/>
+      <c r="D35" s="850"/>
+      <c r="E35" s="850"/>
+      <c r="F35" s="850"/>
+      <c r="G35" s="850"/>
+      <c r="H35" s="850"/>
+      <c r="I35" s="850"/>
+      <c r="J35" s="850"/>
+      <c r="K35" s="850"/>
       <c r="S35" s="561"/>
     </row>
     <row r="36" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A36" s="849" t="s">
+      <c r="A36" s="850" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="849"/>
-      <c r="C36" s="849"/>
-      <c r="D36" s="849"/>
-      <c r="E36" s="849"/>
-      <c r="F36" s="849"/>
-      <c r="G36" s="849"/>
-      <c r="H36" s="849"/>
-      <c r="I36" s="849"/>
-      <c r="J36" s="849"/>
-      <c r="K36" s="849"/>
+      <c r="B36" s="850"/>
+      <c r="C36" s="850"/>
+      <c r="D36" s="850"/>
+      <c r="E36" s="850"/>
+      <c r="F36" s="850"/>
+      <c r="G36" s="850"/>
+      <c r="H36" s="850"/>
+      <c r="I36" s="850"/>
+      <c r="J36" s="850"/>
+      <c r="K36" s="850"/>
       <c r="L36" s="648"/>
       <c r="M36" s="648"/>
       <c r="N36" s="648"/>
@@ -26642,19 +26642,19 @@
       <c r="IV36" s="648"/>
     </row>
     <row r="37" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A37" s="849" t="s">
+      <c r="A37" s="850" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="849"/>
-      <c r="C37" s="849"/>
-      <c r="D37" s="849"/>
-      <c r="E37" s="849"/>
-      <c r="F37" s="849"/>
-      <c r="G37" s="849"/>
-      <c r="H37" s="849"/>
-      <c r="I37" s="849"/>
-      <c r="J37" s="849"/>
-      <c r="K37" s="849"/>
+      <c r="B37" s="850"/>
+      <c r="C37" s="850"/>
+      <c r="D37" s="850"/>
+      <c r="E37" s="850"/>
+      <c r="F37" s="850"/>
+      <c r="G37" s="850"/>
+      <c r="H37" s="850"/>
+      <c r="I37" s="850"/>
+      <c r="J37" s="850"/>
+      <c r="K37" s="850"/>
       <c r="L37" s="648"/>
       <c r="M37" s="648"/>
       <c r="N37" s="648"/>
@@ -26902,19 +26902,19 @@
       <c r="IV37" s="648"/>
     </row>
     <row r="38" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A38" s="849" t="s">
+      <c r="A38" s="850" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="849"/>
-      <c r="C38" s="849"/>
-      <c r="D38" s="849"/>
-      <c r="E38" s="849"/>
-      <c r="F38" s="849"/>
-      <c r="G38" s="849"/>
-      <c r="H38" s="849"/>
-      <c r="I38" s="849"/>
-      <c r="J38" s="849"/>
-      <c r="K38" s="849"/>
+      <c r="B38" s="850"/>
+      <c r="C38" s="850"/>
+      <c r="D38" s="850"/>
+      <c r="E38" s="850"/>
+      <c r="F38" s="850"/>
+      <c r="G38" s="850"/>
+      <c r="H38" s="850"/>
+      <c r="I38" s="850"/>
+      <c r="J38" s="850"/>
+      <c r="K38" s="850"/>
       <c r="L38" s="648"/>
       <c r="M38" s="648"/>
       <c r="N38" s="648"/>
@@ -27162,19 +27162,19 @@
       <c r="IV38" s="648"/>
     </row>
     <row r="39" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A39" s="849" t="s">
+      <c r="A39" s="850" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="849"/>
-      <c r="C39" s="849"/>
-      <c r="D39" s="849"/>
-      <c r="E39" s="849"/>
-      <c r="F39" s="849"/>
-      <c r="G39" s="849"/>
-      <c r="H39" s="849"/>
-      <c r="I39" s="849"/>
-      <c r="J39" s="849"/>
-      <c r="K39" s="849"/>
+      <c r="B39" s="850"/>
+      <c r="C39" s="850"/>
+      <c r="D39" s="850"/>
+      <c r="E39" s="850"/>
+      <c r="F39" s="850"/>
+      <c r="G39" s="850"/>
+      <c r="H39" s="850"/>
+      <c r="I39" s="850"/>
+      <c r="J39" s="850"/>
+      <c r="K39" s="850"/>
       <c r="L39" s="648"/>
       <c r="M39" s="648"/>
       <c r="N39" s="648"/>
@@ -27422,19 +27422,19 @@
       <c r="IV39" s="648"/>
     </row>
     <row r="40" spans="1:256" s="313" customFormat="1" ht="86.25" customHeight="1">
-      <c r="A40" s="849" t="s">
+      <c r="A40" s="850" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="849"/>
-      <c r="C40" s="849"/>
-      <c r="D40" s="849"/>
-      <c r="E40" s="849"/>
-      <c r="F40" s="849"/>
-      <c r="G40" s="849"/>
-      <c r="H40" s="849"/>
-      <c r="I40" s="849"/>
-      <c r="J40" s="849"/>
-      <c r="K40" s="849"/>
+      <c r="B40" s="850"/>
+      <c r="C40" s="850"/>
+      <c r="D40" s="850"/>
+      <c r="E40" s="850"/>
+      <c r="F40" s="850"/>
+      <c r="G40" s="850"/>
+      <c r="H40" s="850"/>
+      <c r="I40" s="850"/>
+      <c r="J40" s="850"/>
+      <c r="K40" s="850"/>
       <c r="L40" s="648"/>
       <c r="M40" s="648"/>
       <c r="N40" s="648"/>
@@ -27682,19 +27682,19 @@
       <c r="IV40" s="648"/>
     </row>
     <row r="41" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A41" s="849" t="s">
+      <c r="A41" s="850" t="s">
         <v>805</v>
       </c>
-      <c r="B41" s="849"/>
-      <c r="C41" s="849"/>
-      <c r="D41" s="849"/>
-      <c r="E41" s="849"/>
-      <c r="F41" s="849"/>
-      <c r="G41" s="849"/>
-      <c r="H41" s="849"/>
-      <c r="I41" s="849"/>
-      <c r="J41" s="849"/>
-      <c r="K41" s="849"/>
+      <c r="B41" s="850"/>
+      <c r="C41" s="850"/>
+      <c r="D41" s="850"/>
+      <c r="E41" s="850"/>
+      <c r="F41" s="850"/>
+      <c r="G41" s="850"/>
+      <c r="H41" s="850"/>
+      <c r="I41" s="850"/>
+      <c r="J41" s="850"/>
+      <c r="K41" s="850"/>
       <c r="L41" s="648"/>
       <c r="M41" s="648"/>
       <c r="N41" s="648"/>
@@ -27942,19 +27942,19 @@
       <c r="IV41" s="648"/>
     </row>
     <row r="42" spans="1:256" s="313" customFormat="1">
-      <c r="A42" s="849" t="s">
+      <c r="A42" s="850" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="849"/>
-      <c r="C42" s="849"/>
-      <c r="D42" s="849"/>
-      <c r="E42" s="849"/>
-      <c r="F42" s="849"/>
-      <c r="G42" s="849"/>
-      <c r="H42" s="849"/>
-      <c r="I42" s="849"/>
-      <c r="J42" s="849"/>
-      <c r="K42" s="849"/>
+      <c r="B42" s="850"/>
+      <c r="C42" s="850"/>
+      <c r="D42" s="850"/>
+      <c r="E42" s="850"/>
+      <c r="F42" s="850"/>
+      <c r="G42" s="850"/>
+      <c r="H42" s="850"/>
+      <c r="I42" s="850"/>
+      <c r="J42" s="850"/>
+      <c r="K42" s="850"/>
       <c r="L42" s="648"/>
       <c r="M42" s="648"/>
       <c r="N42" s="648"/>
@@ -28202,19 +28202,19 @@
       <c r="IV42" s="648"/>
     </row>
     <row r="43" spans="1:256" s="313" customFormat="1" ht="36" customHeight="1">
-      <c r="A43" s="849" t="s">
+      <c r="A43" s="850" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="849"/>
-      <c r="C43" s="849"/>
-      <c r="D43" s="849"/>
-      <c r="E43" s="849"/>
-      <c r="F43" s="849"/>
-      <c r="G43" s="849"/>
-      <c r="H43" s="849"/>
-      <c r="I43" s="849"/>
-      <c r="J43" s="849"/>
-      <c r="K43" s="849"/>
+      <c r="B43" s="850"/>
+      <c r="C43" s="850"/>
+      <c r="D43" s="850"/>
+      <c r="E43" s="850"/>
+      <c r="F43" s="850"/>
+      <c r="G43" s="850"/>
+      <c r="H43" s="850"/>
+      <c r="I43" s="850"/>
+      <c r="J43" s="850"/>
+      <c r="K43" s="850"/>
       <c r="L43" s="648"/>
       <c r="M43" s="648"/>
       <c r="N43" s="648"/>
@@ -28504,19 +28504,19 @@
       <c r="S46" s="561"/>
     </row>
     <row r="47" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A47" s="848" t="s">
+      <c r="A47" s="852" t="s">
         <v>559</v>
       </c>
-      <c r="B47" s="848"/>
-      <c r="C47" s="848"/>
-      <c r="D47" s="848"/>
-      <c r="E47" s="848"/>
-      <c r="F47" s="848"/>
-      <c r="G47" s="848"/>
-      <c r="H47" s="848"/>
-      <c r="I47" s="848"/>
-      <c r="J47" s="848"/>
-      <c r="K47" s="848"/>
+      <c r="B47" s="852"/>
+      <c r="C47" s="852"/>
+      <c r="D47" s="852"/>
+      <c r="E47" s="852"/>
+      <c r="F47" s="852"/>
+      <c r="G47" s="852"/>
+      <c r="H47" s="852"/>
+      <c r="I47" s="852"/>
+      <c r="J47" s="852"/>
+      <c r="K47" s="852"/>
       <c r="S47" s="561"/>
     </row>
     <row r="48" spans="1:256" s="313" customFormat="1">
@@ -28534,35 +28534,35 @@
       <c r="S48" s="561"/>
     </row>
     <row r="49" spans="1:256" s="313" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A49" s="848" t="s">
+      <c r="A49" s="852" t="s">
         <v>556</v>
       </c>
-      <c r="B49" s="848"/>
-      <c r="C49" s="848"/>
-      <c r="D49" s="848"/>
-      <c r="E49" s="848"/>
-      <c r="F49" s="848"/>
-      <c r="G49" s="848"/>
-      <c r="H49" s="848"/>
-      <c r="I49" s="848"/>
-      <c r="J49" s="848"/>
-      <c r="K49" s="848"/>
+      <c r="B49" s="852"/>
+      <c r="C49" s="852"/>
+      <c r="D49" s="852"/>
+      <c r="E49" s="852"/>
+      <c r="F49" s="852"/>
+      <c r="G49" s="852"/>
+      <c r="H49" s="852"/>
+      <c r="I49" s="852"/>
+      <c r="J49" s="852"/>
+      <c r="K49" s="852"/>
       <c r="S49" s="561"/>
     </row>
     <row r="50" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A50" s="848" t="s">
+      <c r="A50" s="852" t="s">
         <v>549</v>
       </c>
-      <c r="B50" s="848"/>
-      <c r="C50" s="848"/>
-      <c r="D50" s="848"/>
-      <c r="E50" s="848"/>
-      <c r="F50" s="848"/>
-      <c r="G50" s="848"/>
-      <c r="H50" s="848"/>
-      <c r="I50" s="848"/>
-      <c r="J50" s="848"/>
-      <c r="K50" s="848"/>
+      <c r="B50" s="852"/>
+      <c r="C50" s="852"/>
+      <c r="D50" s="852"/>
+      <c r="E50" s="852"/>
+      <c r="F50" s="852"/>
+      <c r="G50" s="852"/>
+      <c r="H50" s="852"/>
+      <c r="I50" s="852"/>
+      <c r="J50" s="852"/>
+      <c r="K50" s="852"/>
       <c r="L50" s="648"/>
       <c r="M50" s="648"/>
       <c r="N50" s="648"/>
@@ -28810,19 +28810,19 @@
       <c r="IV50" s="648"/>
     </row>
     <row r="51" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="848" t="s">
+      <c r="A51" s="852" t="s">
         <v>551</v>
       </c>
-      <c r="B51" s="848"/>
-      <c r="C51" s="848"/>
-      <c r="D51" s="848"/>
-      <c r="E51" s="848"/>
-      <c r="F51" s="848"/>
-      <c r="G51" s="848"/>
-      <c r="H51" s="848"/>
-      <c r="I51" s="848"/>
-      <c r="J51" s="848"/>
-      <c r="K51" s="848"/>
+      <c r="B51" s="852"/>
+      <c r="C51" s="852"/>
+      <c r="D51" s="852"/>
+      <c r="E51" s="852"/>
+      <c r="F51" s="852"/>
+      <c r="G51" s="852"/>
+      <c r="H51" s="852"/>
+      <c r="I51" s="852"/>
+      <c r="J51" s="852"/>
+      <c r="K51" s="852"/>
       <c r="L51" s="648"/>
       <c r="M51" s="648"/>
       <c r="N51" s="648"/>
@@ -29070,19 +29070,19 @@
       <c r="IV51" s="648"/>
     </row>
     <row r="52" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A52" s="848" t="s">
+      <c r="A52" s="852" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="848"/>
-      <c r="C52" s="848"/>
-      <c r="D52" s="848"/>
-      <c r="E52" s="848"/>
-      <c r="F52" s="848"/>
-      <c r="G52" s="848"/>
-      <c r="H52" s="848"/>
-      <c r="I52" s="848"/>
-      <c r="J52" s="848"/>
-      <c r="K52" s="848"/>
+      <c r="B52" s="852"/>
+      <c r="C52" s="852"/>
+      <c r="D52" s="852"/>
+      <c r="E52" s="852"/>
+      <c r="F52" s="852"/>
+      <c r="G52" s="852"/>
+      <c r="H52" s="852"/>
+      <c r="I52" s="852"/>
+      <c r="J52" s="852"/>
+      <c r="K52" s="852"/>
       <c r="L52" s="648"/>
       <c r="M52" s="648"/>
       <c r="N52" s="648"/>
@@ -29330,19 +29330,19 @@
       <c r="IV52" s="648"/>
     </row>
     <row r="53" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A53" s="848" t="s">
+      <c r="A53" s="852" t="s">
         <v>550</v>
       </c>
-      <c r="B53" s="848"/>
-      <c r="C53" s="848"/>
-      <c r="D53" s="848"/>
-      <c r="E53" s="848"/>
-      <c r="F53" s="848"/>
-      <c r="G53" s="848"/>
-      <c r="H53" s="848"/>
-      <c r="I53" s="848"/>
-      <c r="J53" s="848"/>
-      <c r="K53" s="848"/>
+      <c r="B53" s="852"/>
+      <c r="C53" s="852"/>
+      <c r="D53" s="852"/>
+      <c r="E53" s="852"/>
+      <c r="F53" s="852"/>
+      <c r="G53" s="852"/>
+      <c r="H53" s="852"/>
+      <c r="I53" s="852"/>
+      <c r="J53" s="852"/>
+      <c r="K53" s="852"/>
       <c r="L53" s="648"/>
       <c r="M53" s="648"/>
       <c r="N53" s="648"/>
@@ -29590,19 +29590,19 @@
       <c r="IV53" s="648"/>
     </row>
     <row r="54" spans="1:256" s="313" customFormat="1" ht="63" customHeight="1">
-      <c r="A54" s="848" t="s">
+      <c r="A54" s="852" t="s">
         <v>555</v>
       </c>
-      <c r="B54" s="848"/>
-      <c r="C54" s="848"/>
-      <c r="D54" s="848"/>
-      <c r="E54" s="848"/>
-      <c r="F54" s="848"/>
-      <c r="G54" s="848"/>
-      <c r="H54" s="848"/>
-      <c r="I54" s="848"/>
-      <c r="J54" s="848"/>
-      <c r="K54" s="848"/>
+      <c r="B54" s="852"/>
+      <c r="C54" s="852"/>
+      <c r="D54" s="852"/>
+      <c r="E54" s="852"/>
+      <c r="F54" s="852"/>
+      <c r="G54" s="852"/>
+      <c r="H54" s="852"/>
+      <c r="I54" s="852"/>
+      <c r="J54" s="852"/>
+      <c r="K54" s="852"/>
       <c r="L54" s="648"/>
       <c r="M54" s="648"/>
       <c r="N54" s="648"/>
@@ -29850,19 +29850,19 @@
       <c r="IV54" s="648"/>
     </row>
     <row r="55" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A55" s="848" t="s">
+      <c r="A55" s="852" t="s">
         <v>953</v>
       </c>
-      <c r="B55" s="848"/>
-      <c r="C55" s="848"/>
-      <c r="D55" s="848"/>
-      <c r="E55" s="848"/>
-      <c r="F55" s="848"/>
-      <c r="G55" s="848"/>
-      <c r="H55" s="848"/>
-      <c r="I55" s="848"/>
-      <c r="J55" s="848"/>
-      <c r="K55" s="848"/>
+      <c r="B55" s="852"/>
+      <c r="C55" s="852"/>
+      <c r="D55" s="852"/>
+      <c r="E55" s="852"/>
+      <c r="F55" s="852"/>
+      <c r="G55" s="852"/>
+      <c r="H55" s="852"/>
+      <c r="I55" s="852"/>
+      <c r="J55" s="852"/>
+      <c r="K55" s="852"/>
       <c r="L55" s="648"/>
       <c r="M55" s="648"/>
       <c r="N55" s="648"/>
@@ -30110,19 +30110,19 @@
       <c r="IV55" s="648"/>
     </row>
     <row r="56" spans="1:256" s="313" customFormat="1">
-      <c r="A56" s="848" t="s">
+      <c r="A56" s="852" t="s">
         <v>846</v>
       </c>
-      <c r="B56" s="848"/>
-      <c r="C56" s="848"/>
-      <c r="D56" s="848"/>
-      <c r="E56" s="848"/>
-      <c r="F56" s="848"/>
-      <c r="G56" s="848"/>
-      <c r="H56" s="848"/>
-      <c r="I56" s="848"/>
-      <c r="J56" s="848"/>
-      <c r="K56" s="848"/>
+      <c r="B56" s="852"/>
+      <c r="C56" s="852"/>
+      <c r="D56" s="852"/>
+      <c r="E56" s="852"/>
+      <c r="F56" s="852"/>
+      <c r="G56" s="852"/>
+      <c r="H56" s="852"/>
+      <c r="I56" s="852"/>
+      <c r="J56" s="852"/>
+      <c r="K56" s="852"/>
       <c r="L56" s="648"/>
       <c r="M56" s="648"/>
       <c r="N56" s="648"/>
@@ -30384,65 +30384,65 @@
       <c r="S57" s="561"/>
     </row>
     <row r="58" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A58" s="847" t="s">
+      <c r="A58" s="853" t="s">
         <v>560</v>
       </c>
-      <c r="B58" s="847"/>
-      <c r="C58" s="847"/>
-      <c r="D58" s="847"/>
-      <c r="E58" s="847"/>
-      <c r="F58" s="847"/>
-      <c r="G58" s="847"/>
-      <c r="H58" s="847"/>
-      <c r="I58" s="847"/>
-      <c r="J58" s="847"/>
-      <c r="K58" s="847"/>
+      <c r="B58" s="853"/>
+      <c r="C58" s="853"/>
+      <c r="D58" s="853"/>
+      <c r="E58" s="853"/>
+      <c r="F58" s="853"/>
+      <c r="G58" s="853"/>
+      <c r="H58" s="853"/>
+      <c r="I58" s="853"/>
+      <c r="J58" s="853"/>
+      <c r="K58" s="853"/>
       <c r="S58" s="561"/>
     </row>
     <row r="59" spans="1:256" s="313" customFormat="1">
-      <c r="A59" s="847"/>
-      <c r="B59" s="847"/>
-      <c r="C59" s="847"/>
-      <c r="D59" s="847"/>
-      <c r="E59" s="847"/>
-      <c r="F59" s="847"/>
-      <c r="G59" s="847"/>
-      <c r="H59" s="847"/>
-      <c r="I59" s="847"/>
-      <c r="J59" s="847"/>
-      <c r="K59" s="847"/>
+      <c r="A59" s="853"/>
+      <c r="B59" s="853"/>
+      <c r="C59" s="853"/>
+      <c r="D59" s="853"/>
+      <c r="E59" s="853"/>
+      <c r="F59" s="853"/>
+      <c r="G59" s="853"/>
+      <c r="H59" s="853"/>
+      <c r="I59" s="853"/>
+      <c r="J59" s="853"/>
+      <c r="K59" s="853"/>
       <c r="S59" s="561"/>
     </row>
     <row r="60" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A60" s="847" t="s">
+      <c r="A60" s="853" t="s">
         <v>557</v>
       </c>
-      <c r="B60" s="847"/>
-      <c r="C60" s="847"/>
-      <c r="D60" s="847"/>
-      <c r="E60" s="847"/>
-      <c r="F60" s="847"/>
-      <c r="G60" s="847"/>
-      <c r="H60" s="847"/>
-      <c r="I60" s="847"/>
-      <c r="J60" s="847"/>
-      <c r="K60" s="847"/>
+      <c r="B60" s="853"/>
+      <c r="C60" s="853"/>
+      <c r="D60" s="853"/>
+      <c r="E60" s="853"/>
+      <c r="F60" s="853"/>
+      <c r="G60" s="853"/>
+      <c r="H60" s="853"/>
+      <c r="I60" s="853"/>
+      <c r="J60" s="853"/>
+      <c r="K60" s="853"/>
       <c r="S60" s="561"/>
     </row>
     <row r="61" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A61" s="847" t="s">
+      <c r="A61" s="853" t="s">
         <v>553</v>
       </c>
-      <c r="B61" s="847"/>
-      <c r="C61" s="847"/>
-      <c r="D61" s="847"/>
-      <c r="E61" s="847"/>
-      <c r="F61" s="847"/>
-      <c r="G61" s="847"/>
-      <c r="H61" s="847"/>
-      <c r="I61" s="847"/>
-      <c r="J61" s="847"/>
-      <c r="K61" s="847"/>
+      <c r="B61" s="853"/>
+      <c r="C61" s="853"/>
+      <c r="D61" s="853"/>
+      <c r="E61" s="853"/>
+      <c r="F61" s="853"/>
+      <c r="G61" s="853"/>
+      <c r="H61" s="853"/>
+      <c r="I61" s="853"/>
+      <c r="J61" s="853"/>
+      <c r="K61" s="853"/>
       <c r="L61" s="648"/>
       <c r="M61" s="648"/>
       <c r="N61" s="648"/>
@@ -30690,19 +30690,19 @@
       <c r="IV61" s="648"/>
     </row>
     <row r="62" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A62" s="847" t="s">
+      <c r="A62" s="853" t="s">
         <v>552</v>
       </c>
-      <c r="B62" s="847"/>
-      <c r="C62" s="847"/>
-      <c r="D62" s="847"/>
-      <c r="E62" s="847"/>
-      <c r="F62" s="847"/>
-      <c r="G62" s="847"/>
-      <c r="H62" s="847"/>
-      <c r="I62" s="847"/>
-      <c r="J62" s="847"/>
-      <c r="K62" s="847"/>
+      <c r="B62" s="853"/>
+      <c r="C62" s="853"/>
+      <c r="D62" s="853"/>
+      <c r="E62" s="853"/>
+      <c r="F62" s="853"/>
+      <c r="G62" s="853"/>
+      <c r="H62" s="853"/>
+      <c r="I62" s="853"/>
+      <c r="J62" s="853"/>
+      <c r="K62" s="853"/>
       <c r="L62" s="648"/>
       <c r="M62" s="648"/>
       <c r="N62" s="648"/>
@@ -30950,19 +30950,19 @@
       <c r="IV62" s="648"/>
     </row>
     <row r="63" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A63" s="847" t="s">
+      <c r="A63" s="853" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="847"/>
-      <c r="C63" s="847"/>
-      <c r="D63" s="847"/>
-      <c r="E63" s="847"/>
-      <c r="F63" s="847"/>
-      <c r="G63" s="847"/>
-      <c r="H63" s="847"/>
-      <c r="I63" s="847"/>
-      <c r="J63" s="847"/>
-      <c r="K63" s="847"/>
+      <c r="B63" s="853"/>
+      <c r="C63" s="853"/>
+      <c r="D63" s="853"/>
+      <c r="E63" s="853"/>
+      <c r="F63" s="853"/>
+      <c r="G63" s="853"/>
+      <c r="H63" s="853"/>
+      <c r="I63" s="853"/>
+      <c r="J63" s="853"/>
+      <c r="K63" s="853"/>
       <c r="L63" s="648"/>
       <c r="M63" s="648"/>
       <c r="N63" s="648"/>
@@ -31210,19 +31210,19 @@
       <c r="IV63" s="648"/>
     </row>
     <row r="64" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A64" s="847" t="s">
+      <c r="A64" s="853" t="s">
         <v>554</v>
       </c>
-      <c r="B64" s="847"/>
-      <c r="C64" s="847"/>
-      <c r="D64" s="847"/>
-      <c r="E64" s="847"/>
-      <c r="F64" s="847"/>
-      <c r="G64" s="847"/>
-      <c r="H64" s="847"/>
-      <c r="I64" s="847"/>
-      <c r="J64" s="847"/>
-      <c r="K64" s="847"/>
+      <c r="B64" s="853"/>
+      <c r="C64" s="853"/>
+      <c r="D64" s="853"/>
+      <c r="E64" s="853"/>
+      <c r="F64" s="853"/>
+      <c r="G64" s="853"/>
+      <c r="H64" s="853"/>
+      <c r="I64" s="853"/>
+      <c r="J64" s="853"/>
+      <c r="K64" s="853"/>
       <c r="L64" s="648"/>
       <c r="M64" s="648"/>
       <c r="N64" s="648"/>
@@ -31470,19 +31470,19 @@
       <c r="IV64" s="648"/>
     </row>
     <row r="65" spans="1:256" s="313" customFormat="1" ht="63" customHeight="1">
-      <c r="A65" s="847" t="s">
+      <c r="A65" s="853" t="s">
         <v>558</v>
       </c>
-      <c r="B65" s="847"/>
-      <c r="C65" s="847"/>
-      <c r="D65" s="847"/>
-      <c r="E65" s="847"/>
-      <c r="F65" s="847"/>
-      <c r="G65" s="847"/>
-      <c r="H65" s="847"/>
-      <c r="I65" s="847"/>
-      <c r="J65" s="847"/>
-      <c r="K65" s="847"/>
+      <c r="B65" s="853"/>
+      <c r="C65" s="853"/>
+      <c r="D65" s="853"/>
+      <c r="E65" s="853"/>
+      <c r="F65" s="853"/>
+      <c r="G65" s="853"/>
+      <c r="H65" s="853"/>
+      <c r="I65" s="853"/>
+      <c r="J65" s="853"/>
+      <c r="K65" s="853"/>
       <c r="L65" s="648"/>
       <c r="M65" s="648"/>
       <c r="N65" s="648"/>
@@ -31730,19 +31730,19 @@
       <c r="IV65" s="648"/>
     </row>
     <row r="66" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A66" s="847" t="s">
+      <c r="A66" s="853" t="s">
         <v>805</v>
       </c>
-      <c r="B66" s="847"/>
-      <c r="C66" s="847"/>
-      <c r="D66" s="847"/>
-      <c r="E66" s="847"/>
-      <c r="F66" s="847"/>
-      <c r="G66" s="847"/>
-      <c r="H66" s="847"/>
-      <c r="I66" s="847"/>
-      <c r="J66" s="847"/>
-      <c r="K66" s="847"/>
+      <c r="B66" s="853"/>
+      <c r="C66" s="853"/>
+      <c r="D66" s="853"/>
+      <c r="E66" s="853"/>
+      <c r="F66" s="853"/>
+      <c r="G66" s="853"/>
+      <c r="H66" s="853"/>
+      <c r="I66" s="853"/>
+      <c r="J66" s="853"/>
+      <c r="K66" s="853"/>
       <c r="L66" s="648"/>
       <c r="M66" s="648"/>
       <c r="N66" s="648"/>
@@ -31990,19 +31990,19 @@
       <c r="IV66" s="648"/>
     </row>
     <row r="67" spans="1:256" s="313" customFormat="1">
-      <c r="A67" s="847" t="s">
+      <c r="A67" s="853" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="847"/>
-      <c r="C67" s="847"/>
-      <c r="D67" s="847"/>
-      <c r="E67" s="847"/>
-      <c r="F67" s="847"/>
-      <c r="G67" s="847"/>
-      <c r="H67" s="847"/>
-      <c r="I67" s="847"/>
-      <c r="J67" s="847"/>
-      <c r="K67" s="847"/>
+      <c r="B67" s="853"/>
+      <c r="C67" s="853"/>
+      <c r="D67" s="853"/>
+      <c r="E67" s="853"/>
+      <c r="F67" s="853"/>
+      <c r="G67" s="853"/>
+      <c r="H67" s="853"/>
+      <c r="I67" s="853"/>
+      <c r="J67" s="853"/>
+      <c r="K67" s="853"/>
       <c r="L67" s="648"/>
       <c r="M67" s="648"/>
       <c r="N67" s="648"/>
@@ -32251,28 +32251,6 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A50:K50"/>
     <mergeCell ref="A67:K67"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A59:K59"/>
@@ -32289,6 +32267,28 @@
     <mergeCell ref="A52:K52"/>
     <mergeCell ref="A53:K53"/>
     <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -39711,7 +39711,7 @@
       </c>
       <c r="H5" s="710">
         <f ca="1">TODAY()</f>
-        <v>42985</v>
+        <v>43042</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="67" customFormat="1">
@@ -39720,13 +39720,13 @@
     </row>
     <row r="7" spans="1:13" s="162" customFormat="1" ht="11.25">
       <c r="A7" s="577"/>
-      <c r="B7" s="728"/>
-      <c r="C7" s="729"/>
-      <c r="D7" s="729"/>
-      <c r="E7" s="729"/>
-      <c r="F7" s="729"/>
-      <c r="G7" s="729"/>
-      <c r="H7" s="730"/>
+      <c r="B7" s="743"/>
+      <c r="C7" s="744"/>
+      <c r="D7" s="744"/>
+      <c r="E7" s="744"/>
+      <c r="F7" s="744"/>
+      <c r="G7" s="744"/>
+      <c r="H7" s="745"/>
     </row>
     <row r="8" spans="1:13" s="67" customFormat="1" ht="3" customHeight="1"/>
     <row r="9" spans="1:13" s="67" customFormat="1">
@@ -39746,24 +39746,24 @@
         <f>IF($A$4="Español","Razón Social:","Company:")</f>
         <v>Razón Social:</v>
       </c>
-      <c r="C10" s="742"/>
-      <c r="D10" s="742"/>
-      <c r="E10" s="742"/>
+      <c r="C10" s="732"/>
+      <c r="D10" s="732"/>
+      <c r="E10" s="732"/>
       <c r="F10" s="67" t="str">
         <f>IF($A$4="Español","Nombre:","Event Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="G10" s="735"/>
-      <c r="H10" s="735"/>
+      <c r="G10" s="733"/>
+      <c r="H10" s="733"/>
     </row>
     <row r="11" spans="1:13" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B11" s="734" t="str">
+      <c r="B11" s="748" t="str">
         <f>IF($A$4="Español","Domicilio Fiscal:","Address:")</f>
         <v>Domicilio Fiscal:</v>
       </c>
-      <c r="C11" s="733"/>
-      <c r="D11" s="733"/>
-      <c r="E11" s="733"/>
+      <c r="C11" s="747"/>
+      <c r="D11" s="747"/>
+      <c r="E11" s="747"/>
       <c r="F11" s="110" t="str">
         <f>IF($A$4="Español","Fecha de Montaje","Set up Date:")</f>
         <v>Fecha de Montaje</v>
@@ -39772,10 +39772,10 @@
       <c r="H11" s="266"/>
     </row>
     <row r="12" spans="1:13" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B12" s="734"/>
-      <c r="C12" s="733"/>
-      <c r="D12" s="733"/>
-      <c r="E12" s="733"/>
+      <c r="B12" s="748"/>
+      <c r="C12" s="747"/>
+      <c r="D12" s="747"/>
+      <c r="E12" s="747"/>
       <c r="F12" s="110" t="str">
         <f>IF($A$4="Español","Hora de Montaje:","Set up Hour:")</f>
         <v>Hora de Montaje:</v>
@@ -39819,8 +39819,8 @@
         <f>IF($A$4="Español","Nombre:","Contact:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="C15" s="735"/>
-      <c r="D15" s="735"/>
+      <c r="C15" s="733"/>
+      <c r="D15" s="733"/>
       <c r="F15" s="110" t="str">
         <f>IF($A$4="Español","Fecha de Inicio:","Start Event Date:")</f>
         <v>Fecha de Inicio:</v>
@@ -39834,8 +39834,8 @@
         <f>IF($A$4="Español","Puesto:","Position:")</f>
         <v>Puesto:</v>
       </c>
-      <c r="C16" s="736"/>
-      <c r="D16" s="736"/>
+      <c r="C16" s="734"/>
+      <c r="D16" s="734"/>
       <c r="E16" s="110"/>
       <c r="F16" s="67" t="str">
         <f>IF($A$4="Español","Hora de Inicio:","Start Event Hour:")</f>
@@ -39885,31 +39885,31 @@
         <f>IF($A$4="Español","Lugar:","Event Location:")</f>
         <v>Lugar:</v>
       </c>
-      <c r="G19" s="736"/>
-      <c r="H19" s="737"/>
+      <c r="G19" s="734"/>
+      <c r="H19" s="749"/>
     </row>
     <row r="20" spans="2:34" s="67" customFormat="1" ht="12.75" customHeight="1">
       <c r="B20" s="121" t="s">
         <v>523</v>
       </c>
       <c r="C20" s="114"/>
-      <c r="F20" s="744" t="str">
+      <c r="F20" s="736" t="str">
         <f>IF($A$4="Español","Dirección:","Address:")</f>
         <v>Dirección:</v>
       </c>
-      <c r="G20" s="738"/>
-      <c r="H20" s="738"/>
+      <c r="G20" s="750"/>
+      <c r="H20" s="750"/>
     </row>
     <row r="21" spans="2:34" s="67" customFormat="1">
       <c r="B21" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="743"/>
-      <c r="D21" s="743"/>
+      <c r="C21" s="735"/>
+      <c r="D21" s="735"/>
       <c r="E21" s="281"/>
-      <c r="F21" s="744"/>
-      <c r="G21" s="738"/>
-      <c r="H21" s="738"/>
+      <c r="F21" s="736"/>
+      <c r="G21" s="750"/>
+      <c r="H21" s="750"/>
     </row>
     <row r="22" spans="2:34" s="67" customFormat="1">
       <c r="B22" s="123"/>
@@ -39936,14 +39936,14 @@
         <f>IF($A$4="Español","Nombre:","Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="C24" s="735"/>
-      <c r="D24" s="735"/>
+      <c r="C24" s="733"/>
+      <c r="D24" s="733"/>
       <c r="F24" s="67" t="str">
         <f>IF($A$4="Español","Nombre:","Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="G24" s="735"/>
-      <c r="H24" s="735"/>
+      <c r="G24" s="733"/>
+      <c r="H24" s="733"/>
     </row>
     <row r="25" spans="2:34" s="67" customFormat="1">
       <c r="B25" s="67" t="str">
@@ -39962,14 +39962,14 @@
       <c r="B26" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="743"/>
-      <c r="D26" s="743"/>
+      <c r="C26" s="735"/>
+      <c r="D26" s="735"/>
       <c r="E26" s="285"/>
       <c r="F26" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="743"/>
-      <c r="H26" s="743"/>
+      <c r="G26" s="735"/>
+      <c r="H26" s="735"/>
     </row>
     <row r="27" spans="2:34" s="67" customFormat="1">
       <c r="B27" s="120" t="str">
@@ -39983,16 +39983,16 @@
       <c r="G27" s="109"/>
     </row>
     <row r="28" spans="2:34" s="69" customFormat="1">
-      <c r="B28" s="740" t="str">
+      <c r="B28" s="729" t="str">
         <f>IF($A$4="Español","Resumen","Summary")</f>
         <v>Resumen</v>
       </c>
-      <c r="C28" s="740"/>
-      <c r="D28" s="740"/>
-      <c r="E28" s="740"/>
-      <c r="F28" s="740"/>
-      <c r="G28" s="740"/>
-      <c r="H28" s="740"/>
+      <c r="C28" s="729"/>
+      <c r="D28" s="729"/>
+      <c r="E28" s="729"/>
+      <c r="F28" s="729"/>
+      <c r="G28" s="729"/>
+      <c r="H28" s="729"/>
       <c r="I28" s="242"/>
     </row>
     <row r="29" spans="2:34" s="67" customFormat="1">
@@ -40431,22 +40431,22 @@
       <c r="N43" s="125"/>
     </row>
     <row r="44" spans="2:34" s="162" customFormat="1" ht="11.25">
-      <c r="B44" s="745"/>
-      <c r="C44" s="746"/>
-      <c r="D44" s="746"/>
-      <c r="E44" s="746"/>
-      <c r="F44" s="746"/>
-      <c r="G44" s="746"/>
-      <c r="H44" s="747"/>
+      <c r="B44" s="737"/>
+      <c r="C44" s="738"/>
+      <c r="D44" s="738"/>
+      <c r="E44" s="738"/>
+      <c r="F44" s="738"/>
+      <c r="G44" s="738"/>
+      <c r="H44" s="739"/>
     </row>
     <row r="45" spans="2:34" s="162" customFormat="1" ht="11.25">
-      <c r="B45" s="748"/>
-      <c r="C45" s="749"/>
-      <c r="D45" s="749"/>
-      <c r="E45" s="749"/>
-      <c r="F45" s="749"/>
-      <c r="G45" s="749"/>
-      <c r="H45" s="750"/>
+      <c r="B45" s="740"/>
+      <c r="C45" s="741"/>
+      <c r="D45" s="741"/>
+      <c r="E45" s="741"/>
+      <c r="F45" s="741"/>
+      <c r="G45" s="741"/>
+      <c r="H45" s="742"/>
     </row>
     <row r="46" spans="2:34" s="67" customFormat="1" ht="3.75" customHeight="1">
       <c r="B46" s="124"/>
@@ -40455,16 +40455,16 @@
       <c r="N46" s="125"/>
     </row>
     <row r="47" spans="2:34" s="162" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B47" s="732" t="str">
+      <c r="B47" s="746" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A22),CONCATENATE('8-Condicionantes'!A33))</f>
         <v/>
       </c>
-      <c r="C47" s="732"/>
-      <c r="D47" s="732"/>
-      <c r="E47" s="732"/>
-      <c r="F47" s="732"/>
-      <c r="G47" s="732"/>
-      <c r="H47" s="732"/>
+      <c r="C47" s="746"/>
+      <c r="D47" s="746"/>
+      <c r="E47" s="746"/>
+      <c r="F47" s="746"/>
+      <c r="G47" s="746"/>
+      <c r="H47" s="746"/>
       <c r="M47" s="386"/>
       <c r="N47" s="386"/>
     </row>
@@ -40669,7 +40669,7 @@
       <c r="D62" s="669"/>
       <c r="E62" s="552">
         <f ca="1">DAYS360(H5,G11)</f>
-        <v>-42367</v>
+        <v>-42423</v>
       </c>
       <c r="F62" s="458" t="str">
         <f>IF($A$4="Español","Referencia CxC","Reference AR")</f>
@@ -40688,7 +40688,7 @@
       <c r="D63" s="669"/>
       <c r="E63" s="554">
         <f ca="1">+H5+15</f>
-        <v>43000</v>
+        <v>43057</v>
       </c>
       <c r="F63" s="458" t="str">
         <f>IF($A$4="Español","Medio de Cobro:","Method of Payment:")</f>
@@ -40727,16 +40727,16 @@
       <c r="I64" s="141"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="741" t="str">
+      <c r="B65" s="730" t="str">
         <f>IF(G64="SI","Para realizar el evento, es necesario cubrir el  50% de anticipo del total de la cotización.",IF(G64="yes","To make the event, it must cover 50% deposit of total quote",0))</f>
         <v>Para realizar el evento, es necesario cubrir el  50% de anticipo del total de la cotización.</v>
       </c>
-      <c r="C65" s="741"/>
-      <c r="D65" s="741"/>
-      <c r="E65" s="741"/>
-      <c r="F65" s="741"/>
-      <c r="G65" s="741"/>
-      <c r="H65" s="741"/>
+      <c r="C65" s="730"/>
+      <c r="D65" s="730"/>
+      <c r="E65" s="730"/>
+      <c r="F65" s="730"/>
+      <c r="G65" s="730"/>
+      <c r="H65" s="730"/>
       <c r="I65" s="148"/>
     </row>
     <row r="66" spans="2:9">
@@ -40871,20 +40871,35 @@
       <c r="H76" s="67"/>
     </row>
     <row r="77" spans="2:9" s="257" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B77" s="739" t="str">
+      <c r="B77" s="728" t="str">
         <f>IF($A$4="Español","Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 en la Ciudad de México. , Tel: (55) 3000.8500,  www.psav.com","PSAV Mexico Corporate Office: Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 México City, CP 11540, Phone +52 55 3000.8500,  www.psav.com")</f>
         <v>Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 en la Ciudad de México. , Tel: (55) 3000.8500,  www.psav.com</v>
       </c>
-      <c r="C77" s="739"/>
-      <c r="D77" s="739"/>
-      <c r="E77" s="739"/>
-      <c r="F77" s="739"/>
-      <c r="G77" s="739"/>
-      <c r="H77" s="739"/>
+      <c r="C77" s="728"/>
+      <c r="D77" s="728"/>
+      <c r="E77" s="728"/>
+      <c r="F77" s="728"/>
+      <c r="G77" s="728"/>
+      <c r="H77" s="728"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="30">
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B56:H56"/>
+    <mergeCell ref="B47:H47"/>
+    <mergeCell ref="B55:H55"/>
+    <mergeCell ref="C11:E12"/>
+    <mergeCell ref="B49:H49"/>
+    <mergeCell ref="B50:H50"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B51:H51"/>
+    <mergeCell ref="B54:H54"/>
+    <mergeCell ref="B52:H52"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H21"/>
     <mergeCell ref="B77:H77"/>
     <mergeCell ref="B28:H28"/>
     <mergeCell ref="B65:H65"/>
@@ -40900,21 +40915,6 @@
     <mergeCell ref="G26:H26"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B56:H56"/>
-    <mergeCell ref="B47:H47"/>
-    <mergeCell ref="B55:H55"/>
-    <mergeCell ref="C11:E12"/>
-    <mergeCell ref="B49:H49"/>
-    <mergeCell ref="B50:H50"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="B54:H54"/>
-    <mergeCell ref="B52:H52"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H21"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D62 E61:F61 G31:G32 G34 G40 H38 B30:B41">
@@ -40965,7 +40965,7 @@
   </sheetPr>
   <dimension ref="B1:BF79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" ySplit="6" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28:K28"/>
       <selection pane="topRight" activeCell="A28" sqref="A28:K28"/>
@@ -41130,92 +41130,92 @@
       <c r="AV7" s="28"/>
     </row>
     <row r="8" spans="2:49" s="26" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B8" s="766">
+      <c r="B8" s="772">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="766"/>
-      <c r="D8" s="766"/>
-      <c r="E8" s="766"/>
-      <c r="F8" s="766"/>
-      <c r="G8" s="766"/>
+      <c r="C8" s="772"/>
+      <c r="D8" s="772"/>
+      <c r="E8" s="772"/>
+      <c r="F8" s="772"/>
+      <c r="G8" s="772"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="775" t="s">
+      <c r="I8" s="776" t="s">
         <v>873</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="43"/>
-      <c r="L8" s="757" t="s">
+      <c r="L8" s="765" t="s">
         <v>863</v>
       </c>
-      <c r="M8" s="758"/>
+      <c r="M8" s="766"/>
       <c r="N8" s="222"/>
-      <c r="O8" s="757" t="s">
+      <c r="O8" s="765" t="s">
         <v>868</v>
       </c>
-      <c r="P8" s="758"/>
+      <c r="P8" s="766"/>
       <c r="Q8" s="222"/>
-      <c r="R8" s="772" t="s">
+      <c r="R8" s="773" t="s">
         <v>877</v>
       </c>
-      <c r="S8" s="773"/>
-      <c r="T8" s="773"/>
-      <c r="U8" s="773"/>
-      <c r="V8" s="774"/>
+      <c r="S8" s="774"/>
+      <c r="T8" s="774"/>
+      <c r="U8" s="774"/>
+      <c r="V8" s="775"/>
       <c r="W8" s="222"/>
-      <c r="X8" s="767" t="s">
+      <c r="X8" s="751" t="s">
         <v>608</v>
       </c>
-      <c r="Y8" s="768"/>
-      <c r="Z8" s="768"/>
-      <c r="AA8" s="768"/>
-      <c r="AB8" s="768"/>
-      <c r="AC8" s="768"/>
-      <c r="AD8" s="768"/>
-      <c r="AE8" s="768"/>
-      <c r="AF8" s="768"/>
-      <c r="AG8" s="768"/>
-      <c r="AH8" s="768"/>
-      <c r="AI8" s="769"/>
+      <c r="Y8" s="752"/>
+      <c r="Z8" s="752"/>
+      <c r="AA8" s="752"/>
+      <c r="AB8" s="752"/>
+      <c r="AC8" s="752"/>
+      <c r="AD8" s="752"/>
+      <c r="AE8" s="752"/>
+      <c r="AF8" s="752"/>
+      <c r="AG8" s="752"/>
+      <c r="AH8" s="752"/>
+      <c r="AI8" s="753"/>
       <c r="AJ8" s="222"/>
-      <c r="AK8" s="767" t="s">
+      <c r="AK8" s="751" t="s">
         <v>865</v>
       </c>
-      <c r="AL8" s="768"/>
-      <c r="AM8" s="768"/>
-      <c r="AN8" s="768"/>
-      <c r="AO8" s="768"/>
-      <c r="AP8" s="768"/>
-      <c r="AQ8" s="768"/>
-      <c r="AR8" s="768"/>
-      <c r="AS8" s="768"/>
-      <c r="AT8" s="768"/>
-      <c r="AU8" s="768"/>
-      <c r="AV8" s="769"/>
+      <c r="AL8" s="752"/>
+      <c r="AM8" s="752"/>
+      <c r="AN8" s="752"/>
+      <c r="AO8" s="752"/>
+      <c r="AP8" s="752"/>
+      <c r="AQ8" s="752"/>
+      <c r="AR8" s="752"/>
+      <c r="AS8" s="752"/>
+      <c r="AT8" s="752"/>
+      <c r="AU8" s="752"/>
+      <c r="AV8" s="753"/>
     </row>
     <row r="9" spans="2:49" s="26" customFormat="1" ht="15.75" customHeight="1">
       <c r="B9" s="676"/>
-      <c r="I9" s="776"/>
+      <c r="I9" s="777"/>
       <c r="J9" s="40"/>
-      <c r="L9" s="759"/>
-      <c r="M9" s="760"/>
+      <c r="L9" s="767"/>
+      <c r="M9" s="768"/>
       <c r="N9" s="223"/>
-      <c r="O9" s="759"/>
-      <c r="P9" s="760"/>
+      <c r="O9" s="767"/>
+      <c r="P9" s="768"/>
       <c r="Q9" s="223"/>
-      <c r="R9" s="755" t="s">
+      <c r="R9" s="759" t="s">
         <v>617</v>
       </c>
-      <c r="S9" s="755" t="s">
+      <c r="S9" s="759" t="s">
         <v>618</v>
       </c>
-      <c r="T9" s="755" t="s">
+      <c r="T9" s="759" t="s">
         <v>619</v>
       </c>
-      <c r="U9" s="753" t="s">
+      <c r="U9" s="761" t="s">
         <v>866</v>
       </c>
-      <c r="V9" s="770" t="s">
+      <c r="V9" s="755" t="s">
         <v>867</v>
       </c>
       <c r="W9" s="223"/>
@@ -41229,47 +41229,47 @@
       <c r="AE9" s="228"/>
       <c r="AF9" s="228"/>
       <c r="AG9" s="229"/>
-      <c r="AH9" s="753" t="s">
+      <c r="AH9" s="761" t="s">
         <v>866</v>
       </c>
-      <c r="AI9" s="770" t="s">
+      <c r="AI9" s="755" t="s">
         <v>867</v>
       </c>
       <c r="AJ9" s="223"/>
-      <c r="AK9" s="761" t="s">
+      <c r="AK9" s="757" t="s">
         <v>690</v>
       </c>
-      <c r="AL9" s="761" t="s">
+      <c r="AL9" s="757" t="s">
         <v>963</v>
       </c>
-      <c r="AM9" s="761" t="s">
+      <c r="AM9" s="757" t="s">
         <v>964</v>
       </c>
-      <c r="AN9" s="761" t="s">
+      <c r="AN9" s="757" t="s">
         <v>965</v>
       </c>
-      <c r="AO9" s="761" t="s">
+      <c r="AO9" s="757" t="s">
         <v>966</v>
       </c>
-      <c r="AP9" s="761" t="s">
+      <c r="AP9" s="757" t="s">
         <v>967</v>
       </c>
-      <c r="AQ9" s="761" t="s">
+      <c r="AQ9" s="757" t="s">
         <v>968</v>
       </c>
-      <c r="AR9" s="761" t="s">
+      <c r="AR9" s="757" t="s">
         <v>969</v>
       </c>
-      <c r="AS9" s="761" t="s">
+      <c r="AS9" s="757" t="s">
         <v>970</v>
       </c>
-      <c r="AT9" s="761" t="s">
+      <c r="AT9" s="757" t="s">
         <v>971</v>
       </c>
-      <c r="AU9" s="753" t="s">
+      <c r="AU9" s="761" t="s">
         <v>866</v>
       </c>
-      <c r="AV9" s="770" t="s">
+      <c r="AV9" s="755" t="s">
         <v>867</v>
       </c>
     </row>
@@ -41317,11 +41317,11 @@
         <v>867</v>
       </c>
       <c r="Q10" s="223"/>
-      <c r="R10" s="756"/>
-      <c r="S10" s="756"/>
-      <c r="T10" s="756"/>
-      <c r="U10" s="754"/>
-      <c r="V10" s="771"/>
+      <c r="R10" s="760"/>
+      <c r="S10" s="760"/>
+      <c r="T10" s="760"/>
+      <c r="U10" s="762"/>
+      <c r="V10" s="756"/>
       <c r="W10" s="223">
         <v>7005</v>
       </c>
@@ -41365,21 +41365,21 @@
         <f>IF(AG9=0,"",VLOOKUP(AG9,'9 - Locations'!$C$6:$K$274,6,0))</f>
         <v/>
       </c>
-      <c r="AH10" s="754"/>
-      <c r="AI10" s="771"/>
+      <c r="AH10" s="762"/>
+      <c r="AI10" s="756"/>
       <c r="AJ10" s="223"/>
-      <c r="AK10" s="762"/>
-      <c r="AL10" s="762"/>
-      <c r="AM10" s="762"/>
-      <c r="AN10" s="762"/>
-      <c r="AO10" s="762"/>
-      <c r="AP10" s="762"/>
-      <c r="AQ10" s="762"/>
-      <c r="AR10" s="762"/>
-      <c r="AS10" s="762"/>
-      <c r="AT10" s="762"/>
-      <c r="AU10" s="754"/>
-      <c r="AV10" s="771"/>
+      <c r="AK10" s="758"/>
+      <c r="AL10" s="758"/>
+      <c r="AM10" s="758"/>
+      <c r="AN10" s="758"/>
+      <c r="AO10" s="758"/>
+      <c r="AP10" s="758"/>
+      <c r="AQ10" s="758"/>
+      <c r="AR10" s="758"/>
+      <c r="AS10" s="758"/>
+      <c r="AT10" s="758"/>
+      <c r="AU10" s="762"/>
+      <c r="AV10" s="756"/>
     </row>
     <row r="11" spans="2:49" s="26" customFormat="1" ht="4.5" customHeight="1">
       <c r="B11" s="676"/>
@@ -41393,14 +41393,14 @@
       <c r="AV11" s="36"/>
     </row>
     <row r="12" spans="2:49" s="48" customFormat="1" ht="15.75">
-      <c r="B12" s="763" t="str">
+      <c r="B12" s="769" t="str">
         <f>IF(I12="español","RENTA DE EQUIPO Y SERVICIOS","AV EQUIPMENT AND SERVICES")</f>
         <v>RENTA DE EQUIPO Y SERVICIOS</v>
       </c>
-      <c r="C12" s="764"/>
-      <c r="D12" s="764"/>
-      <c r="E12" s="764"/>
-      <c r="F12" s="765"/>
+      <c r="C12" s="770"/>
+      <c r="D12" s="770"/>
+      <c r="E12" s="770"/>
+      <c r="F12" s="771"/>
       <c r="G12" s="50">
         <f>'2-Cotización'!G22</f>
         <v>0</v>
@@ -41412,23 +41412,23 @@
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="777" t="s">
+      <c r="L12" s="754" t="s">
         <v>872</v>
       </c>
-      <c r="M12" s="777"/>
+      <c r="M12" s="754"/>
       <c r="N12" s="223"/>
-      <c r="O12" s="777" t="s">
+      <c r="O12" s="754" t="s">
         <v>872</v>
       </c>
-      <c r="P12" s="777"/>
+      <c r="P12" s="754"/>
       <c r="Q12" s="223"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="777" t="s">
+      <c r="U12" s="754" t="s">
         <v>872</v>
       </c>
-      <c r="V12" s="777"/>
+      <c r="V12" s="754"/>
       <c r="W12" s="223"/>
       <c r="X12" s="26"/>
       <c r="Y12" s="26"/>
@@ -41440,10 +41440,10 @@
       <c r="AE12" s="26"/>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
-      <c r="AH12" s="777" t="s">
+      <c r="AH12" s="754" t="s">
         <v>872</v>
       </c>
-      <c r="AI12" s="777"/>
+      <c r="AI12" s="754"/>
       <c r="AJ12" s="223"/>
       <c r="AK12" s="26"/>
       <c r="AL12" s="26"/>
@@ -41455,26 +41455,26 @@
       <c r="AR12" s="26"/>
       <c r="AS12" s="26"/>
       <c r="AT12" s="26"/>
-      <c r="AU12" s="777" t="s">
+      <c r="AU12" s="754" t="s">
         <v>872</v>
       </c>
-      <c r="AV12" s="777"/>
+      <c r="AV12" s="754"/>
       <c r="AW12" s="26"/>
     </row>
     <row r="13" spans="2:49" s="26" customFormat="1" ht="3" customHeight="1">
       <c r="B13" s="676"/>
       <c r="J13" s="40"/>
-      <c r="L13" s="777"/>
-      <c r="M13" s="777"/>
+      <c r="L13" s="754"/>
+      <c r="M13" s="754"/>
       <c r="N13" s="225"/>
-      <c r="O13" s="777"/>
-      <c r="P13" s="777"/>
+      <c r="O13" s="754"/>
+      <c r="P13" s="754"/>
       <c r="Q13" s="225"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="777"/>
-      <c r="V13" s="777"/>
+      <c r="U13" s="754"/>
+      <c r="V13" s="754"/>
       <c r="W13" s="225"/>
       <c r="X13" s="51"/>
       <c r="Y13" s="51"/>
@@ -41486,8 +41486,8 @@
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
-      <c r="AH13" s="777"/>
-      <c r="AI13" s="777"/>
+      <c r="AH13" s="754"/>
+      <c r="AI13" s="754"/>
       <c r="AJ13" s="225"/>
       <c r="AK13" s="51"/>
       <c r="AL13" s="51"/>
@@ -41499,8 +41499,8 @@
       <c r="AR13" s="51"/>
       <c r="AS13" s="51"/>
       <c r="AT13" s="51"/>
-      <c r="AU13" s="777"/>
-      <c r="AV13" s="777"/>
+      <c r="AU13" s="754"/>
+      <c r="AV13" s="754"/>
       <c r="AW13" s="51"/>
     </row>
     <row r="14" spans="2:49" s="26" customFormat="1" ht="4.5" customHeight="1">
@@ -44517,13 +44517,13 @@
       <c r="AV52" s="29"/>
     </row>
     <row r="53" spans="2:48" ht="15.75">
-      <c r="B53" s="751" t="str">
+      <c r="B53" s="763" t="str">
         <f>IF(I12="español","MANO DE OBRA","LABOR")</f>
         <v>MANO DE OBRA</v>
       </c>
-      <c r="C53" s="752"/>
-      <c r="D53" s="752"/>
-      <c r="E53" s="752"/>
+      <c r="C53" s="764"/>
+      <c r="D53" s="764"/>
+      <c r="E53" s="764"/>
       <c r="F53" s="263"/>
       <c r="G53" s="264"/>
       <c r="H53" s="58"/>
@@ -46411,23 +46411,6 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="X8:AI8"/>
-    <mergeCell ref="AH12:AI13"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AL9:AL10"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AU12:AV13"/>
-    <mergeCell ref="AV9:AV10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AU9:AU10"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="S9:S10"/>
@@ -46444,6 +46427,23 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="O12:P13"/>
     <mergeCell ref="U12:V13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AU12:AV13"/>
+    <mergeCell ref="AV9:AV10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AU9:AU10"/>
+    <mergeCell ref="X8:AI8"/>
+    <mergeCell ref="AH12:AI13"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AL9:AL10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="M55:M72 M16:M27 M33:M35 M37:M50">
@@ -46492,10 +46492,10 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A28" sqref="A28:K28"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -46603,7 +46603,7 @@
       </c>
       <c r="E11" s="390">
         <f ca="1">+'2-Cotización'!H5</f>
-        <v>42985</v>
+        <v>43042</v>
       </c>
       <c r="H11" s="162">
         <f>+'2-Cotización'!G22</f>
@@ -46747,7 +46747,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="188">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G19" s="433">
         <f ca="1">C19*F19</f>
@@ -46793,7 +46793,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="188">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G20" s="433">
         <f t="shared" ref="G20:G33" ca="1" si="4">C20*F20</f>
@@ -46842,7 +46842,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="188">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="G21" s="433">
         <f t="shared" ca="1" si="4"/>
@@ -46891,7 +46891,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="188">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G22" s="433">
         <f t="shared" ca="1" si="4"/>
@@ -46989,7 +46989,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="188">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G24" s="433">
         <f t="shared" ca="1" si="4"/>
@@ -47547,17 +47547,17 @@
       <c r="G43" s="792"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="721" t="s">
+      <c r="B44" s="714" t="s">
         <v>956</v>
       </c>
-      <c r="C44" s="721"/>
-      <c r="D44" s="721"/>
-      <c r="E44" s="721"/>
-      <c r="F44" s="721"/>
-      <c r="G44" s="721"/>
-      <c r="H44" s="721"/>
-      <c r="I44" s="721"/>
-      <c r="J44" s="721"/>
+      <c r="C44" s="714"/>
+      <c r="D44" s="714"/>
+      <c r="E44" s="714"/>
+      <c r="F44" s="714"/>
+      <c r="G44" s="714"/>
+      <c r="H44" s="714"/>
+      <c r="I44" s="714"/>
+      <c r="J44" s="714"/>
     </row>
     <row r="46" spans="1:14">
       <c r="B46" s="157" t="s">
@@ -49782,7 +49782,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup scale="67" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="51" max="16383" man="1"/>
@@ -49906,28 +49906,28 @@
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:25" s="162" customFormat="1" ht="11.25">
-      <c r="A8" s="803"/>
-      <c r="B8" s="803"/>
-      <c r="C8" s="803"/>
-      <c r="D8" s="803"/>
-      <c r="E8" s="799" t="str">
+      <c r="A8" s="809"/>
+      <c r="B8" s="809"/>
+      <c r="C8" s="809"/>
+      <c r="D8" s="809"/>
+      <c r="E8" s="805" t="str">
         <f ca="1">+C73</f>
         <v/>
       </c>
-      <c r="F8" s="800"/>
+      <c r="F8" s="806"/>
       <c r="G8" s="161"/>
       <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:25" s="162" customFormat="1" ht="11.25">
-      <c r="A9" s="803" t="str">
+      <c r="A9" s="809" t="str">
         <f>+C80</f>
         <v/>
       </c>
-      <c r="B9" s="803"/>
-      <c r="C9" s="803"/>
-      <c r="D9" s="803"/>
-      <c r="E9" s="801"/>
-      <c r="F9" s="802"/>
+      <c r="B9" s="809"/>
+      <c r="C9" s="809"/>
+      <c r="D9" s="809"/>
+      <c r="E9" s="807"/>
+      <c r="F9" s="808"/>
       <c r="G9" s="161"/>
       <c r="H9" s="161"/>
     </row>
@@ -49939,35 +49939,35 @@
         <f>'2-Cotización'!G22</f>
         <v>0</v>
       </c>
-      <c r="E10" s="808" t="s">
+      <c r="E10" s="813" t="s">
         <v>874</v>
       </c>
-      <c r="F10" s="809"/>
+      <c r="F10" s="814"/>
       <c r="G10" s="202"/>
       <c r="H10" s="202"/>
-      <c r="I10" s="805" t="s">
+      <c r="I10" s="810" t="s">
         <v>603</v>
       </c>
-      <c r="J10" s="806"/>
-      <c r="K10" s="807"/>
-      <c r="L10" s="805" t="s">
+      <c r="J10" s="811"/>
+      <c r="K10" s="812"/>
+      <c r="L10" s="810" t="s">
         <v>650</v>
       </c>
-      <c r="M10" s="806"/>
-      <c r="N10" s="806"/>
-      <c r="O10" s="807"/>
-      <c r="P10" s="805" t="s">
+      <c r="M10" s="811"/>
+      <c r="N10" s="811"/>
+      <c r="O10" s="812"/>
+      <c r="P10" s="810" t="s">
         <v>607</v>
       </c>
-      <c r="Q10" s="806"/>
-      <c r="R10" s="806"/>
-      <c r="S10" s="806"/>
-      <c r="T10" s="807"/>
-      <c r="V10" s="810" t="s">
+      <c r="Q10" s="811"/>
+      <c r="R10" s="811"/>
+      <c r="S10" s="811"/>
+      <c r="T10" s="812"/>
+      <c r="V10" s="799" t="s">
         <v>97</v>
       </c>
-      <c r="W10" s="811"/>
-      <c r="X10" s="812"/>
+      <c r="W10" s="800"/>
+      <c r="X10" s="801"/>
       <c r="Y10" s="162"/>
     </row>
     <row r="11" spans="1:25" s="204" customFormat="1" ht="56.25">
@@ -54804,11 +54804,11 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="12.75" customHeight="1">
-      <c r="C80" s="813" t="str">
+      <c r="C80" s="802" t="str">
         <f>IF(E78&lt;0,"Existe perdida en Subrentas.","")</f>
         <v/>
       </c>
-      <c r="D80" s="814"/>
+      <c r="D80" s="803"/>
       <c r="E80" s="301"/>
     </row>
     <row r="81" spans="1:8" ht="6.75" customHeight="1">
@@ -54821,12 +54821,12 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="157"/>
-      <c r="B85" s="715" t="s">
+      <c r="B85" s="722" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="715"/>
-      <c r="D85" s="715"/>
-      <c r="E85" s="715"/>
+      <c r="C85" s="722"/>
+      <c r="D85" s="722"/>
+      <c r="E85" s="722"/>
       <c r="F85" s="159"/>
       <c r="G85" s="159"/>
       <c r="H85" s="159"/>
@@ -54839,10 +54839,10 @@
       <c r="C86" s="448">
         <v>0.1</v>
       </c>
-      <c r="D86" s="714" t="s">
+      <c r="D86" s="713" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="714"/>
+      <c r="E86" s="713"/>
       <c r="F86" s="159"/>
       <c r="G86" s="159"/>
       <c r="H86" s="159"/>
@@ -54856,10 +54856,10 @@
       <c r="C87" s="448">
         <v>0.25</v>
       </c>
-      <c r="D87" s="714" t="s">
+      <c r="D87" s="713" t="s">
         <v>47</v>
       </c>
-      <c r="E87" s="714"/>
+      <c r="E87" s="713"/>
       <c r="F87" s="159"/>
       <c r="G87" s="159"/>
       <c r="H87" s="159"/>
@@ -54873,10 +54873,10 @@
       <c r="C88" s="448">
         <v>0.35</v>
       </c>
-      <c r="D88" s="714" t="s">
+      <c r="D88" s="713" t="s">
         <v>48</v>
       </c>
-      <c r="E88" s="714"/>
+      <c r="E88" s="713"/>
       <c r="F88" s="159"/>
       <c r="G88" s="159"/>
       <c r="H88" s="159"/>
@@ -54890,25 +54890,25 @@
       <c r="C89" s="448">
         <v>1</v>
       </c>
-      <c r="D89" s="714" t="s">
+      <c r="D89" s="713" t="s">
         <v>976</v>
       </c>
-      <c r="E89" s="714"/>
+      <c r="E89" s="713"/>
       <c r="F89" s="159"/>
       <c r="G89" s="159"/>
       <c r="H89" s="159"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="721" t="s">
+      <c r="A90" s="714" t="s">
         <v>956</v>
       </c>
-      <c r="B90" s="721"/>
-      <c r="C90" s="721"/>
-      <c r="D90" s="721"/>
-      <c r="E90" s="721"/>
-      <c r="F90" s="721"/>
-      <c r="G90" s="721"/>
-      <c r="H90" s="721"/>
+      <c r="B90" s="714"/>
+      <c r="C90" s="714"/>
+      <c r="D90" s="714"/>
+      <c r="E90" s="714"/>
+      <c r="F90" s="714"/>
+      <c r="G90" s="714"/>
+      <c r="H90" s="714"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="157" t="s">
@@ -54936,6 +54936,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A4:U4"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="D89:E89"/>
     <mergeCell ref="A90:H90"/>
     <mergeCell ref="V10:X10"/>
@@ -54945,15 +54954,6 @@
     <mergeCell ref="D88:E88"/>
     <mergeCell ref="C80:D80"/>
     <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E8:F9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A4:U4"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="I10:K10"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="T12:T70">
@@ -55093,28 +55093,28 @@
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:10" s="162" customFormat="1">
-      <c r="A8" s="823" t="str">
+      <c r="A8" s="819" t="str">
         <f>IF('2-Cotización'!G22="Dólares","Los importes deben ser capturados en Dolares","Los importes deben ser capturados en Pesos")</f>
         <v>Los importes deben ser capturados en Pesos</v>
       </c>
-      <c r="B8" s="823"/>
-      <c r="C8" s="823"/>
-      <c r="D8" s="823"/>
-      <c r="E8" s="823"/>
-      <c r="F8" s="823"/>
-      <c r="G8" s="823"/>
+      <c r="B8" s="819"/>
+      <c r="C8" s="819"/>
+      <c r="D8" s="819"/>
+      <c r="E8" s="819"/>
+      <c r="F8" s="819"/>
+      <c r="G8" s="819"/>
       <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="819" t="s">
+      <c r="A9" s="815" t="s">
         <v>869</v>
       </c>
-      <c r="B9" s="820"/>
-      <c r="C9" s="820"/>
-      <c r="D9" s="820"/>
-      <c r="E9" s="820"/>
-      <c r="F9" s="820"/>
-      <c r="G9" s="821"/>
+      <c r="B9" s="816"/>
+      <c r="C9" s="816"/>
+      <c r="D9" s="816"/>
+      <c r="E9" s="816"/>
+      <c r="F9" s="816"/>
+      <c r="G9" s="817"/>
       <c r="H9" s="71"/>
       <c r="I9" s="67"/>
     </row>
@@ -55661,15 +55661,15 @@
       <c r="G39" s="347"/>
     </row>
     <row r="40" spans="1:7" s="159" customFormat="1">
-      <c r="A40" s="819" t="s">
+      <c r="A40" s="815" t="s">
         <v>584</v>
       </c>
-      <c r="B40" s="820"/>
-      <c r="C40" s="820"/>
-      <c r="D40" s="820"/>
-      <c r="E40" s="820"/>
-      <c r="F40" s="820"/>
-      <c r="G40" s="821"/>
+      <c r="B40" s="816"/>
+      <c r="C40" s="816"/>
+      <c r="D40" s="816"/>
+      <c r="E40" s="816"/>
+      <c r="F40" s="816"/>
+      <c r="G40" s="817"/>
     </row>
     <row r="41" spans="1:7" s="159" customFormat="1" ht="4.5" customHeight="1">
       <c r="A41" s="343"/>
@@ -55834,15 +55834,15 @@
       <c r="G54" s="348"/>
     </row>
     <row r="55" spans="1:7" s="257" customFormat="1">
-      <c r="A55" s="819" t="s">
+      <c r="A55" s="815" t="s">
         <v>719</v>
       </c>
-      <c r="B55" s="820"/>
-      <c r="C55" s="820"/>
-      <c r="D55" s="820"/>
-      <c r="E55" s="820"/>
-      <c r="F55" s="820"/>
-      <c r="G55" s="821"/>
+      <c r="B55" s="816"/>
+      <c r="C55" s="816"/>
+      <c r="D55" s="816"/>
+      <c r="E55" s="816"/>
+      <c r="F55" s="816"/>
+      <c r="G55" s="817"/>
     </row>
     <row r="56" spans="1:7" s="257" customFormat="1" ht="11.25">
       <c r="D56" s="349"/>
@@ -55956,15 +55956,15 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="819" t="s">
+      <c r="A63" s="815" t="s">
         <v>587</v>
       </c>
-      <c r="B63" s="820"/>
-      <c r="C63" s="820"/>
-      <c r="D63" s="820"/>
-      <c r="E63" s="820"/>
-      <c r="F63" s="820"/>
-      <c r="G63" s="821"/>
+      <c r="B63" s="816"/>
+      <c r="C63" s="816"/>
+      <c r="D63" s="816"/>
+      <c r="E63" s="816"/>
+      <c r="F63" s="816"/>
+      <c r="G63" s="817"/>
     </row>
     <row r="64" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="65" spans="1:7" s="257" customFormat="1" ht="11.25">
@@ -55993,15 +55993,15 @@
       <c r="E66" s="358"/>
     </row>
     <row r="67" spans="1:7" s="257" customFormat="1" ht="11.25">
-      <c r="A67" s="824" t="s">
+      <c r="A67" s="820" t="s">
         <v>854</v>
       </c>
-      <c r="B67" s="824"/>
-      <c r="C67" s="824"/>
-      <c r="D67" s="824"/>
-      <c r="E67" s="824"/>
-      <c r="F67" s="824"/>
-      <c r="G67" s="824"/>
+      <c r="B67" s="820"/>
+      <c r="C67" s="820"/>
+      <c r="D67" s="820"/>
+      <c r="E67" s="820"/>
+      <c r="F67" s="820"/>
+      <c r="G67" s="820"/>
     </row>
     <row r="68" spans="1:7" s="257" customFormat="1" ht="11.25">
       <c r="A68" s="257" t="s">
@@ -56054,15 +56054,15 @@
       <c r="D71" s="349"/>
     </row>
     <row r="72" spans="1:7" s="159" customFormat="1">
-      <c r="A72" s="819" t="s">
+      <c r="A72" s="815" t="s">
         <v>656</v>
       </c>
-      <c r="B72" s="820"/>
-      <c r="C72" s="820"/>
-      <c r="D72" s="820"/>
-      <c r="E72" s="820"/>
-      <c r="F72" s="820"/>
-      <c r="G72" s="821"/>
+      <c r="B72" s="816"/>
+      <c r="C72" s="816"/>
+      <c r="D72" s="816"/>
+      <c r="E72" s="816"/>
+      <c r="F72" s="816"/>
+      <c r="G72" s="817"/>
     </row>
     <row r="73" spans="1:7" s="159" customFormat="1" ht="4.5" customHeight="1">
       <c r="A73" s="343"/>
@@ -56104,8 +56104,8 @@
         <v>537</v>
       </c>
       <c r="B76" s="190"/>
-      <c r="C76" s="817"/>
-      <c r="D76" s="818"/>
+      <c r="C76" s="823"/>
+      <c r="D76" s="824"/>
       <c r="E76" s="340"/>
       <c r="F76" s="345"/>
     </row>
@@ -56114,8 +56114,8 @@
         <v>538</v>
       </c>
       <c r="B77" s="190"/>
-      <c r="C77" s="818"/>
-      <c r="D77" s="818"/>
+      <c r="C77" s="824"/>
+      <c r="D77" s="824"/>
       <c r="E77" s="340"/>
       <c r="F77" s="345"/>
     </row>
@@ -56124,8 +56124,8 @@
         <v>539</v>
       </c>
       <c r="B78" s="190"/>
-      <c r="C78" s="818"/>
-      <c r="D78" s="818"/>
+      <c r="C78" s="824"/>
+      <c r="D78" s="824"/>
       <c r="E78" s="340"/>
       <c r="F78" s="345"/>
     </row>
@@ -56134,8 +56134,8 @@
         <v>540</v>
       </c>
       <c r="B79" s="190"/>
-      <c r="C79" s="818"/>
-      <c r="D79" s="818"/>
+      <c r="C79" s="824"/>
+      <c r="D79" s="824"/>
       <c r="E79" s="340"/>
       <c r="F79" s="345"/>
     </row>
@@ -56144,8 +56144,8 @@
         <v>541</v>
       </c>
       <c r="B80" s="190"/>
-      <c r="C80" s="818"/>
-      <c r="D80" s="818"/>
+      <c r="C80" s="824"/>
+      <c r="D80" s="824"/>
       <c r="E80" s="340"/>
       <c r="F80" s="345"/>
     </row>
@@ -56154,8 +56154,8 @@
         <v>563</v>
       </c>
       <c r="B81" s="190"/>
-      <c r="C81" s="818"/>
-      <c r="D81" s="818"/>
+      <c r="C81" s="824"/>
+      <c r="D81" s="824"/>
       <c r="E81" s="340"/>
       <c r="F81" s="345"/>
     </row>
@@ -56164,8 +56164,8 @@
         <v>564</v>
       </c>
       <c r="B82" s="190"/>
-      <c r="C82" s="818"/>
-      <c r="D82" s="818"/>
+      <c r="C82" s="824"/>
+      <c r="D82" s="824"/>
       <c r="E82" s="340"/>
       <c r="F82" s="345"/>
     </row>
@@ -56174,8 +56174,8 @@
         <v>565</v>
       </c>
       <c r="B83" s="190"/>
-      <c r="C83" s="818"/>
-      <c r="D83" s="818"/>
+      <c r="C83" s="824"/>
+      <c r="D83" s="824"/>
       <c r="E83" s="340"/>
       <c r="F83" s="345">
         <f>'2-Cotización'!G22</f>
@@ -56190,22 +56190,22 @@
       <c r="A84" s="338"/>
       <c r="B84" s="348"/>
       <c r="C84" s="348"/>
-      <c r="D84" s="822"/>
-      <c r="E84" s="822"/>
+      <c r="D84" s="818"/>
+      <c r="E84" s="818"/>
       <c r="F84" s="348"/>
       <c r="G84" s="348"/>
     </row>
     <row r="85" spans="1:7" s="257" customFormat="1" ht="11.25"/>
     <row r="87" spans="1:7">
-      <c r="A87" s="819" t="s">
+      <c r="A87" s="815" t="s">
         <v>395</v>
       </c>
-      <c r="B87" s="820"/>
-      <c r="C87" s="820"/>
-      <c r="D87" s="820"/>
-      <c r="E87" s="820"/>
-      <c r="F87" s="820"/>
-      <c r="G87" s="821"/>
+      <c r="B87" s="816"/>
+      <c r="C87" s="816"/>
+      <c r="D87" s="816"/>
+      <c r="E87" s="816"/>
+      <c r="F87" s="816"/>
+      <c r="G87" s="817"/>
     </row>
     <row r="88" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="89" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
@@ -56606,10 +56606,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="23.25" thickTop="1">
-      <c r="A113" s="815" t="s">
+      <c r="A113" s="821" t="s">
         <v>680</v>
       </c>
-      <c r="B113" s="816"/>
+      <c r="B113" s="822"/>
       <c r="C113" s="337" t="s">
         <v>861</v>
       </c>
@@ -56671,6 +56671,15 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A87:G87"/>
@@ -56681,15 +56690,6 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A67:G67"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/NetCorePSAV/wwwroot/reports/EPTTem.xlsx
+++ b/NetCorePSAV/wwwroot/reports/EPTTem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="906" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="906" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-Resumen" sheetId="20" r:id="rId1"/>
@@ -145,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2108" uniqueCount="982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2107" uniqueCount="982">
   <si>
     <t>Niveles de Aprobación - Descuento %</t>
   </si>
@@ -3219,7 +3219,7 @@
     <numFmt numFmtId="181" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="182" formatCode="000"/>
   </numFmts>
-  <fonts count="87">
+  <fonts count="88">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3741,7 +3741,11 @@
     </font>
     <font>
       <b/>
-      <u/>
+      <sz val="10"/>
+      <name val="Berlin Sans FB"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Berlin Sans FB"/>
       <family val="2"/>
@@ -6583,24 +6587,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6627,10 +6613,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6638,10 +6620,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6653,10 +6631,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -6679,9 +6653,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="43" fontId="6" fillId="17" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -7219,6 +7190,39 @@
     <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="6" fillId="16" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -22012,7 +22016,7 @@
       </c>
       <c r="G3" s="415">
         <f ca="1">+'2-Cotización'!H5</f>
-        <v>43042</v>
+        <v>43054</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="398" customFormat="1" ht="11.25">
@@ -22025,16 +22029,16 @@
       <c r="G4" s="416"/>
     </row>
     <row r="5" spans="1:7" s="398" customFormat="1" ht="11.25">
-      <c r="A5" s="723">
+      <c r="A5" s="711">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B5" s="723"/>
-      <c r="C5" s="723"/>
-      <c r="D5" s="723"/>
-      <c r="E5" s="723"/>
-      <c r="F5" s="723"/>
-      <c r="G5" s="723"/>
+      <c r="B5" s="711"/>
+      <c r="C5" s="711"/>
+      <c r="D5" s="711"/>
+      <c r="E5" s="711"/>
+      <c r="F5" s="711"/>
+      <c r="G5" s="711"/>
     </row>
     <row r="6" spans="1:7" s="162" customFormat="1" ht="3" customHeight="1"/>
     <row r="7" spans="1:7" s="162" customFormat="1" ht="11.25">
@@ -22066,11 +22070,11 @@
       <c r="A9" s="402" t="s">
         <v>534</v>
       </c>
-      <c r="B9" s="721">
+      <c r="B9" s="709">
         <f>+'2-Cotización'!C11</f>
         <v>0</v>
       </c>
-      <c r="C9" s="721"/>
+      <c r="C9" s="709"/>
       <c r="E9" s="403" t="s">
         <v>529</v>
       </c>
@@ -22081,8 +22085,8 @@
     </row>
     <row r="10" spans="1:7" s="162" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="402"/>
-      <c r="B10" s="721"/>
-      <c r="C10" s="721"/>
+      <c r="B10" s="709"/>
+      <c r="C10" s="709"/>
       <c r="E10" s="403" t="s">
         <v>526</v>
       </c>
@@ -22212,28 +22216,28 @@
       <c r="G19" s="292"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="725" t="str">
+      <c r="A20" s="713" t="str">
         <f ca="1">+'4b-Venta-Comisión'!B29</f>
         <v>OK</v>
       </c>
-      <c r="B20" s="725"/>
-      <c r="C20" s="725"/>
-      <c r="D20" s="725"/>
-      <c r="E20" s="726" t="str">
+      <c r="B20" s="713"/>
+      <c r="C20" s="713"/>
+      <c r="D20" s="713"/>
+      <c r="E20" s="714" t="str">
         <f ca="1">+'4b-Venta-Comisión'!I29</f>
         <v>OK</v>
       </c>
-      <c r="F20" s="726"/>
-      <c r="G20" s="726"/>
+      <c r="F20" s="714"/>
+      <c r="G20" s="714"/>
     </row>
     <row r="21" spans="1:7" s="417" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A21" s="75"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="724" t="s">
+      <c r="C21" s="712" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="724"/>
-      <c r="E21" s="724"/>
+      <c r="D21" s="712"/>
+      <c r="E21" s="712"/>
       <c r="F21" s="435" t="s">
         <v>957</v>
       </c>
@@ -22633,11 +22637,11 @@
         <f t="shared" ref="E46:E51" si="1">IF(D46=0,0,(D46/$D$40))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="727" t="str">
+      <c r="F46" s="715" t="str">
         <f>+'5-Subrentas'!A9</f>
         <v/>
       </c>
-      <c r="G46" s="727"/>
+      <c r="G46" s="715"/>
     </row>
     <row r="47" spans="1:7" s="582" customFormat="1" ht="11.25">
       <c r="B47" s="586"/>
@@ -22922,16 +22926,16 @@
       <c r="F72" s="212"/>
     </row>
     <row r="73" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A73" s="715">
+      <c r="A73" s="703">
         <f>+'4a-Venta-Des.'!B38</f>
         <v>0</v>
       </c>
-      <c r="B73" s="716"/>
-      <c r="C73" s="716"/>
-      <c r="D73" s="716"/>
-      <c r="E73" s="716"/>
-      <c r="F73" s="716"/>
-      <c r="G73" s="717"/>
+      <c r="B73" s="704"/>
+      <c r="C73" s="704"/>
+      <c r="D73" s="704"/>
+      <c r="E73" s="704"/>
+      <c r="F73" s="704"/>
+      <c r="G73" s="705"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="420" t="s">
@@ -22945,13 +22949,13 @@
       <c r="G74" s="432"/>
     </row>
     <row r="75" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A75" s="718"/>
-      <c r="B75" s="719"/>
-      <c r="C75" s="719"/>
-      <c r="D75" s="719"/>
-      <c r="E75" s="719"/>
-      <c r="F75" s="719"/>
-      <c r="G75" s="720"/>
+      <c r="A75" s="706"/>
+      <c r="B75" s="707"/>
+      <c r="C75" s="707"/>
+      <c r="D75" s="707"/>
+      <c r="E75" s="707"/>
+      <c r="F75" s="707"/>
+      <c r="G75" s="708"/>
     </row>
     <row r="76" spans="1:7" ht="3.75" customHeight="1">
       <c r="A76" s="399"/>
@@ -22966,12 +22970,12 @@
     <row r="78" spans="1:7" s="417" customFormat="1">
       <c r="A78" s="445"/>
       <c r="B78" s="446"/>
-      <c r="C78" s="722" t="s">
+      <c r="C78" s="710" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="722"/>
-      <c r="E78" s="722"/>
-      <c r="F78" s="722"/>
+      <c r="D78" s="710"/>
+      <c r="E78" s="710"/>
+      <c r="F78" s="710"/>
     </row>
     <row r="79" spans="1:7" s="417" customFormat="1">
       <c r="C79" s="460">
@@ -22980,10 +22984,10 @@
       <c r="D79" s="448">
         <v>0.19989999999999999</v>
       </c>
-      <c r="E79" s="713" t="s">
+      <c r="E79" s="701" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="713"/>
+      <c r="F79" s="701"/>
       <c r="G79" s="447"/>
     </row>
     <row r="80" spans="1:7" s="417" customFormat="1">
@@ -22993,10 +22997,10 @@
       <c r="D80" s="448">
         <v>0.24990000000000001</v>
       </c>
-      <c r="E80" s="713" t="s">
+      <c r="E80" s="701" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="713"/>
+      <c r="F80" s="701"/>
       <c r="G80" s="447"/>
     </row>
     <row r="81" spans="1:7" s="417" customFormat="1">
@@ -23006,10 +23010,10 @@
       <c r="D81" s="448">
         <v>0.34989999999999999</v>
       </c>
-      <c r="E81" s="713" t="s">
+      <c r="E81" s="701" t="s">
         <v>978</v>
       </c>
-      <c r="F81" s="713"/>
+      <c r="F81" s="701"/>
       <c r="G81" s="447"/>
     </row>
     <row r="82" spans="1:7" s="417" customFormat="1">
@@ -23019,10 +23023,10 @@
       <c r="D82" s="448">
         <v>0.44990000000000002</v>
       </c>
-      <c r="E82" s="713" t="s">
+      <c r="E82" s="701" t="s">
         <v>977</v>
       </c>
-      <c r="F82" s="713"/>
+      <c r="F82" s="701"/>
       <c r="G82" s="447"/>
     </row>
     <row r="83" spans="1:7" s="417" customFormat="1">
@@ -23032,22 +23036,22 @@
       <c r="D83" s="448">
         <v>1</v>
       </c>
-      <c r="E83" s="713" t="s">
+      <c r="E83" s="701" t="s">
         <v>976</v>
       </c>
-      <c r="F83" s="713"/>
+      <c r="F83" s="701"/>
       <c r="G83" s="447"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="714" t="s">
+      <c r="A84" s="702" t="s">
         <v>956</v>
       </c>
-      <c r="B84" s="714"/>
-      <c r="C84" s="714"/>
-      <c r="D84" s="714"/>
-      <c r="E84" s="714"/>
-      <c r="F84" s="714"/>
-      <c r="G84" s="714"/>
+      <c r="B84" s="702"/>
+      <c r="C84" s="702"/>
+      <c r="D84" s="702"/>
+      <c r="E84" s="702"/>
+      <c r="F84" s="702"/>
+      <c r="G84" s="702"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -23115,91 +23119,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="839" t="s">
+      <c r="A1" s="827" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="840"/>
-      <c r="C1" s="840"/>
-      <c r="D1" s="840"/>
-      <c r="E1" s="840"/>
-      <c r="F1" s="841"/>
+      <c r="B1" s="828"/>
+      <c r="C1" s="828"/>
+      <c r="D1" s="828"/>
+      <c r="E1" s="828"/>
+      <c r="F1" s="829"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="842"/>
-      <c r="B2" s="843"/>
-      <c r="C2" s="843"/>
-      <c r="D2" s="843"/>
-      <c r="E2" s="843"/>
-      <c r="F2" s="844"/>
+      <c r="A2" s="830"/>
+      <c r="B2" s="831"/>
+      <c r="C2" s="831"/>
+      <c r="D2" s="831"/>
+      <c r="E2" s="831"/>
+      <c r="F2" s="832"/>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="845" t="s">
+      <c r="A4" s="833" t="s">
         <v>695</v>
       </c>
-      <c r="B4" s="846"/>
-      <c r="C4" s="846"/>
-      <c r="D4" s="846"/>
-      <c r="E4" s="846"/>
+      <c r="B4" s="834"/>
+      <c r="C4" s="834"/>
+      <c r="D4" s="834"/>
+      <c r="E4" s="834"/>
       <c r="F4" s="661"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="835" t="s">
+      <c r="A5" s="823" t="s">
         <v>689</v>
       </c>
-      <c r="B5" s="836"/>
-      <c r="C5" s="836"/>
-      <c r="D5" s="836"/>
-      <c r="E5" s="836"/>
+      <c r="B5" s="824"/>
+      <c r="C5" s="824"/>
+      <c r="D5" s="824"/>
+      <c r="E5" s="824"/>
       <c r="F5" s="662"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="835" t="s">
+      <c r="A6" s="823" t="s">
         <v>691</v>
       </c>
-      <c r="B6" s="836"/>
-      <c r="C6" s="836"/>
-      <c r="D6" s="836"/>
-      <c r="E6" s="836"/>
+      <c r="B6" s="824"/>
+      <c r="C6" s="824"/>
+      <c r="D6" s="824"/>
+      <c r="E6" s="824"/>
       <c r="F6" s="662"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="835" t="s">
+      <c r="A7" s="823" t="s">
         <v>692</v>
       </c>
-      <c r="B7" s="836"/>
-      <c r="C7" s="836"/>
-      <c r="D7" s="836"/>
-      <c r="E7" s="836"/>
+      <c r="B7" s="824"/>
+      <c r="C7" s="824"/>
+      <c r="D7" s="824"/>
+      <c r="E7" s="824"/>
       <c r="F7" s="662"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="835" t="s">
+      <c r="A8" s="823" t="s">
         <v>696</v>
       </c>
-      <c r="B8" s="836"/>
-      <c r="C8" s="836"/>
-      <c r="D8" s="836"/>
-      <c r="E8" s="836"/>
+      <c r="B8" s="824"/>
+      <c r="C8" s="824"/>
+      <c r="D8" s="824"/>
+      <c r="E8" s="824"/>
       <c r="F8" s="662"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="835" t="s">
+      <c r="A9" s="823" t="s">
         <v>697</v>
       </c>
-      <c r="B9" s="836"/>
-      <c r="C9" s="836"/>
-      <c r="D9" s="836"/>
-      <c r="E9" s="836"/>
+      <c r="B9" s="824"/>
+      <c r="C9" s="824"/>
+      <c r="D9" s="824"/>
+      <c r="E9" s="824"/>
       <c r="F9" s="662"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="837" t="s">
+      <c r="A10" s="825" t="s">
         <v>693</v>
       </c>
-      <c r="B10" s="838"/>
-      <c r="C10" s="838"/>
-      <c r="D10" s="838"/>
-      <c r="E10" s="838"/>
+      <c r="B10" s="826"/>
+      <c r="C10" s="826"/>
+      <c r="D10" s="826"/>
+      <c r="E10" s="826"/>
       <c r="F10" s="663"/>
     </row>
     <row r="11" spans="1:6">
@@ -23235,73 +23239,73 @@
       <c r="F14" s="664"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="845" t="s">
+      <c r="A15" s="833" t="s">
         <v>698</v>
       </c>
-      <c r="B15" s="846"/>
-      <c r="C15" s="846"/>
-      <c r="D15" s="846"/>
-      <c r="E15" s="846"/>
+      <c r="B15" s="834"/>
+      <c r="C15" s="834"/>
+      <c r="D15" s="834"/>
+      <c r="E15" s="834"/>
       <c r="F15" s="661"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="835" t="s">
+      <c r="A16" s="823" t="s">
         <v>699</v>
       </c>
-      <c r="B16" s="836"/>
-      <c r="C16" s="836"/>
-      <c r="D16" s="836"/>
-      <c r="E16" s="836"/>
+      <c r="B16" s="824"/>
+      <c r="C16" s="824"/>
+      <c r="D16" s="824"/>
+      <c r="E16" s="824"/>
       <c r="F16" s="662"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="835" t="s">
+      <c r="A17" s="823" t="s">
         <v>700</v>
       </c>
-      <c r="B17" s="836"/>
-      <c r="C17" s="836"/>
-      <c r="D17" s="836"/>
-      <c r="E17" s="836"/>
+      <c r="B17" s="824"/>
+      <c r="C17" s="824"/>
+      <c r="D17" s="824"/>
+      <c r="E17" s="824"/>
       <c r="F17" s="662"/>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="835" t="s">
+      <c r="A18" s="823" t="s">
         <v>701</v>
       </c>
-      <c r="B18" s="836"/>
-      <c r="C18" s="836"/>
-      <c r="D18" s="836"/>
-      <c r="E18" s="836"/>
+      <c r="B18" s="824"/>
+      <c r="C18" s="824"/>
+      <c r="D18" s="824"/>
+      <c r="E18" s="824"/>
       <c r="F18" s="662"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="835" t="s">
+      <c r="A19" s="823" t="s">
         <v>702</v>
       </c>
-      <c r="B19" s="836"/>
-      <c r="C19" s="836"/>
-      <c r="D19" s="836"/>
-      <c r="E19" s="836"/>
+      <c r="B19" s="824"/>
+      <c r="C19" s="824"/>
+      <c r="D19" s="824"/>
+      <c r="E19" s="824"/>
       <c r="F19" s="662"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="835" t="s">
+      <c r="A20" s="823" t="s">
         <v>703</v>
       </c>
-      <c r="B20" s="836"/>
-      <c r="C20" s="836"/>
-      <c r="D20" s="836"/>
-      <c r="E20" s="836"/>
+      <c r="B20" s="824"/>
+      <c r="C20" s="824"/>
+      <c r="D20" s="824"/>
+      <c r="E20" s="824"/>
       <c r="F20" s="662"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="837" t="s">
+      <c r="A21" s="825" t="s">
         <v>704</v>
       </c>
-      <c r="B21" s="838"/>
-      <c r="C21" s="838"/>
-      <c r="D21" s="838"/>
-      <c r="E21" s="838"/>
+      <c r="B21" s="826"/>
+      <c r="C21" s="826"/>
+      <c r="D21" s="826"/>
+      <c r="E21" s="826"/>
       <c r="F21" s="663"/>
     </row>
   </sheetData>
@@ -23437,10 +23441,10 @@
       <c r="T1" s="307" t="s">
         <v>859</v>
       </c>
-      <c r="U1" s="848" t="s">
+      <c r="U1" s="836" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="849"/>
+      <c r="V1" s="837"/>
       <c r="W1" s="450" t="s">
         <v>5</v>
       </c>
@@ -24451,19 +24455,19 @@
       <c r="AH23"/>
     </row>
     <row r="24" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A24" s="847" t="s">
+      <c r="A24" s="835" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="847"/>
-      <c r="C24" s="847"/>
-      <c r="D24" s="847"/>
-      <c r="E24" s="847"/>
-      <c r="F24" s="847"/>
-      <c r="G24" s="847"/>
-      <c r="H24" s="847"/>
-      <c r="I24" s="847"/>
-      <c r="J24" s="847"/>
-      <c r="K24" s="847"/>
+      <c r="B24" s="835"/>
+      <c r="C24" s="835"/>
+      <c r="D24" s="835"/>
+      <c r="E24" s="835"/>
+      <c r="F24" s="835"/>
+      <c r="G24" s="835"/>
+      <c r="H24" s="835"/>
+      <c r="I24" s="835"/>
+      <c r="J24" s="835"/>
+      <c r="K24" s="835"/>
       <c r="S24" s="561"/>
       <c r="AA24" s="650">
         <v>968</v>
@@ -24482,19 +24486,19 @@
       <c r="AH24"/>
     </row>
     <row r="25" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A25" s="847" t="s">
+      <c r="A25" s="835" t="s">
         <v>879</v>
       </c>
-      <c r="B25" s="847"/>
-      <c r="C25" s="847"/>
-      <c r="D25" s="847"/>
-      <c r="E25" s="847"/>
-      <c r="F25" s="847"/>
-      <c r="G25" s="847"/>
-      <c r="H25" s="847"/>
-      <c r="I25" s="847"/>
-      <c r="J25" s="847"/>
-      <c r="K25" s="847"/>
+      <c r="B25" s="835"/>
+      <c r="C25" s="835"/>
+      <c r="D25" s="835"/>
+      <c r="E25" s="835"/>
+      <c r="F25" s="835"/>
+      <c r="G25" s="835"/>
+      <c r="H25" s="835"/>
+      <c r="I25" s="835"/>
+      <c r="J25" s="835"/>
+      <c r="K25" s="835"/>
       <c r="L25" s="648"/>
       <c r="M25" s="648"/>
       <c r="N25" s="648"/>
@@ -24749,19 +24753,19 @@
       <c r="IV25" s="648"/>
     </row>
     <row r="26" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A26" s="847" t="s">
+      <c r="A26" s="835" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="847"/>
-      <c r="C26" s="847"/>
-      <c r="D26" s="847"/>
-      <c r="E26" s="847"/>
-      <c r="F26" s="847"/>
-      <c r="G26" s="847"/>
-      <c r="H26" s="847"/>
-      <c r="I26" s="847"/>
-      <c r="J26" s="847"/>
-      <c r="K26" s="847"/>
+      <c r="B26" s="835"/>
+      <c r="C26" s="835"/>
+      <c r="D26" s="835"/>
+      <c r="E26" s="835"/>
+      <c r="F26" s="835"/>
+      <c r="G26" s="835"/>
+      <c r="H26" s="835"/>
+      <c r="I26" s="835"/>
+      <c r="J26" s="835"/>
+      <c r="K26" s="835"/>
       <c r="L26" s="648"/>
       <c r="M26" s="648"/>
       <c r="N26" s="648"/>
@@ -25016,19 +25020,19 @@
       <c r="IV26" s="648"/>
     </row>
     <row r="27" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A27" s="847" t="s">
+      <c r="A27" s="835" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="847"/>
-      <c r="C27" s="847"/>
-      <c r="D27" s="847"/>
-      <c r="E27" s="847"/>
-      <c r="F27" s="847"/>
-      <c r="G27" s="847"/>
-      <c r="H27" s="847"/>
-      <c r="I27" s="847"/>
-      <c r="J27" s="847"/>
-      <c r="K27" s="847"/>
+      <c r="B27" s="835"/>
+      <c r="C27" s="835"/>
+      <c r="D27" s="835"/>
+      <c r="E27" s="835"/>
+      <c r="F27" s="835"/>
+      <c r="G27" s="835"/>
+      <c r="H27" s="835"/>
+      <c r="I27" s="835"/>
+      <c r="J27" s="835"/>
+      <c r="K27" s="835"/>
       <c r="L27" s="648"/>
       <c r="M27" s="648"/>
       <c r="N27" s="648"/>
@@ -25276,19 +25280,19 @@
       <c r="IV27" s="648"/>
     </row>
     <row r="28" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A28" s="847" t="s">
+      <c r="A28" s="835" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="847"/>
-      <c r="C28" s="847"/>
-      <c r="D28" s="847"/>
-      <c r="E28" s="847"/>
-      <c r="F28" s="847"/>
-      <c r="G28" s="847"/>
-      <c r="H28" s="847"/>
-      <c r="I28" s="847"/>
-      <c r="J28" s="847"/>
-      <c r="K28" s="847"/>
+      <c r="B28" s="835"/>
+      <c r="C28" s="835"/>
+      <c r="D28" s="835"/>
+      <c r="E28" s="835"/>
+      <c r="F28" s="835"/>
+      <c r="G28" s="835"/>
+      <c r="H28" s="835"/>
+      <c r="I28" s="835"/>
+      <c r="J28" s="835"/>
+      <c r="K28" s="835"/>
       <c r="L28" s="648"/>
       <c r="M28" s="648"/>
       <c r="N28" s="648"/>
@@ -25536,19 +25540,19 @@
       <c r="IV28" s="648"/>
     </row>
     <row r="29" spans="1:256" s="313" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A29" s="847" t="s">
+      <c r="A29" s="835" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="847"/>
-      <c r="C29" s="847"/>
-      <c r="D29" s="847"/>
-      <c r="E29" s="847"/>
-      <c r="F29" s="847"/>
-      <c r="G29" s="847"/>
-      <c r="H29" s="847"/>
-      <c r="I29" s="847"/>
-      <c r="J29" s="847"/>
-      <c r="K29" s="847"/>
+      <c r="B29" s="835"/>
+      <c r="C29" s="835"/>
+      <c r="D29" s="835"/>
+      <c r="E29" s="835"/>
+      <c r="F29" s="835"/>
+      <c r="G29" s="835"/>
+      <c r="H29" s="835"/>
+      <c r="I29" s="835"/>
+      <c r="J29" s="835"/>
+      <c r="K29" s="835"/>
       <c r="L29" s="648"/>
       <c r="M29" s="648"/>
       <c r="N29" s="648"/>
@@ -25796,19 +25800,19 @@
       <c r="IV29" s="648"/>
     </row>
     <row r="30" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A30" s="847" t="s">
+      <c r="A30" s="835" t="s">
         <v>953</v>
       </c>
-      <c r="B30" s="847"/>
-      <c r="C30" s="847"/>
-      <c r="D30" s="847"/>
-      <c r="E30" s="847"/>
-      <c r="F30" s="847"/>
-      <c r="G30" s="847"/>
-      <c r="H30" s="847"/>
-      <c r="I30" s="847"/>
-      <c r="J30" s="847"/>
-      <c r="K30" s="847"/>
+      <c r="B30" s="835"/>
+      <c r="C30" s="835"/>
+      <c r="D30" s="835"/>
+      <c r="E30" s="835"/>
+      <c r="F30" s="835"/>
+      <c r="G30" s="835"/>
+      <c r="H30" s="835"/>
+      <c r="I30" s="835"/>
+      <c r="J30" s="835"/>
+      <c r="K30" s="835"/>
       <c r="L30" s="648"/>
       <c r="M30" s="648"/>
       <c r="N30" s="648"/>
@@ -26056,19 +26060,19 @@
       <c r="IV30" s="648"/>
     </row>
     <row r="31" spans="1:256" s="313" customFormat="1">
-      <c r="A31" s="847" t="s">
+      <c r="A31" s="835" t="s">
         <v>846</v>
       </c>
-      <c r="B31" s="847"/>
-      <c r="C31" s="847"/>
-      <c r="D31" s="847"/>
-      <c r="E31" s="847"/>
-      <c r="F31" s="847"/>
-      <c r="G31" s="847"/>
-      <c r="H31" s="847"/>
-      <c r="I31" s="847"/>
-      <c r="J31" s="847"/>
-      <c r="K31" s="847"/>
+      <c r="B31" s="835"/>
+      <c r="C31" s="835"/>
+      <c r="D31" s="835"/>
+      <c r="E31" s="835"/>
+      <c r="F31" s="835"/>
+      <c r="G31" s="835"/>
+      <c r="H31" s="835"/>
+      <c r="I31" s="835"/>
+      <c r="J31" s="835"/>
+      <c r="K31" s="835"/>
       <c r="L31" s="648"/>
       <c r="M31" s="648"/>
       <c r="N31" s="648"/>
@@ -26316,19 +26320,19 @@
       <c r="IV31" s="648"/>
     </row>
     <row r="32" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A32" s="851" t="s">
+      <c r="A32" s="839" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="851"/>
-      <c r="C32" s="851"/>
-      <c r="D32" s="851"/>
-      <c r="E32" s="851"/>
-      <c r="F32" s="851"/>
-      <c r="G32" s="851"/>
-      <c r="H32" s="851"/>
-      <c r="I32" s="851"/>
-      <c r="J32" s="851"/>
-      <c r="K32" s="851"/>
+      <c r="B32" s="839"/>
+      <c r="C32" s="839"/>
+      <c r="D32" s="839"/>
+      <c r="E32" s="839"/>
+      <c r="F32" s="839"/>
+      <c r="G32" s="839"/>
+      <c r="H32" s="839"/>
+      <c r="I32" s="839"/>
+      <c r="J32" s="839"/>
+      <c r="K32" s="839"/>
       <c r="S32" s="561"/>
     </row>
     <row r="33" spans="1:256" s="313" customFormat="1">
@@ -26366,35 +26370,35 @@
       <c r="S34" s="561"/>
     </row>
     <row r="35" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A35" s="850" t="s">
+      <c r="A35" s="838" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="850"/>
-      <c r="C35" s="850"/>
-      <c r="D35" s="850"/>
-      <c r="E35" s="850"/>
-      <c r="F35" s="850"/>
-      <c r="G35" s="850"/>
-      <c r="H35" s="850"/>
-      <c r="I35" s="850"/>
-      <c r="J35" s="850"/>
-      <c r="K35" s="850"/>
+      <c r="B35" s="838"/>
+      <c r="C35" s="838"/>
+      <c r="D35" s="838"/>
+      <c r="E35" s="838"/>
+      <c r="F35" s="838"/>
+      <c r="G35" s="838"/>
+      <c r="H35" s="838"/>
+      <c r="I35" s="838"/>
+      <c r="J35" s="838"/>
+      <c r="K35" s="838"/>
       <c r="S35" s="561"/>
     </row>
     <row r="36" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A36" s="850" t="s">
+      <c r="A36" s="838" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="850"/>
-      <c r="C36" s="850"/>
-      <c r="D36" s="850"/>
-      <c r="E36" s="850"/>
-      <c r="F36" s="850"/>
-      <c r="G36" s="850"/>
-      <c r="H36" s="850"/>
-      <c r="I36" s="850"/>
-      <c r="J36" s="850"/>
-      <c r="K36" s="850"/>
+      <c r="B36" s="838"/>
+      <c r="C36" s="838"/>
+      <c r="D36" s="838"/>
+      <c r="E36" s="838"/>
+      <c r="F36" s="838"/>
+      <c r="G36" s="838"/>
+      <c r="H36" s="838"/>
+      <c r="I36" s="838"/>
+      <c r="J36" s="838"/>
+      <c r="K36" s="838"/>
       <c r="L36" s="648"/>
       <c r="M36" s="648"/>
       <c r="N36" s="648"/>
@@ -26642,19 +26646,19 @@
       <c r="IV36" s="648"/>
     </row>
     <row r="37" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A37" s="850" t="s">
+      <c r="A37" s="838" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="850"/>
-      <c r="C37" s="850"/>
-      <c r="D37" s="850"/>
-      <c r="E37" s="850"/>
-      <c r="F37" s="850"/>
-      <c r="G37" s="850"/>
-      <c r="H37" s="850"/>
-      <c r="I37" s="850"/>
-      <c r="J37" s="850"/>
-      <c r="K37" s="850"/>
+      <c r="B37" s="838"/>
+      <c r="C37" s="838"/>
+      <c r="D37" s="838"/>
+      <c r="E37" s="838"/>
+      <c r="F37" s="838"/>
+      <c r="G37" s="838"/>
+      <c r="H37" s="838"/>
+      <c r="I37" s="838"/>
+      <c r="J37" s="838"/>
+      <c r="K37" s="838"/>
       <c r="L37" s="648"/>
       <c r="M37" s="648"/>
       <c r="N37" s="648"/>
@@ -26902,19 +26906,19 @@
       <c r="IV37" s="648"/>
     </row>
     <row r="38" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A38" s="850" t="s">
+      <c r="A38" s="838" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="850"/>
-      <c r="C38" s="850"/>
-      <c r="D38" s="850"/>
-      <c r="E38" s="850"/>
-      <c r="F38" s="850"/>
-      <c r="G38" s="850"/>
-      <c r="H38" s="850"/>
-      <c r="I38" s="850"/>
-      <c r="J38" s="850"/>
-      <c r="K38" s="850"/>
+      <c r="B38" s="838"/>
+      <c r="C38" s="838"/>
+      <c r="D38" s="838"/>
+      <c r="E38" s="838"/>
+      <c r="F38" s="838"/>
+      <c r="G38" s="838"/>
+      <c r="H38" s="838"/>
+      <c r="I38" s="838"/>
+      <c r="J38" s="838"/>
+      <c r="K38" s="838"/>
       <c r="L38" s="648"/>
       <c r="M38" s="648"/>
       <c r="N38" s="648"/>
@@ -27162,19 +27166,19 @@
       <c r="IV38" s="648"/>
     </row>
     <row r="39" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A39" s="850" t="s">
+      <c r="A39" s="838" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="850"/>
-      <c r="C39" s="850"/>
-      <c r="D39" s="850"/>
-      <c r="E39" s="850"/>
-      <c r="F39" s="850"/>
-      <c r="G39" s="850"/>
-      <c r="H39" s="850"/>
-      <c r="I39" s="850"/>
-      <c r="J39" s="850"/>
-      <c r="K39" s="850"/>
+      <c r="B39" s="838"/>
+      <c r="C39" s="838"/>
+      <c r="D39" s="838"/>
+      <c r="E39" s="838"/>
+      <c r="F39" s="838"/>
+      <c r="G39" s="838"/>
+      <c r="H39" s="838"/>
+      <c r="I39" s="838"/>
+      <c r="J39" s="838"/>
+      <c r="K39" s="838"/>
       <c r="L39" s="648"/>
       <c r="M39" s="648"/>
       <c r="N39" s="648"/>
@@ -27422,19 +27426,19 @@
       <c r="IV39" s="648"/>
     </row>
     <row r="40" spans="1:256" s="313" customFormat="1" ht="86.25" customHeight="1">
-      <c r="A40" s="850" t="s">
+      <c r="A40" s="838" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="850"/>
-      <c r="C40" s="850"/>
-      <c r="D40" s="850"/>
-      <c r="E40" s="850"/>
-      <c r="F40" s="850"/>
-      <c r="G40" s="850"/>
-      <c r="H40" s="850"/>
-      <c r="I40" s="850"/>
-      <c r="J40" s="850"/>
-      <c r="K40" s="850"/>
+      <c r="B40" s="838"/>
+      <c r="C40" s="838"/>
+      <c r="D40" s="838"/>
+      <c r="E40" s="838"/>
+      <c r="F40" s="838"/>
+      <c r="G40" s="838"/>
+      <c r="H40" s="838"/>
+      <c r="I40" s="838"/>
+      <c r="J40" s="838"/>
+      <c r="K40" s="838"/>
       <c r="L40" s="648"/>
       <c r="M40" s="648"/>
       <c r="N40" s="648"/>
@@ -27682,19 +27686,19 @@
       <c r="IV40" s="648"/>
     </row>
     <row r="41" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A41" s="850" t="s">
+      <c r="A41" s="838" t="s">
         <v>805</v>
       </c>
-      <c r="B41" s="850"/>
-      <c r="C41" s="850"/>
-      <c r="D41" s="850"/>
-      <c r="E41" s="850"/>
-      <c r="F41" s="850"/>
-      <c r="G41" s="850"/>
-      <c r="H41" s="850"/>
-      <c r="I41" s="850"/>
-      <c r="J41" s="850"/>
-      <c r="K41" s="850"/>
+      <c r="B41" s="838"/>
+      <c r="C41" s="838"/>
+      <c r="D41" s="838"/>
+      <c r="E41" s="838"/>
+      <c r="F41" s="838"/>
+      <c r="G41" s="838"/>
+      <c r="H41" s="838"/>
+      <c r="I41" s="838"/>
+      <c r="J41" s="838"/>
+      <c r="K41" s="838"/>
       <c r="L41" s="648"/>
       <c r="M41" s="648"/>
       <c r="N41" s="648"/>
@@ -27942,19 +27946,19 @@
       <c r="IV41" s="648"/>
     </row>
     <row r="42" spans="1:256" s="313" customFormat="1">
-      <c r="A42" s="850" t="s">
+      <c r="A42" s="838" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="850"/>
-      <c r="C42" s="850"/>
-      <c r="D42" s="850"/>
-      <c r="E42" s="850"/>
-      <c r="F42" s="850"/>
-      <c r="G42" s="850"/>
-      <c r="H42" s="850"/>
-      <c r="I42" s="850"/>
-      <c r="J42" s="850"/>
-      <c r="K42" s="850"/>
+      <c r="B42" s="838"/>
+      <c r="C42" s="838"/>
+      <c r="D42" s="838"/>
+      <c r="E42" s="838"/>
+      <c r="F42" s="838"/>
+      <c r="G42" s="838"/>
+      <c r="H42" s="838"/>
+      <c r="I42" s="838"/>
+      <c r="J42" s="838"/>
+      <c r="K42" s="838"/>
       <c r="L42" s="648"/>
       <c r="M42" s="648"/>
       <c r="N42" s="648"/>
@@ -28202,19 +28206,19 @@
       <c r="IV42" s="648"/>
     </row>
     <row r="43" spans="1:256" s="313" customFormat="1" ht="36" customHeight="1">
-      <c r="A43" s="850" t="s">
+      <c r="A43" s="838" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="850"/>
-      <c r="C43" s="850"/>
-      <c r="D43" s="850"/>
-      <c r="E43" s="850"/>
-      <c r="F43" s="850"/>
-      <c r="G43" s="850"/>
-      <c r="H43" s="850"/>
-      <c r="I43" s="850"/>
-      <c r="J43" s="850"/>
-      <c r="K43" s="850"/>
+      <c r="B43" s="838"/>
+      <c r="C43" s="838"/>
+      <c r="D43" s="838"/>
+      <c r="E43" s="838"/>
+      <c r="F43" s="838"/>
+      <c r="G43" s="838"/>
+      <c r="H43" s="838"/>
+      <c r="I43" s="838"/>
+      <c r="J43" s="838"/>
+      <c r="K43" s="838"/>
       <c r="L43" s="648"/>
       <c r="M43" s="648"/>
       <c r="N43" s="648"/>
@@ -28504,19 +28508,19 @@
       <c r="S46" s="561"/>
     </row>
     <row r="47" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A47" s="852" t="s">
+      <c r="A47" s="840" t="s">
         <v>559</v>
       </c>
-      <c r="B47" s="852"/>
-      <c r="C47" s="852"/>
-      <c r="D47" s="852"/>
-      <c r="E47" s="852"/>
-      <c r="F47" s="852"/>
-      <c r="G47" s="852"/>
-      <c r="H47" s="852"/>
-      <c r="I47" s="852"/>
-      <c r="J47" s="852"/>
-      <c r="K47" s="852"/>
+      <c r="B47" s="840"/>
+      <c r="C47" s="840"/>
+      <c r="D47" s="840"/>
+      <c r="E47" s="840"/>
+      <c r="F47" s="840"/>
+      <c r="G47" s="840"/>
+      <c r="H47" s="840"/>
+      <c r="I47" s="840"/>
+      <c r="J47" s="840"/>
+      <c r="K47" s="840"/>
       <c r="S47" s="561"/>
     </row>
     <row r="48" spans="1:256" s="313" customFormat="1">
@@ -28534,35 +28538,35 @@
       <c r="S48" s="561"/>
     </row>
     <row r="49" spans="1:256" s="313" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A49" s="852" t="s">
+      <c r="A49" s="840" t="s">
         <v>556</v>
       </c>
-      <c r="B49" s="852"/>
-      <c r="C49" s="852"/>
-      <c r="D49" s="852"/>
-      <c r="E49" s="852"/>
-      <c r="F49" s="852"/>
-      <c r="G49" s="852"/>
-      <c r="H49" s="852"/>
-      <c r="I49" s="852"/>
-      <c r="J49" s="852"/>
-      <c r="K49" s="852"/>
+      <c r="B49" s="840"/>
+      <c r="C49" s="840"/>
+      <c r="D49" s="840"/>
+      <c r="E49" s="840"/>
+      <c r="F49" s="840"/>
+      <c r="G49" s="840"/>
+      <c r="H49" s="840"/>
+      <c r="I49" s="840"/>
+      <c r="J49" s="840"/>
+      <c r="K49" s="840"/>
       <c r="S49" s="561"/>
     </row>
     <row r="50" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A50" s="852" t="s">
+      <c r="A50" s="840" t="s">
         <v>549</v>
       </c>
-      <c r="B50" s="852"/>
-      <c r="C50" s="852"/>
-      <c r="D50" s="852"/>
-      <c r="E50" s="852"/>
-      <c r="F50" s="852"/>
-      <c r="G50" s="852"/>
-      <c r="H50" s="852"/>
-      <c r="I50" s="852"/>
-      <c r="J50" s="852"/>
-      <c r="K50" s="852"/>
+      <c r="B50" s="840"/>
+      <c r="C50" s="840"/>
+      <c r="D50" s="840"/>
+      <c r="E50" s="840"/>
+      <c r="F50" s="840"/>
+      <c r="G50" s="840"/>
+      <c r="H50" s="840"/>
+      <c r="I50" s="840"/>
+      <c r="J50" s="840"/>
+      <c r="K50" s="840"/>
       <c r="L50" s="648"/>
       <c r="M50" s="648"/>
       <c r="N50" s="648"/>
@@ -28810,19 +28814,19 @@
       <c r="IV50" s="648"/>
     </row>
     <row r="51" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="852" t="s">
+      <c r="A51" s="840" t="s">
         <v>551</v>
       </c>
-      <c r="B51" s="852"/>
-      <c r="C51" s="852"/>
-      <c r="D51" s="852"/>
-      <c r="E51" s="852"/>
-      <c r="F51" s="852"/>
-      <c r="G51" s="852"/>
-      <c r="H51" s="852"/>
-      <c r="I51" s="852"/>
-      <c r="J51" s="852"/>
-      <c r="K51" s="852"/>
+      <c r="B51" s="840"/>
+      <c r="C51" s="840"/>
+      <c r="D51" s="840"/>
+      <c r="E51" s="840"/>
+      <c r="F51" s="840"/>
+      <c r="G51" s="840"/>
+      <c r="H51" s="840"/>
+      <c r="I51" s="840"/>
+      <c r="J51" s="840"/>
+      <c r="K51" s="840"/>
       <c r="L51" s="648"/>
       <c r="M51" s="648"/>
       <c r="N51" s="648"/>
@@ -29070,19 +29074,19 @@
       <c r="IV51" s="648"/>
     </row>
     <row r="52" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A52" s="852" t="s">
+      <c r="A52" s="840" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="852"/>
-      <c r="C52" s="852"/>
-      <c r="D52" s="852"/>
-      <c r="E52" s="852"/>
-      <c r="F52" s="852"/>
-      <c r="G52" s="852"/>
-      <c r="H52" s="852"/>
-      <c r="I52" s="852"/>
-      <c r="J52" s="852"/>
-      <c r="K52" s="852"/>
+      <c r="B52" s="840"/>
+      <c r="C52" s="840"/>
+      <c r="D52" s="840"/>
+      <c r="E52" s="840"/>
+      <c r="F52" s="840"/>
+      <c r="G52" s="840"/>
+      <c r="H52" s="840"/>
+      <c r="I52" s="840"/>
+      <c r="J52" s="840"/>
+      <c r="K52" s="840"/>
       <c r="L52" s="648"/>
       <c r="M52" s="648"/>
       <c r="N52" s="648"/>
@@ -29330,19 +29334,19 @@
       <c r="IV52" s="648"/>
     </row>
     <row r="53" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A53" s="852" t="s">
+      <c r="A53" s="840" t="s">
         <v>550</v>
       </c>
-      <c r="B53" s="852"/>
-      <c r="C53" s="852"/>
-      <c r="D53" s="852"/>
-      <c r="E53" s="852"/>
-      <c r="F53" s="852"/>
-      <c r="G53" s="852"/>
-      <c r="H53" s="852"/>
-      <c r="I53" s="852"/>
-      <c r="J53" s="852"/>
-      <c r="K53" s="852"/>
+      <c r="B53" s="840"/>
+      <c r="C53" s="840"/>
+      <c r="D53" s="840"/>
+      <c r="E53" s="840"/>
+      <c r="F53" s="840"/>
+      <c r="G53" s="840"/>
+      <c r="H53" s="840"/>
+      <c r="I53" s="840"/>
+      <c r="J53" s="840"/>
+      <c r="K53" s="840"/>
       <c r="L53" s="648"/>
       <c r="M53" s="648"/>
       <c r="N53" s="648"/>
@@ -29590,19 +29594,19 @@
       <c r="IV53" s="648"/>
     </row>
     <row r="54" spans="1:256" s="313" customFormat="1" ht="63" customHeight="1">
-      <c r="A54" s="852" t="s">
+      <c r="A54" s="840" t="s">
         <v>555</v>
       </c>
-      <c r="B54" s="852"/>
-      <c r="C54" s="852"/>
-      <c r="D54" s="852"/>
-      <c r="E54" s="852"/>
-      <c r="F54" s="852"/>
-      <c r="G54" s="852"/>
-      <c r="H54" s="852"/>
-      <c r="I54" s="852"/>
-      <c r="J54" s="852"/>
-      <c r="K54" s="852"/>
+      <c r="B54" s="840"/>
+      <c r="C54" s="840"/>
+      <c r="D54" s="840"/>
+      <c r="E54" s="840"/>
+      <c r="F54" s="840"/>
+      <c r="G54" s="840"/>
+      <c r="H54" s="840"/>
+      <c r="I54" s="840"/>
+      <c r="J54" s="840"/>
+      <c r="K54" s="840"/>
       <c r="L54" s="648"/>
       <c r="M54" s="648"/>
       <c r="N54" s="648"/>
@@ -29850,19 +29854,19 @@
       <c r="IV54" s="648"/>
     </row>
     <row r="55" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A55" s="852" t="s">
+      <c r="A55" s="840" t="s">
         <v>953</v>
       </c>
-      <c r="B55" s="852"/>
-      <c r="C55" s="852"/>
-      <c r="D55" s="852"/>
-      <c r="E55" s="852"/>
-      <c r="F55" s="852"/>
-      <c r="G55" s="852"/>
-      <c r="H55" s="852"/>
-      <c r="I55" s="852"/>
-      <c r="J55" s="852"/>
-      <c r="K55" s="852"/>
+      <c r="B55" s="840"/>
+      <c r="C55" s="840"/>
+      <c r="D55" s="840"/>
+      <c r="E55" s="840"/>
+      <c r="F55" s="840"/>
+      <c r="G55" s="840"/>
+      <c r="H55" s="840"/>
+      <c r="I55" s="840"/>
+      <c r="J55" s="840"/>
+      <c r="K55" s="840"/>
       <c r="L55" s="648"/>
       <c r="M55" s="648"/>
       <c r="N55" s="648"/>
@@ -30110,19 +30114,19 @@
       <c r="IV55" s="648"/>
     </row>
     <row r="56" spans="1:256" s="313" customFormat="1">
-      <c r="A56" s="852" t="s">
+      <c r="A56" s="840" t="s">
         <v>846</v>
       </c>
-      <c r="B56" s="852"/>
-      <c r="C56" s="852"/>
-      <c r="D56" s="852"/>
-      <c r="E56" s="852"/>
-      <c r="F56" s="852"/>
-      <c r="G56" s="852"/>
-      <c r="H56" s="852"/>
-      <c r="I56" s="852"/>
-      <c r="J56" s="852"/>
-      <c r="K56" s="852"/>
+      <c r="B56" s="840"/>
+      <c r="C56" s="840"/>
+      <c r="D56" s="840"/>
+      <c r="E56" s="840"/>
+      <c r="F56" s="840"/>
+      <c r="G56" s="840"/>
+      <c r="H56" s="840"/>
+      <c r="I56" s="840"/>
+      <c r="J56" s="840"/>
+      <c r="K56" s="840"/>
       <c r="L56" s="648"/>
       <c r="M56" s="648"/>
       <c r="N56" s="648"/>
@@ -30384,65 +30388,65 @@
       <c r="S57" s="561"/>
     </row>
     <row r="58" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A58" s="853" t="s">
+      <c r="A58" s="841" t="s">
         <v>560</v>
       </c>
-      <c r="B58" s="853"/>
-      <c r="C58" s="853"/>
-      <c r="D58" s="853"/>
-      <c r="E58" s="853"/>
-      <c r="F58" s="853"/>
-      <c r="G58" s="853"/>
-      <c r="H58" s="853"/>
-      <c r="I58" s="853"/>
-      <c r="J58" s="853"/>
-      <c r="K58" s="853"/>
+      <c r="B58" s="841"/>
+      <c r="C58" s="841"/>
+      <c r="D58" s="841"/>
+      <c r="E58" s="841"/>
+      <c r="F58" s="841"/>
+      <c r="G58" s="841"/>
+      <c r="H58" s="841"/>
+      <c r="I58" s="841"/>
+      <c r="J58" s="841"/>
+      <c r="K58" s="841"/>
       <c r="S58" s="561"/>
     </row>
     <row r="59" spans="1:256" s="313" customFormat="1">
-      <c r="A59" s="853"/>
-      <c r="B59" s="853"/>
-      <c r="C59" s="853"/>
-      <c r="D59" s="853"/>
-      <c r="E59" s="853"/>
-      <c r="F59" s="853"/>
-      <c r="G59" s="853"/>
-      <c r="H59" s="853"/>
-      <c r="I59" s="853"/>
-      <c r="J59" s="853"/>
-      <c r="K59" s="853"/>
+      <c r="A59" s="841"/>
+      <c r="B59" s="841"/>
+      <c r="C59" s="841"/>
+      <c r="D59" s="841"/>
+      <c r="E59" s="841"/>
+      <c r="F59" s="841"/>
+      <c r="G59" s="841"/>
+      <c r="H59" s="841"/>
+      <c r="I59" s="841"/>
+      <c r="J59" s="841"/>
+      <c r="K59" s="841"/>
       <c r="S59" s="561"/>
     </row>
     <row r="60" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A60" s="853" t="s">
+      <c r="A60" s="841" t="s">
         <v>557</v>
       </c>
-      <c r="B60" s="853"/>
-      <c r="C60" s="853"/>
-      <c r="D60" s="853"/>
-      <c r="E60" s="853"/>
-      <c r="F60" s="853"/>
-      <c r="G60" s="853"/>
-      <c r="H60" s="853"/>
-      <c r="I60" s="853"/>
-      <c r="J60" s="853"/>
-      <c r="K60" s="853"/>
+      <c r="B60" s="841"/>
+      <c r="C60" s="841"/>
+      <c r="D60" s="841"/>
+      <c r="E60" s="841"/>
+      <c r="F60" s="841"/>
+      <c r="G60" s="841"/>
+      <c r="H60" s="841"/>
+      <c r="I60" s="841"/>
+      <c r="J60" s="841"/>
+      <c r="K60" s="841"/>
       <c r="S60" s="561"/>
     </row>
     <row r="61" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A61" s="853" t="s">
+      <c r="A61" s="841" t="s">
         <v>553</v>
       </c>
-      <c r="B61" s="853"/>
-      <c r="C61" s="853"/>
-      <c r="D61" s="853"/>
-      <c r="E61" s="853"/>
-      <c r="F61" s="853"/>
-      <c r="G61" s="853"/>
-      <c r="H61" s="853"/>
-      <c r="I61" s="853"/>
-      <c r="J61" s="853"/>
-      <c r="K61" s="853"/>
+      <c r="B61" s="841"/>
+      <c r="C61" s="841"/>
+      <c r="D61" s="841"/>
+      <c r="E61" s="841"/>
+      <c r="F61" s="841"/>
+      <c r="G61" s="841"/>
+      <c r="H61" s="841"/>
+      <c r="I61" s="841"/>
+      <c r="J61" s="841"/>
+      <c r="K61" s="841"/>
       <c r="L61" s="648"/>
       <c r="M61" s="648"/>
       <c r="N61" s="648"/>
@@ -30690,19 +30694,19 @@
       <c r="IV61" s="648"/>
     </row>
     <row r="62" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A62" s="853" t="s">
+      <c r="A62" s="841" t="s">
         <v>552</v>
       </c>
-      <c r="B62" s="853"/>
-      <c r="C62" s="853"/>
-      <c r="D62" s="853"/>
-      <c r="E62" s="853"/>
-      <c r="F62" s="853"/>
-      <c r="G62" s="853"/>
-      <c r="H62" s="853"/>
-      <c r="I62" s="853"/>
-      <c r="J62" s="853"/>
-      <c r="K62" s="853"/>
+      <c r="B62" s="841"/>
+      <c r="C62" s="841"/>
+      <c r="D62" s="841"/>
+      <c r="E62" s="841"/>
+      <c r="F62" s="841"/>
+      <c r="G62" s="841"/>
+      <c r="H62" s="841"/>
+      <c r="I62" s="841"/>
+      <c r="J62" s="841"/>
+      <c r="K62" s="841"/>
       <c r="L62" s="648"/>
       <c r="M62" s="648"/>
       <c r="N62" s="648"/>
@@ -30950,19 +30954,19 @@
       <c r="IV62" s="648"/>
     </row>
     <row r="63" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A63" s="853" t="s">
+      <c r="A63" s="841" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="853"/>
-      <c r="C63" s="853"/>
-      <c r="D63" s="853"/>
-      <c r="E63" s="853"/>
-      <c r="F63" s="853"/>
-      <c r="G63" s="853"/>
-      <c r="H63" s="853"/>
-      <c r="I63" s="853"/>
-      <c r="J63" s="853"/>
-      <c r="K63" s="853"/>
+      <c r="B63" s="841"/>
+      <c r="C63" s="841"/>
+      <c r="D63" s="841"/>
+      <c r="E63" s="841"/>
+      <c r="F63" s="841"/>
+      <c r="G63" s="841"/>
+      <c r="H63" s="841"/>
+      <c r="I63" s="841"/>
+      <c r="J63" s="841"/>
+      <c r="K63" s="841"/>
       <c r="L63" s="648"/>
       <c r="M63" s="648"/>
       <c r="N63" s="648"/>
@@ -31210,19 +31214,19 @@
       <c r="IV63" s="648"/>
     </row>
     <row r="64" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A64" s="853" t="s">
+      <c r="A64" s="841" t="s">
         <v>554</v>
       </c>
-      <c r="B64" s="853"/>
-      <c r="C64" s="853"/>
-      <c r="D64" s="853"/>
-      <c r="E64" s="853"/>
-      <c r="F64" s="853"/>
-      <c r="G64" s="853"/>
-      <c r="H64" s="853"/>
-      <c r="I64" s="853"/>
-      <c r="J64" s="853"/>
-      <c r="K64" s="853"/>
+      <c r="B64" s="841"/>
+      <c r="C64" s="841"/>
+      <c r="D64" s="841"/>
+      <c r="E64" s="841"/>
+      <c r="F64" s="841"/>
+      <c r="G64" s="841"/>
+      <c r="H64" s="841"/>
+      <c r="I64" s="841"/>
+      <c r="J64" s="841"/>
+      <c r="K64" s="841"/>
       <c r="L64" s="648"/>
       <c r="M64" s="648"/>
       <c r="N64" s="648"/>
@@ -31470,19 +31474,19 @@
       <c r="IV64" s="648"/>
     </row>
     <row r="65" spans="1:256" s="313" customFormat="1" ht="63" customHeight="1">
-      <c r="A65" s="853" t="s">
+      <c r="A65" s="841" t="s">
         <v>558</v>
       </c>
-      <c r="B65" s="853"/>
-      <c r="C65" s="853"/>
-      <c r="D65" s="853"/>
-      <c r="E65" s="853"/>
-      <c r="F65" s="853"/>
-      <c r="G65" s="853"/>
-      <c r="H65" s="853"/>
-      <c r="I65" s="853"/>
-      <c r="J65" s="853"/>
-      <c r="K65" s="853"/>
+      <c r="B65" s="841"/>
+      <c r="C65" s="841"/>
+      <c r="D65" s="841"/>
+      <c r="E65" s="841"/>
+      <c r="F65" s="841"/>
+      <c r="G65" s="841"/>
+      <c r="H65" s="841"/>
+      <c r="I65" s="841"/>
+      <c r="J65" s="841"/>
+      <c r="K65" s="841"/>
       <c r="L65" s="648"/>
       <c r="M65" s="648"/>
       <c r="N65" s="648"/>
@@ -31730,19 +31734,19 @@
       <c r="IV65" s="648"/>
     </row>
     <row r="66" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A66" s="853" t="s">
+      <c r="A66" s="841" t="s">
         <v>805</v>
       </c>
-      <c r="B66" s="853"/>
-      <c r="C66" s="853"/>
-      <c r="D66" s="853"/>
-      <c r="E66" s="853"/>
-      <c r="F66" s="853"/>
-      <c r="G66" s="853"/>
-      <c r="H66" s="853"/>
-      <c r="I66" s="853"/>
-      <c r="J66" s="853"/>
-      <c r="K66" s="853"/>
+      <c r="B66" s="841"/>
+      <c r="C66" s="841"/>
+      <c r="D66" s="841"/>
+      <c r="E66" s="841"/>
+      <c r="F66" s="841"/>
+      <c r="G66" s="841"/>
+      <c r="H66" s="841"/>
+      <c r="I66" s="841"/>
+      <c r="J66" s="841"/>
+      <c r="K66" s="841"/>
       <c r="L66" s="648"/>
       <c r="M66" s="648"/>
       <c r="N66" s="648"/>
@@ -31990,19 +31994,19 @@
       <c r="IV66" s="648"/>
     </row>
     <row r="67" spans="1:256" s="313" customFormat="1">
-      <c r="A67" s="853" t="s">
+      <c r="A67" s="841" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="853"/>
-      <c r="C67" s="853"/>
-      <c r="D67" s="853"/>
-      <c r="E67" s="853"/>
-      <c r="F67" s="853"/>
-      <c r="G67" s="853"/>
-      <c r="H67" s="853"/>
-      <c r="I67" s="853"/>
-      <c r="J67" s="853"/>
-      <c r="K67" s="853"/>
+      <c r="B67" s="841"/>
+      <c r="C67" s="841"/>
+      <c r="D67" s="841"/>
+      <c r="E67" s="841"/>
+      <c r="F67" s="841"/>
+      <c r="G67" s="841"/>
+      <c r="H67" s="841"/>
+      <c r="I67" s="841"/>
+      <c r="J67" s="841"/>
+      <c r="K67" s="841"/>
       <c r="L67" s="648"/>
       <c r="M67" s="648"/>
       <c r="N67" s="648"/>
@@ -39671,7 +39675,7 @@
   </sheetPr>
   <dimension ref="A2:AH77"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28:K28"/>
       <selection pane="topRight" activeCell="A28" sqref="A28:K28"/>
@@ -39709,9 +39713,9 @@
         <f>IF($A$4="Español","Fecha de Cotización:","Date Prepared")</f>
         <v>Fecha de Cotización:</v>
       </c>
-      <c r="H5" s="710">
+      <c r="H5" s="698">
         <f ca="1">TODAY()</f>
-        <v>43042</v>
+        <v>43054</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="67" customFormat="1">
@@ -39720,13 +39724,13 @@
     </row>
     <row r="7" spans="1:13" s="162" customFormat="1" ht="11.25">
       <c r="A7" s="577"/>
-      <c r="B7" s="743"/>
-      <c r="C7" s="744"/>
-      <c r="D7" s="744"/>
-      <c r="E7" s="744"/>
-      <c r="F7" s="744"/>
-      <c r="G7" s="744"/>
-      <c r="H7" s="745"/>
+      <c r="B7" s="731"/>
+      <c r="C7" s="732"/>
+      <c r="D7" s="732"/>
+      <c r="E7" s="732"/>
+      <c r="F7" s="732"/>
+      <c r="G7" s="732"/>
+      <c r="H7" s="733"/>
     </row>
     <row r="8" spans="1:13" s="67" customFormat="1" ht="3" customHeight="1"/>
     <row r="9" spans="1:13" s="67" customFormat="1">
@@ -39746,36 +39750,36 @@
         <f>IF($A$4="Español","Razón Social:","Company:")</f>
         <v>Razón Social:</v>
       </c>
-      <c r="C10" s="732"/>
-      <c r="D10" s="732"/>
-      <c r="E10" s="732"/>
+      <c r="C10" s="720"/>
+      <c r="D10" s="720"/>
+      <c r="E10" s="720"/>
       <c r="F10" s="67" t="str">
         <f>IF($A$4="Español","Nombre:","Event Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="G10" s="733"/>
-      <c r="H10" s="733"/>
+      <c r="G10" s="721"/>
+      <c r="H10" s="721"/>
     </row>
     <row r="11" spans="1:13" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B11" s="748" t="str">
+      <c r="B11" s="736" t="str">
         <f>IF($A$4="Español","Domicilio Fiscal:","Address:")</f>
         <v>Domicilio Fiscal:</v>
       </c>
-      <c r="C11" s="747"/>
-      <c r="D11" s="747"/>
-      <c r="E11" s="747"/>
+      <c r="C11" s="735"/>
+      <c r="D11" s="735"/>
+      <c r="E11" s="735"/>
       <c r="F11" s="110" t="str">
         <f>IF($A$4="Español","Fecha de Montaje","Set up Date:")</f>
         <v>Fecha de Montaje</v>
       </c>
-      <c r="G11" s="711"/>
+      <c r="G11" s="699"/>
       <c r="H11" s="266"/>
     </row>
     <row r="12" spans="1:13" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B12" s="748"/>
-      <c r="C12" s="747"/>
-      <c r="D12" s="747"/>
-      <c r="E12" s="747"/>
+      <c r="B12" s="736"/>
+      <c r="C12" s="735"/>
+      <c r="D12" s="735"/>
+      <c r="E12" s="735"/>
       <c r="F12" s="110" t="str">
         <f>IF($A$4="Español","Hora de Montaje:","Set up Hour:")</f>
         <v>Hora de Montaje:</v>
@@ -39819,13 +39823,13 @@
         <f>IF($A$4="Español","Nombre:","Contact:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="C15" s="733"/>
-      <c r="D15" s="733"/>
+      <c r="C15" s="721"/>
+      <c r="D15" s="721"/>
       <c r="F15" s="110" t="str">
         <f>IF($A$4="Español","Fecha de Inicio:","Start Event Date:")</f>
         <v>Fecha de Inicio:</v>
       </c>
-      <c r="G15" s="711"/>
+      <c r="G15" s="699"/>
       <c r="H15" s="266"/>
       <c r="I15" s="115"/>
     </row>
@@ -39834,8 +39838,8 @@
         <f>IF($A$4="Español","Puesto:","Position:")</f>
         <v>Puesto:</v>
       </c>
-      <c r="C16" s="734"/>
-      <c r="D16" s="734"/>
+      <c r="C16" s="722"/>
+      <c r="D16" s="722"/>
       <c r="E16" s="110"/>
       <c r="F16" s="67" t="str">
         <f>IF($A$4="Español","Hora de Inicio:","Start Event Hour:")</f>
@@ -39858,7 +39862,7 @@
         <f>IF($A$4="Español","Fecha de Termino:","End Event Date:")</f>
         <v>Fecha de Termino:</v>
       </c>
-      <c r="G17" s="711"/>
+      <c r="G17" s="699"/>
       <c r="H17" s="266"/>
       <c r="I17" s="116"/>
     </row>
@@ -39880,36 +39884,36 @@
         <f>IF($A$4="Español","Celular:","Mobile:")</f>
         <v>Celular:</v>
       </c>
-      <c r="C19" s="684"/>
+      <c r="C19" s="676"/>
       <c r="F19" s="67" t="str">
         <f>IF($A$4="Español","Lugar:","Event Location:")</f>
         <v>Lugar:</v>
       </c>
-      <c r="G19" s="734"/>
-      <c r="H19" s="749"/>
+      <c r="G19" s="722"/>
+      <c r="H19" s="737"/>
     </row>
     <row r="20" spans="2:34" s="67" customFormat="1" ht="12.75" customHeight="1">
       <c r="B20" s="121" t="s">
         <v>523</v>
       </c>
       <c r="C20" s="114"/>
-      <c r="F20" s="736" t="str">
+      <c r="F20" s="724" t="str">
         <f>IF($A$4="Español","Dirección:","Address:")</f>
         <v>Dirección:</v>
       </c>
-      <c r="G20" s="750"/>
-      <c r="H20" s="750"/>
+      <c r="G20" s="738"/>
+      <c r="H20" s="738"/>
     </row>
     <row r="21" spans="2:34" s="67" customFormat="1">
       <c r="B21" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="735"/>
-      <c r="D21" s="735"/>
+      <c r="C21" s="723"/>
+      <c r="D21" s="723"/>
       <c r="E21" s="281"/>
-      <c r="F21" s="736"/>
-      <c r="G21" s="750"/>
-      <c r="H21" s="750"/>
+      <c r="F21" s="724"/>
+      <c r="G21" s="738"/>
+      <c r="H21" s="738"/>
     </row>
     <row r="22" spans="2:34" s="67" customFormat="1">
       <c r="B22" s="123"/>
@@ -39936,14 +39940,14 @@
         <f>IF($A$4="Español","Nombre:","Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="C24" s="733"/>
-      <c r="D24" s="733"/>
+      <c r="C24" s="721"/>
+      <c r="D24" s="721"/>
       <c r="F24" s="67" t="str">
         <f>IF($A$4="Español","Nombre:","Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="G24" s="733"/>
-      <c r="H24" s="733"/>
+      <c r="G24" s="721"/>
+      <c r="H24" s="721"/>
     </row>
     <row r="25" spans="2:34" s="67" customFormat="1">
       <c r="B25" s="67" t="str">
@@ -39955,21 +39959,21 @@
         <f>IF($A$4="Español","Celular:","Mobile:")</f>
         <v>Celular:</v>
       </c>
-      <c r="G25" s="687"/>
+      <c r="G25" s="679"/>
       <c r="H25" s="73"/>
     </row>
     <row r="26" spans="2:34" s="67" customFormat="1">
       <c r="B26" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="735"/>
-      <c r="D26" s="735"/>
+      <c r="C26" s="723"/>
+      <c r="D26" s="723"/>
       <c r="E26" s="285"/>
       <c r="F26" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="735"/>
-      <c r="H26" s="735"/>
+      <c r="G26" s="723"/>
+      <c r="H26" s="723"/>
     </row>
     <row r="27" spans="2:34" s="67" customFormat="1">
       <c r="B27" s="120" t="str">
@@ -39983,16 +39987,16 @@
       <c r="G27" s="109"/>
     </row>
     <row r="28" spans="2:34" s="69" customFormat="1">
-      <c r="B28" s="729" t="str">
+      <c r="B28" s="717" t="str">
         <f>IF($A$4="Español","Resumen","Summary")</f>
         <v>Resumen</v>
       </c>
-      <c r="C28" s="729"/>
-      <c r="D28" s="729"/>
-      <c r="E28" s="729"/>
-      <c r="F28" s="729"/>
-      <c r="G28" s="729"/>
-      <c r="H28" s="729"/>
+      <c r="C28" s="717"/>
+      <c r="D28" s="717"/>
+      <c r="E28" s="717"/>
+      <c r="F28" s="717"/>
+      <c r="G28" s="717"/>
+      <c r="H28" s="717"/>
       <c r="I28" s="242"/>
     </row>
     <row r="29" spans="2:34" s="67" customFormat="1">
@@ -40431,22 +40435,22 @@
       <c r="N43" s="125"/>
     </row>
     <row r="44" spans="2:34" s="162" customFormat="1" ht="11.25">
-      <c r="B44" s="737"/>
-      <c r="C44" s="738"/>
-      <c r="D44" s="738"/>
-      <c r="E44" s="738"/>
-      <c r="F44" s="738"/>
-      <c r="G44" s="738"/>
-      <c r="H44" s="739"/>
+      <c r="B44" s="725"/>
+      <c r="C44" s="726"/>
+      <c r="D44" s="726"/>
+      <c r="E44" s="726"/>
+      <c r="F44" s="726"/>
+      <c r="G44" s="726"/>
+      <c r="H44" s="727"/>
     </row>
     <row r="45" spans="2:34" s="162" customFormat="1" ht="11.25">
-      <c r="B45" s="740"/>
-      <c r="C45" s="741"/>
-      <c r="D45" s="741"/>
-      <c r="E45" s="741"/>
-      <c r="F45" s="741"/>
-      <c r="G45" s="741"/>
-      <c r="H45" s="742"/>
+      <c r="B45" s="728"/>
+      <c r="C45" s="729"/>
+      <c r="D45" s="729"/>
+      <c r="E45" s="729"/>
+      <c r="F45" s="729"/>
+      <c r="G45" s="729"/>
+      <c r="H45" s="730"/>
     </row>
     <row r="46" spans="2:34" s="67" customFormat="1" ht="3.75" customHeight="1">
       <c r="B46" s="124"/>
@@ -40455,149 +40459,149 @@
       <c r="N46" s="125"/>
     </row>
     <row r="47" spans="2:34" s="162" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B47" s="746" t="str">
+      <c r="B47" s="734" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A22),CONCATENATE('8-Condicionantes'!A33))</f>
         <v/>
       </c>
-      <c r="C47" s="746"/>
-      <c r="D47" s="746"/>
-      <c r="E47" s="746"/>
-      <c r="F47" s="746"/>
-      <c r="G47" s="746"/>
-      <c r="H47" s="746"/>
+      <c r="C47" s="734"/>
+      <c r="D47" s="734"/>
+      <c r="E47" s="734"/>
+      <c r="F47" s="734"/>
+      <c r="G47" s="734"/>
+      <c r="H47" s="734"/>
       <c r="M47" s="386"/>
       <c r="N47" s="386"/>
     </row>
     <row r="48" spans="2:34" s="162" customFormat="1">
-      <c r="B48" s="731" t="s">
+      <c r="B48" s="719" t="s">
         <v>981</v>
       </c>
-      <c r="C48" s="731"/>
-      <c r="D48" s="731"/>
-      <c r="E48" s="731"/>
-      <c r="F48" s="731"/>
-      <c r="G48" s="731"/>
-      <c r="H48" s="731"/>
+      <c r="C48" s="719"/>
+      <c r="D48" s="719"/>
+      <c r="E48" s="719"/>
+      <c r="F48" s="719"/>
+      <c r="G48" s="719"/>
+      <c r="H48" s="719"/>
       <c r="M48" s="386"/>
       <c r="N48" s="386"/>
     </row>
     <row r="49" spans="1:14" s="257" customFormat="1" ht="64.5" customHeight="1">
-      <c r="B49" s="731" t="str">
+      <c r="B49" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A24),CONCATENATE('8-Condicionantes'!A35))</f>
         <v>1. La presente cotización, será un Contrato de Prestación de Servicios cuando sea aceptada, a través de una firma, por parte del CLIENTE, quien será la persona física o moral a quien está dirigida esta cotización y quien aparece al inicio de la misma, el cual firmará este documento en señal de aceptación, ya sea por parte de su Representante Legal o bien por parte de los factores o dependientes y quien declara que tiene capacidad para celebrar este documento, que su domicilio es el lugar al cual se remitió esta cotización. Presentation Services, S.A. de C.V.  R.F.C. PSE-931116-PLA, declara que es una sociedad Mexicana y que su representante tiene capacidad para firmar este documento a quien se le denominará PRESENTATION SERVICES con domicilio en Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 en la Ciudad de México.  Los precios citados son por día. Cualquier cambio de objetivo, cambio de lugar de los equipos una vez instalados (Presentation Services no será responsable por retrazos generados por cambios) o gastos complementarios, causará una revisión al precio y plazos cotizados.</v>
       </c>
-      <c r="C49" s="731"/>
-      <c r="D49" s="731"/>
-      <c r="E49" s="731"/>
-      <c r="F49" s="731"/>
-      <c r="G49" s="731"/>
-      <c r="H49" s="731"/>
+      <c r="C49" s="719"/>
+      <c r="D49" s="719"/>
+      <c r="E49" s="719"/>
+      <c r="F49" s="719"/>
+      <c r="G49" s="719"/>
+      <c r="H49" s="719"/>
       <c r="I49" s="546"/>
       <c r="M49" s="159"/>
       <c r="N49" s="159"/>
     </row>
     <row r="50" spans="1:14" s="257" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B50" s="731" t="str">
+      <c r="B50" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A25),CONCATENATE('8-Condicionantes'!A36))</f>
         <v xml:space="preserve">2. Este contrato sólo surtirá efectos, si se confirma esta cotización firmando de aceptado el cliente y además hace el pago del porcentaje indicado como anticipo, antes del día fijado como FECHA LIMITE DE PAGO, sin el pago del anticipo y firma de aceptado de este documento Presentation Services, S.A. de C.V., no tendrá ninguna obligación para prestar el servicio. El saldo deberá ser liquidado previo al inicio de la instalación. Sin el pago del saldo no se ejecutará esta cotización, los precios cotizados no incluyen I.V.A. En su caso cualquier saldo no pagado generará un 5% de interés por mora, calculados en forma mensual sobre saldos insolutos si no es pagado en el domicilio de PRESENTATION SERVICES. </v>
       </c>
-      <c r="C50" s="731"/>
-      <c r="D50" s="731"/>
-      <c r="E50" s="731"/>
-      <c r="F50" s="731"/>
-      <c r="G50" s="731"/>
-      <c r="H50" s="731"/>
+      <c r="C50" s="719"/>
+      <c r="D50" s="719"/>
+      <c r="E50" s="719"/>
+      <c r="F50" s="719"/>
+      <c r="G50" s="719"/>
+      <c r="H50" s="719"/>
       <c r="I50" s="546"/>
     </row>
     <row r="51" spans="1:14" s="257" customFormat="1">
-      <c r="B51" s="731" t="str">
+      <c r="B51" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A26),CONCATENATE('8-Condicionantes'!A37))</f>
         <v xml:space="preserve">3. Cualquier pago que se efectúe, deberá ser a favor de Presentation Services, S.A. de C.V. y deberá ser realizado en su domicilio. La mano de obra cotizada es una estimado, se ajustará y calculará al terminar el servicio cotizado. </v>
       </c>
-      <c r="C51" s="731"/>
-      <c r="D51" s="731"/>
-      <c r="E51" s="731"/>
-      <c r="F51" s="731"/>
-      <c r="G51" s="731"/>
-      <c r="H51" s="731"/>
+      <c r="C51" s="719"/>
+      <c r="D51" s="719"/>
+      <c r="E51" s="719"/>
+      <c r="F51" s="719"/>
+      <c r="G51" s="719"/>
+      <c r="H51" s="719"/>
       <c r="I51" s="546"/>
     </row>
     <row r="52" spans="1:14" s="257" customFormat="1">
-      <c r="B52" s="731" t="str">
+      <c r="B52" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A27),CONCATENATE('8-Condicionantes'!A38))</f>
         <v>4. El cliente tramitará y pagará, cualquier tipo de licencia o permiso, incluyendo aportación sindical. La hora técnico cotizada, se calculará y pagará por cada uno de los técnicos utilizados, por cada uno de ellos el cargo deberá de ser mínimo de cuatro horas.</v>
       </c>
-      <c r="C52" s="731"/>
-      <c r="D52" s="731"/>
-      <c r="E52" s="731"/>
-      <c r="F52" s="731"/>
-      <c r="G52" s="731"/>
-      <c r="H52" s="731"/>
+      <c r="C52" s="719"/>
+      <c r="D52" s="719"/>
+      <c r="E52" s="719"/>
+      <c r="F52" s="719"/>
+      <c r="G52" s="719"/>
+      <c r="H52" s="719"/>
       <c r="I52" s="546"/>
     </row>
     <row r="53" spans="1:14" s="257" customFormat="1" ht="30" customHeight="1">
-      <c r="B53" s="731" t="str">
+      <c r="B53" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A28),CONCATENATE('8-Condicionantes'!A39))</f>
         <v>5. En caso de fallas técnicas de algún equipo o parte de mismo, Presentation Services, S.A. de C.V., deducirá la parte proporcional de lo que no funcione y no será causa para que el cliente no efectué el pago total del evento o servicio. En caso de inconformidad el cliente deberá hacerlo por escrito al término del evento y si ésta no existe con acuse de recibo se entenderá que reunió la calidad contratada. Presentation Services, S.A. de C.V. no será responsable ante el caso fortuito o fuerza mayor.</v>
       </c>
-      <c r="C53" s="731"/>
-      <c r="D53" s="731"/>
-      <c r="E53" s="731"/>
-      <c r="F53" s="731"/>
-      <c r="G53" s="731"/>
-      <c r="H53" s="731"/>
+      <c r="C53" s="719"/>
+      <c r="D53" s="719"/>
+      <c r="E53" s="719"/>
+      <c r="F53" s="719"/>
+      <c r="G53" s="719"/>
+      <c r="H53" s="719"/>
       <c r="I53" s="546"/>
     </row>
     <row r="54" spans="1:14" s="257" customFormat="1" ht="69" customHeight="1">
-      <c r="B54" s="731" t="str">
+      <c r="B54" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A29),CONCATENATE('8-Condicionantes'!A40))</f>
         <v>6. En caso de cancelación, deberá hacerse por escrito con acuse de recibo con 48 horas hábiles de anticipación, toda cancelación realizada en ese término,  generará un cargo del 100% del total de la cotización. Independientemente de que el cliente pagará cualquier tipo de gasto económico que se haya realizado para cumplir con esta cotización, los cuales deberán ser debidamente comprobados al cliente. En caso de cancelación Presentation Services podrá utilizar los anticipos pagados por el Cliente para solventar estos gastos emitiendo la respectiva factura que ampare el monto establecido. Todo servicio o equipo adicional para el evento se documentará en hojas de cargo o miscelaneo que formará parte de este instrumento. El cliente será responsable del equipo cuando lo reciba y cuidará de su total integridad y seguridad. En caso de no reintegrarlo despues de terminado el servicio cotizado, generara un cobro proporcional por día de retraso. Se puede confirmar esta cotizacion vía fax, pero siempre en los terminos de estas condiciones.En caso de cancelación en escenografías, deberá hacerse por escrito con acuse de recibo con 7 días hábiles de anticipación. Toda cancelación realizada dentro de los 7 días anteriores a la fecha del evento,  generará un cargo del 100% del total de la cotización.</v>
       </c>
-      <c r="C54" s="731"/>
-      <c r="D54" s="731"/>
-      <c r="E54" s="731"/>
-      <c r="F54" s="731"/>
-      <c r="G54" s="731"/>
-      <c r="H54" s="731"/>
+      <c r="C54" s="719"/>
+      <c r="D54" s="719"/>
+      <c r="E54" s="719"/>
+      <c r="F54" s="719"/>
+      <c r="G54" s="719"/>
+      <c r="H54" s="719"/>
       <c r="I54" s="546"/>
     </row>
     <row r="55" spans="1:14" s="257" customFormat="1" ht="18" customHeight="1">
-      <c r="B55" s="731" t="str">
+      <c r="B55" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A30),CONCATENATE('8-Condicionantes'!A41))</f>
         <v>7. Las partes contratantes en caso de desacuerdo, se someten conforme a las leyes y tribunales de la Ciudad de México, Distrito Federal, renunciando al fuero presente o futuro que pudiere corresponderles en razón de su domicilio.</v>
       </c>
-      <c r="C55" s="731"/>
-      <c r="D55" s="731"/>
-      <c r="E55" s="731"/>
-      <c r="F55" s="731"/>
-      <c r="G55" s="731"/>
-      <c r="H55" s="731"/>
+      <c r="C55" s="719"/>
+      <c r="D55" s="719"/>
+      <c r="E55" s="719"/>
+      <c r="F55" s="719"/>
+      <c r="G55" s="719"/>
+      <c r="H55" s="719"/>
       <c r="I55" s="546"/>
     </row>
     <row r="56" spans="1:14" s="257" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B56" s="731" t="str">
+      <c r="B56" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A31),CONCATENATE('8-Condicionantes'!A42))</f>
         <v>8. El pago del anticipo o firma de la cotización, es la confirmación del evento.</v>
       </c>
-      <c r="C56" s="731"/>
-      <c r="D56" s="731"/>
-      <c r="E56" s="731"/>
-      <c r="F56" s="731"/>
-      <c r="G56" s="731"/>
-      <c r="H56" s="731"/>
+      <c r="C56" s="719"/>
+      <c r="D56" s="719"/>
+      <c r="E56" s="719"/>
+      <c r="F56" s="719"/>
+      <c r="G56" s="719"/>
+      <c r="H56" s="719"/>
       <c r="I56" s="546"/>
     </row>
     <row r="57" spans="1:14" s="257" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B57" s="731" t="str">
+      <c r="B57" s="719" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A32),CONCATENATE('8-Condicionantes'!A43))</f>
         <v>9. Autorizo irrevocable y exclusivamente, para todo el mundo y de forma perpetua y gratuita a PRESENTATION SERVICES S.A. DE C.V. y/o sus entidades relacionadas, a utilizar material, fotografías, videos, grabaciones, imagen, apariencia, voz, y/o cualquier otro dato semejante, en relación con la producción, montaje o exhibición del evento, en su totalidad o en parte, por cualquier método y medios de comunicación, sin aviso o compensación para el cliente.                                                                                                                               Acepto___________                      No Acepto___________</v>
       </c>
-      <c r="C57" s="731"/>
-      <c r="D57" s="731"/>
-      <c r="E57" s="731"/>
-      <c r="F57" s="731"/>
-      <c r="G57" s="731"/>
-      <c r="H57" s="731"/>
+      <c r="C57" s="719"/>
+      <c r="D57" s="719"/>
+      <c r="E57" s="719"/>
+      <c r="F57" s="719"/>
+      <c r="G57" s="719"/>
+      <c r="H57" s="719"/>
       <c r="I57" s="546"/>
     </row>
     <row r="58" spans="1:14" s="480" customFormat="1" ht="3.75" customHeight="1">
@@ -40642,7 +40646,7 @@
         <v>I.- Anticipo sobre el Precio total de esta cotización.</v>
       </c>
       <c r="C61" s="547"/>
-      <c r="D61" s="712">
+      <c r="D61" s="700">
         <v>1</v>
       </c>
       <c r="E61" s="549">
@@ -40669,7 +40673,7 @@
       <c r="D62" s="669"/>
       <c r="E62" s="552">
         <f ca="1">DAYS360(H5,G11)</f>
-        <v>-42423</v>
+        <v>-42435</v>
       </c>
       <c r="F62" s="458" t="str">
         <f>IF($A$4="Español","Referencia CxC","Reference AR")</f>
@@ -40688,7 +40692,7 @@
       <c r="D63" s="669"/>
       <c r="E63" s="554">
         <f ca="1">+H5+15</f>
-        <v>43057</v>
+        <v>43069</v>
       </c>
       <c r="F63" s="458" t="str">
         <f>IF($A$4="Español","Medio de Cobro:","Method of Payment:")</f>
@@ -40727,16 +40731,16 @@
       <c r="I64" s="141"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="730" t="str">
+      <c r="B65" s="718" t="str">
         <f>IF(G64="SI","Para realizar el evento, es necesario cubrir el  50% de anticipo del total de la cotización.",IF(G64="yes","To make the event, it must cover 50% deposit of total quote",0))</f>
         <v>Para realizar el evento, es necesario cubrir el  50% de anticipo del total de la cotización.</v>
       </c>
-      <c r="C65" s="730"/>
-      <c r="D65" s="730"/>
-      <c r="E65" s="730"/>
-      <c r="F65" s="730"/>
-      <c r="G65" s="730"/>
-      <c r="H65" s="730"/>
+      <c r="C65" s="718"/>
+      <c r="D65" s="718"/>
+      <c r="E65" s="718"/>
+      <c r="F65" s="718"/>
+      <c r="G65" s="718"/>
+      <c r="H65" s="718"/>
       <c r="I65" s="148"/>
     </row>
     <row r="66" spans="2:9">
@@ -40871,16 +40875,16 @@
       <c r="H76" s="67"/>
     </row>
     <row r="77" spans="2:9" s="257" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B77" s="728" t="str">
+      <c r="B77" s="716" t="str">
         <f>IF($A$4="Español","Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 en la Ciudad de México. , Tel: (55) 3000.8500,  www.psav.com","PSAV Mexico Corporate Office: Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 México City, CP 11540, Phone +52 55 3000.8500,  www.psav.com")</f>
         <v>Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 en la Ciudad de México. , Tel: (55) 3000.8500,  www.psav.com</v>
       </c>
-      <c r="C77" s="728"/>
-      <c r="D77" s="728"/>
-      <c r="E77" s="728"/>
-      <c r="F77" s="728"/>
-      <c r="G77" s="728"/>
-      <c r="H77" s="728"/>
+      <c r="C77" s="716"/>
+      <c r="D77" s="716"/>
+      <c r="E77" s="716"/>
+      <c r="F77" s="716"/>
+      <c r="G77" s="716"/>
+      <c r="H77" s="716"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
@@ -40966,17 +40970,17 @@
   <dimension ref="B1:BF79"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B16" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A28" sqref="A28:K28"/>
       <selection pane="topRight" activeCell="A28" sqref="A28:K28"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28:K28"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="675" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="843" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="30" customWidth="1"/>
     <col min="5" max="5" width="62.140625" style="30" customWidth="1"/>
@@ -41015,7 +41019,7 @@
       <c r="J1" s="31"/>
     </row>
     <row r="2" spans="2:49" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B2" s="676"/>
+      <c r="B2" s="844"/>
       <c r="J2" s="31"/>
       <c r="N2" s="34"/>
       <c r="Q2" s="34"/>
@@ -41026,7 +41030,7 @@
       <c r="AV2" s="36"/>
     </row>
     <row r="3" spans="2:49" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B3" s="676"/>
+      <c r="B3" s="844"/>
       <c r="G3" s="231"/>
       <c r="J3" s="31"/>
       <c r="N3" s="34"/>
@@ -41038,7 +41042,7 @@
       <c r="AV3" s="36"/>
     </row>
     <row r="4" spans="2:49" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B4" s="676"/>
+      <c r="B4" s="844"/>
       <c r="G4" s="231"/>
       <c r="J4" s="31"/>
       <c r="N4" s="34"/>
@@ -41050,7 +41054,7 @@
       <c r="AV4" s="36"/>
     </row>
     <row r="5" spans="2:49" s="26" customFormat="1">
-      <c r="B5" s="676"/>
+      <c r="B5" s="844"/>
       <c r="G5" s="231"/>
       <c r="I5" s="37" t="str">
         <f>IF(M6=0,"","Existe error en el equipo faltante de la Columna N")</f>
@@ -41066,7 +41070,7 @@
       <c r="AV5" s="36"/>
     </row>
     <row r="6" spans="2:49" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="676"/>
+      <c r="B6" s="844"/>
       <c r="J6" s="31"/>
       <c r="M6" s="38">
         <f>SUM(M16:M77)</f>
@@ -41081,7 +41085,7 @@
       <c r="AV6" s="36"/>
     </row>
     <row r="7" spans="2:49" s="42" customFormat="1">
-      <c r="B7" s="677"/>
+      <c r="B7" s="845"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -41130,92 +41134,92 @@
       <c r="AV7" s="28"/>
     </row>
     <row r="8" spans="2:49" s="26" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B8" s="772">
+      <c r="B8" s="760">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="772"/>
-      <c r="D8" s="772"/>
-      <c r="E8" s="772"/>
-      <c r="F8" s="772"/>
-      <c r="G8" s="772"/>
+      <c r="C8" s="760"/>
+      <c r="D8" s="760"/>
+      <c r="E8" s="760"/>
+      <c r="F8" s="760"/>
+      <c r="G8" s="760"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="776" t="s">
+      <c r="I8" s="764" t="s">
         <v>873</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="43"/>
-      <c r="L8" s="765" t="s">
+      <c r="L8" s="753" t="s">
         <v>863</v>
       </c>
-      <c r="M8" s="766"/>
+      <c r="M8" s="754"/>
       <c r="N8" s="222"/>
-      <c r="O8" s="765" t="s">
+      <c r="O8" s="753" t="s">
         <v>868</v>
       </c>
-      <c r="P8" s="766"/>
+      <c r="P8" s="754"/>
       <c r="Q8" s="222"/>
-      <c r="R8" s="773" t="s">
+      <c r="R8" s="761" t="s">
         <v>877</v>
       </c>
-      <c r="S8" s="774"/>
-      <c r="T8" s="774"/>
-      <c r="U8" s="774"/>
-      <c r="V8" s="775"/>
+      <c r="S8" s="762"/>
+      <c r="T8" s="762"/>
+      <c r="U8" s="762"/>
+      <c r="V8" s="763"/>
       <c r="W8" s="222"/>
-      <c r="X8" s="751" t="s">
+      <c r="X8" s="739" t="s">
         <v>608</v>
       </c>
-      <c r="Y8" s="752"/>
-      <c r="Z8" s="752"/>
-      <c r="AA8" s="752"/>
-      <c r="AB8" s="752"/>
-      <c r="AC8" s="752"/>
-      <c r="AD8" s="752"/>
-      <c r="AE8" s="752"/>
-      <c r="AF8" s="752"/>
-      <c r="AG8" s="752"/>
-      <c r="AH8" s="752"/>
-      <c r="AI8" s="753"/>
+      <c r="Y8" s="740"/>
+      <c r="Z8" s="740"/>
+      <c r="AA8" s="740"/>
+      <c r="AB8" s="740"/>
+      <c r="AC8" s="740"/>
+      <c r="AD8" s="740"/>
+      <c r="AE8" s="740"/>
+      <c r="AF8" s="740"/>
+      <c r="AG8" s="740"/>
+      <c r="AH8" s="740"/>
+      <c r="AI8" s="741"/>
       <c r="AJ8" s="222"/>
-      <c r="AK8" s="751" t="s">
+      <c r="AK8" s="739" t="s">
         <v>865</v>
       </c>
-      <c r="AL8" s="752"/>
-      <c r="AM8" s="752"/>
-      <c r="AN8" s="752"/>
-      <c r="AO8" s="752"/>
-      <c r="AP8" s="752"/>
-      <c r="AQ8" s="752"/>
-      <c r="AR8" s="752"/>
-      <c r="AS8" s="752"/>
-      <c r="AT8" s="752"/>
-      <c r="AU8" s="752"/>
-      <c r="AV8" s="753"/>
+      <c r="AL8" s="740"/>
+      <c r="AM8" s="740"/>
+      <c r="AN8" s="740"/>
+      <c r="AO8" s="740"/>
+      <c r="AP8" s="740"/>
+      <c r="AQ8" s="740"/>
+      <c r="AR8" s="740"/>
+      <c r="AS8" s="740"/>
+      <c r="AT8" s="740"/>
+      <c r="AU8" s="740"/>
+      <c r="AV8" s="741"/>
     </row>
     <row r="9" spans="2:49" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B9" s="676"/>
-      <c r="I9" s="777"/>
+      <c r="B9" s="844"/>
+      <c r="I9" s="765"/>
       <c r="J9" s="40"/>
-      <c r="L9" s="767"/>
-      <c r="M9" s="768"/>
+      <c r="L9" s="755"/>
+      <c r="M9" s="756"/>
       <c r="N9" s="223"/>
-      <c r="O9" s="767"/>
-      <c r="P9" s="768"/>
+      <c r="O9" s="755"/>
+      <c r="P9" s="756"/>
       <c r="Q9" s="223"/>
-      <c r="R9" s="759" t="s">
+      <c r="R9" s="747" t="s">
         <v>617</v>
       </c>
-      <c r="S9" s="759" t="s">
+      <c r="S9" s="747" t="s">
         <v>618</v>
       </c>
-      <c r="T9" s="759" t="s">
+      <c r="T9" s="747" t="s">
         <v>619</v>
       </c>
-      <c r="U9" s="761" t="s">
+      <c r="U9" s="749" t="s">
         <v>866</v>
       </c>
-      <c r="V9" s="755" t="s">
+      <c r="V9" s="743" t="s">
         <v>867</v>
       </c>
       <c r="W9" s="223"/>
@@ -41229,52 +41233,52 @@
       <c r="AE9" s="228"/>
       <c r="AF9" s="228"/>
       <c r="AG9" s="229"/>
-      <c r="AH9" s="761" t="s">
+      <c r="AH9" s="749" t="s">
         <v>866</v>
       </c>
-      <c r="AI9" s="755" t="s">
+      <c r="AI9" s="743" t="s">
         <v>867</v>
       </c>
       <c r="AJ9" s="223"/>
-      <c r="AK9" s="757" t="s">
+      <c r="AK9" s="745" t="s">
         <v>690</v>
       </c>
-      <c r="AL9" s="757" t="s">
+      <c r="AL9" s="745" t="s">
         <v>963</v>
       </c>
-      <c r="AM9" s="757" t="s">
+      <c r="AM9" s="745" t="s">
         <v>964</v>
       </c>
-      <c r="AN9" s="757" t="s">
+      <c r="AN9" s="745" t="s">
         <v>965</v>
       </c>
-      <c r="AO9" s="757" t="s">
+      <c r="AO9" s="745" t="s">
         <v>966</v>
       </c>
-      <c r="AP9" s="757" t="s">
+      <c r="AP9" s="745" t="s">
         <v>967</v>
       </c>
-      <c r="AQ9" s="757" t="s">
+      <c r="AQ9" s="745" t="s">
         <v>968</v>
       </c>
-      <c r="AR9" s="757" t="s">
+      <c r="AR9" s="745" t="s">
         <v>969</v>
       </c>
-      <c r="AS9" s="757" t="s">
+      <c r="AS9" s="745" t="s">
         <v>970</v>
       </c>
-      <c r="AT9" s="757" t="s">
+      <c r="AT9" s="745" t="s">
         <v>971</v>
       </c>
-      <c r="AU9" s="761" t="s">
+      <c r="AU9" s="749" t="s">
         <v>866</v>
       </c>
-      <c r="AV9" s="755" t="s">
+      <c r="AV9" s="743" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="10" spans="2:49" s="46" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B10" s="678" t="str">
+      <c r="B10" s="842" t="str">
         <f>IF(I12="español","CLAVE","KEY")</f>
         <v>CLAVE</v>
       </c>
@@ -41317,11 +41321,11 @@
         <v>867</v>
       </c>
       <c r="Q10" s="223"/>
-      <c r="R10" s="760"/>
-      <c r="S10" s="760"/>
-      <c r="T10" s="760"/>
-      <c r="U10" s="762"/>
-      <c r="V10" s="756"/>
+      <c r="R10" s="748"/>
+      <c r="S10" s="748"/>
+      <c r="T10" s="748"/>
+      <c r="U10" s="750"/>
+      <c r="V10" s="744"/>
       <c r="W10" s="223">
         <v>7005</v>
       </c>
@@ -41365,24 +41369,24 @@
         <f>IF(AG9=0,"",VLOOKUP(AG9,'9 - Locations'!$C$6:$K$274,6,0))</f>
         <v/>
       </c>
-      <c r="AH10" s="762"/>
-      <c r="AI10" s="756"/>
+      <c r="AH10" s="750"/>
+      <c r="AI10" s="744"/>
       <c r="AJ10" s="223"/>
-      <c r="AK10" s="758"/>
-      <c r="AL10" s="758"/>
-      <c r="AM10" s="758"/>
-      <c r="AN10" s="758"/>
-      <c r="AO10" s="758"/>
-      <c r="AP10" s="758"/>
-      <c r="AQ10" s="758"/>
-      <c r="AR10" s="758"/>
-      <c r="AS10" s="758"/>
-      <c r="AT10" s="758"/>
-      <c r="AU10" s="762"/>
-      <c r="AV10" s="756"/>
+      <c r="AK10" s="746"/>
+      <c r="AL10" s="746"/>
+      <c r="AM10" s="746"/>
+      <c r="AN10" s="746"/>
+      <c r="AO10" s="746"/>
+      <c r="AP10" s="746"/>
+      <c r="AQ10" s="746"/>
+      <c r="AR10" s="746"/>
+      <c r="AS10" s="746"/>
+      <c r="AT10" s="746"/>
+      <c r="AU10" s="750"/>
+      <c r="AV10" s="744"/>
     </row>
     <row r="11" spans="2:49" s="26" customFormat="1" ht="4.5" customHeight="1">
-      <c r="B11" s="676"/>
+      <c r="B11" s="844"/>
       <c r="J11" s="40"/>
       <c r="N11" s="224"/>
       <c r="Q11" s="224"/>
@@ -41393,14 +41397,14 @@
       <c r="AV11" s="36"/>
     </row>
     <row r="12" spans="2:49" s="48" customFormat="1" ht="15.75">
-      <c r="B12" s="769" t="str">
+      <c r="B12" s="757" t="str">
         <f>IF(I12="español","RENTA DE EQUIPO Y SERVICIOS","AV EQUIPMENT AND SERVICES")</f>
         <v>RENTA DE EQUIPO Y SERVICIOS</v>
       </c>
-      <c r="C12" s="770"/>
-      <c r="D12" s="770"/>
-      <c r="E12" s="770"/>
-      <c r="F12" s="771"/>
+      <c r="C12" s="758"/>
+      <c r="D12" s="758"/>
+      <c r="E12" s="758"/>
+      <c r="F12" s="759"/>
       <c r="G12" s="50">
         <f>'2-Cotización'!G22</f>
         <v>0</v>
@@ -41412,23 +41416,23 @@
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="754" t="s">
+      <c r="L12" s="742" t="s">
         <v>872</v>
       </c>
-      <c r="M12" s="754"/>
+      <c r="M12" s="742"/>
       <c r="N12" s="223"/>
-      <c r="O12" s="754" t="s">
+      <c r="O12" s="742" t="s">
         <v>872</v>
       </c>
-      <c r="P12" s="754"/>
+      <c r="P12" s="742"/>
       <c r="Q12" s="223"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="754" t="s">
+      <c r="U12" s="742" t="s">
         <v>872</v>
       </c>
-      <c r="V12" s="754"/>
+      <c r="V12" s="742"/>
       <c r="W12" s="223"/>
       <c r="X12" s="26"/>
       <c r="Y12" s="26"/>
@@ -41440,10 +41444,10 @@
       <c r="AE12" s="26"/>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
-      <c r="AH12" s="754" t="s">
+      <c r="AH12" s="742" t="s">
         <v>872</v>
       </c>
-      <c r="AI12" s="754"/>
+      <c r="AI12" s="742"/>
       <c r="AJ12" s="223"/>
       <c r="AK12" s="26"/>
       <c r="AL12" s="26"/>
@@ -41455,26 +41459,26 @@
       <c r="AR12" s="26"/>
       <c r="AS12" s="26"/>
       <c r="AT12" s="26"/>
-      <c r="AU12" s="754" t="s">
+      <c r="AU12" s="742" t="s">
         <v>872</v>
       </c>
-      <c r="AV12" s="754"/>
+      <c r="AV12" s="742"/>
       <c r="AW12" s="26"/>
     </row>
     <row r="13" spans="2:49" s="26" customFormat="1" ht="3" customHeight="1">
-      <c r="B13" s="676"/>
+      <c r="B13" s="844"/>
       <c r="J13" s="40"/>
-      <c r="L13" s="754"/>
-      <c r="M13" s="754"/>
+      <c r="L13" s="742"/>
+      <c r="M13" s="742"/>
       <c r="N13" s="225"/>
-      <c r="O13" s="754"/>
-      <c r="P13" s="754"/>
+      <c r="O13" s="742"/>
+      <c r="P13" s="742"/>
       <c r="Q13" s="225"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="754"/>
-      <c r="V13" s="754"/>
+      <c r="U13" s="742"/>
+      <c r="V13" s="742"/>
       <c r="W13" s="225"/>
       <c r="X13" s="51"/>
       <c r="Y13" s="51"/>
@@ -41486,8 +41490,8 @@
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
-      <c r="AH13" s="754"/>
-      <c r="AI13" s="754"/>
+      <c r="AH13" s="742"/>
+      <c r="AI13" s="742"/>
       <c r="AJ13" s="225"/>
       <c r="AK13" s="51"/>
       <c r="AL13" s="51"/>
@@ -41499,12 +41503,12 @@
       <c r="AR13" s="51"/>
       <c r="AS13" s="51"/>
       <c r="AT13" s="51"/>
-      <c r="AU13" s="754"/>
-      <c r="AV13" s="754"/>
+      <c r="AU13" s="742"/>
+      <c r="AV13" s="742"/>
       <c r="AW13" s="51"/>
     </row>
     <row r="14" spans="2:49" s="26" customFormat="1" ht="4.5" customHeight="1">
-      <c r="B14" s="679"/>
+      <c r="B14" s="846"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -41516,7 +41520,7 @@
       <c r="K14" s="49"/>
     </row>
     <row r="15" spans="2:49" ht="4.5" customHeight="1">
-      <c r="B15" s="676"/>
+      <c r="B15" s="844"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -41531,14 +41535,14 @@
       <c r="AJ15" s="223"/>
     </row>
     <row r="16" spans="2:49" ht="15.75" customHeight="1">
-      <c r="B16" s="691" t="s">
+      <c r="B16" s="847" t="s">
         <v>979</v>
       </c>
-      <c r="C16" s="692"/>
-      <c r="D16" s="692"/>
-      <c r="E16" s="693"/>
-      <c r="F16" s="688"/>
-      <c r="G16" s="700"/>
+      <c r="C16" s="683"/>
+      <c r="D16" s="683"/>
+      <c r="E16" s="684"/>
+      <c r="F16" s="680"/>
+      <c r="G16" s="689"/>
       <c r="H16" s="55"/>
       <c r="I16" s="316"/>
       <c r="J16" s="56"/>
@@ -41612,14 +41616,14 @@
       </c>
     </row>
     <row r="17" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B17" s="694" t="s">
+      <c r="B17" s="848" t="s">
         <v>980</v>
       </c>
-      <c r="C17" s="695"/>
-      <c r="D17" s="695"/>
-      <c r="E17" s="696"/>
-      <c r="F17" s="689"/>
-      <c r="G17" s="683"/>
+      <c r="C17" s="685"/>
+      <c r="D17" s="685"/>
+      <c r="E17" s="686"/>
+      <c r="F17" s="681"/>
+      <c r="G17" s="675"/>
       <c r="H17" s="55"/>
       <c r="I17" s="316"/>
       <c r="J17" s="56"/>
@@ -41693,14 +41697,14 @@
       </c>
     </row>
     <row r="18" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B18" s="694" t="s">
+      <c r="B18" s="848" t="s">
         <v>700</v>
       </c>
-      <c r="C18" s="695"/>
-      <c r="D18" s="695"/>
-      <c r="E18" s="696"/>
-      <c r="F18" s="689"/>
-      <c r="G18" s="683"/>
+      <c r="C18" s="685"/>
+      <c r="D18" s="685"/>
+      <c r="E18" s="686"/>
+      <c r="F18" s="681"/>
+      <c r="G18" s="675"/>
       <c r="H18" s="55"/>
       <c r="I18" s="316"/>
       <c r="J18" s="56"/>
@@ -41774,14 +41778,14 @@
       </c>
     </row>
     <row r="19" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B19" s="694" t="s">
+      <c r="B19" s="848" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="695"/>
-      <c r="D19" s="695"/>
-      <c r="E19" s="697"/>
-      <c r="F19" s="689"/>
-      <c r="G19" s="683"/>
+      <c r="C19" s="685"/>
+      <c r="D19" s="685"/>
+      <c r="E19" s="687"/>
+      <c r="F19" s="681"/>
+      <c r="G19" s="675"/>
       <c r="H19" s="55"/>
       <c r="I19" s="316"/>
       <c r="J19" s="56"/>
@@ -41855,14 +41859,14 @@
       </c>
     </row>
     <row r="20" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B20" s="698" t="s">
+      <c r="B20" s="849" t="s">
         <v>703</v>
       </c>
-      <c r="C20" s="699"/>
-      <c r="D20" s="699"/>
-      <c r="E20" s="701"/>
-      <c r="F20" s="690"/>
-      <c r="G20" s="702"/>
+      <c r="C20" s="688"/>
+      <c r="D20" s="688"/>
+      <c r="E20" s="690"/>
+      <c r="F20" s="682"/>
+      <c r="G20" s="691"/>
       <c r="H20" s="55"/>
       <c r="I20" s="316"/>
       <c r="J20" s="56"/>
@@ -41936,7 +41940,7 @@
       </c>
     </row>
     <row r="21" spans="2:48" ht="29.25" customHeight="1">
-      <c r="B21" s="706"/>
+      <c r="B21" s="850"/>
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
       <c r="E21" s="54"/>
@@ -42018,11 +42022,11 @@
       </c>
     </row>
     <row r="22" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B22" s="680"/>
+      <c r="B22" s="851"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
       <c r="E22" s="673"/>
-      <c r="F22" s="707"/>
+      <c r="F22" s="695"/>
       <c r="G22" s="479">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -42100,11 +42104,11 @@
       </c>
     </row>
     <row r="23" spans="2:48" ht="17.25" customHeight="1">
-      <c r="B23" s="680"/>
+      <c r="B23" s="851"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="673"/>
-      <c r="F23" s="707"/>
+      <c r="F23" s="695"/>
       <c r="G23" s="479">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -42182,11 +42186,11 @@
       </c>
     </row>
     <row r="24" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B24" s="680"/>
+      <c r="B24" s="851"/>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="674"/>
-      <c r="F24" s="708"/>
+      <c r="F24" s="696"/>
       <c r="G24" s="479">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -42264,11 +42268,11 @@
       </c>
     </row>
     <row r="25" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B25" s="680"/>
+      <c r="B25" s="851"/>
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="674"/>
-      <c r="F25" s="708"/>
+      <c r="F25" s="696"/>
       <c r="G25" s="479">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -42346,11 +42350,11 @@
       </c>
     </row>
     <row r="26" spans="2:48">
-      <c r="B26" s="680"/>
+      <c r="B26" s="851"/>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
-      <c r="E26" s="704"/>
-      <c r="F26" s="708"/>
+      <c r="E26" s="693"/>
+      <c r="F26" s="696"/>
       <c r="G26" s="479">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -42428,11 +42432,11 @@
       </c>
     </row>
     <row r="27" spans="2:48">
-      <c r="B27" s="680"/>
+      <c r="B27" s="851"/>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
-      <c r="E27" s="704"/>
-      <c r="F27" s="707"/>
+      <c r="E27" s="693"/>
+      <c r="F27" s="695"/>
       <c r="G27" s="260">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -42510,11 +42514,11 @@
       </c>
     </row>
     <row r="28" spans="2:48" ht="24" customHeight="1">
-      <c r="B28" s="706"/>
+      <c r="B28" s="850"/>
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="54"/>
-      <c r="F28" s="708"/>
+      <c r="F28" s="696"/>
       <c r="G28" s="479">
         <f t="shared" ref="G28:G34" si="16">+C28*D28*F28</f>
         <v>0</v>
@@ -42592,11 +42596,11 @@
       </c>
     </row>
     <row r="29" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B29" s="680"/>
+      <c r="B29" s="851"/>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="673"/>
-      <c r="F29" s="708"/>
+      <c r="F29" s="696"/>
       <c r="G29" s="479">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -42674,11 +42678,11 @@
       </c>
     </row>
     <row r="30" spans="2:48" ht="14.25" customHeight="1">
-      <c r="B30" s="680"/>
+      <c r="B30" s="851"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
       <c r="E30" s="674"/>
-      <c r="F30" s="708"/>
+      <c r="F30" s="696"/>
       <c r="G30" s="479">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -42756,11 +42760,11 @@
       </c>
     </row>
     <row r="31" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B31" s="680"/>
+      <c r="B31" s="851"/>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="674"/>
-      <c r="F31" s="708"/>
+      <c r="F31" s="696"/>
       <c r="G31" s="479">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -42838,11 +42842,11 @@
       </c>
     </row>
     <row r="32" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B32" s="680"/>
+      <c r="B32" s="851"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="674"/>
-      <c r="F32" s="708"/>
+      <c r="F32" s="696"/>
       <c r="G32" s="479">
         <f>+C32*D32*F32</f>
         <v>0</v>
@@ -42920,11 +42924,11 @@
       </c>
     </row>
     <row r="33" spans="2:48">
-      <c r="B33" s="680"/>
+      <c r="B33" s="851"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="674"/>
-      <c r="F33" s="708"/>
+      <c r="F33" s="696"/>
       <c r="G33" s="479">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -43002,11 +43006,11 @@
       </c>
     </row>
     <row r="34" spans="2:48" ht="21.75" customHeight="1">
-      <c r="B34" s="706"/>
+      <c r="B34" s="850"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="670"/>
-      <c r="F34" s="708"/>
+      <c r="F34" s="696"/>
       <c r="G34" s="479">
         <f t="shared" si="16"/>
         <v>0</v>
@@ -43084,11 +43088,11 @@
       </c>
     </row>
     <row r="35" spans="2:48" ht="12.75" customHeight="1">
-      <c r="B35" s="680"/>
+      <c r="B35" s="851"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
       <c r="E35" s="673"/>
-      <c r="F35" s="707"/>
+      <c r="F35" s="695"/>
       <c r="G35" s="260">
         <f>+C35*D35*F35</f>
         <v>0</v>
@@ -43166,11 +43170,11 @@
       </c>
     </row>
     <row r="36" spans="2:48" ht="12.75" customHeight="1">
-      <c r="B36" s="680"/>
+      <c r="B36" s="851"/>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
       <c r="E36" s="673"/>
-      <c r="F36" s="707"/>
+      <c r="F36" s="695"/>
       <c r="G36" s="260">
         <f>+C36*D36*F36</f>
         <v>0</v>
@@ -43248,11 +43252,11 @@
       </c>
     </row>
     <row r="37" spans="2:48" ht="12.75" customHeight="1">
-      <c r="B37" s="680"/>
+      <c r="B37" s="851"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="708"/>
+      <c r="F37" s="696"/>
       <c r="G37" s="260">
         <f>+C37*D37*F37</f>
         <v>0</v>
@@ -43330,19 +43334,17 @@
       </c>
     </row>
     <row r="38" spans="2:48" outlineLevel="1">
-      <c r="B38" s="680"/>
+      <c r="B38" s="851"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
-      <c r="E38" s="705"/>
-      <c r="F38" s="703"/>
+      <c r="E38" s="694"/>
+      <c r="F38" s="692"/>
       <c r="G38" s="260">
         <f t="shared" ref="G38:G50" si="20">+C38*D38*F38</f>
         <v>0</v>
       </c>
       <c r="H38" s="55"/>
-      <c r="I38" s="316" t="s">
-        <v>613</v>
-      </c>
+      <c r="I38" s="316"/>
       <c r="J38" s="56"/>
       <c r="K38" s="55"/>
       <c r="L38" s="288">
@@ -43414,7 +43416,7 @@
       </c>
     </row>
     <row r="39" spans="2:48" outlineLevel="1">
-      <c r="B39" s="680"/>
+      <c r="B39" s="851"/>
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
       <c r="E39" s="59"/>
@@ -43496,10 +43498,10 @@
       </c>
     </row>
     <row r="40" spans="2:48" outlineLevel="1">
-      <c r="B40" s="680"/>
+      <c r="B40" s="851"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
-      <c r="E40" s="709"/>
+      <c r="E40" s="697"/>
       <c r="F40" s="259"/>
       <c r="G40" s="260">
         <f t="shared" si="20"/>
@@ -43578,7 +43580,7 @@
       </c>
     </row>
     <row r="41" spans="2:48" outlineLevel="1">
-      <c r="B41" s="680"/>
+      <c r="B41" s="851"/>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
       <c r="E41" s="59"/>
@@ -43660,7 +43662,7 @@
       </c>
     </row>
     <row r="42" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B42" s="680"/>
+      <c r="B42" s="851"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
       <c r="E42" s="59"/>
@@ -43742,7 +43744,7 @@
       </c>
     </row>
     <row r="43" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B43" s="680"/>
+      <c r="B43" s="851"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
       <c r="E43" s="59"/>
@@ -43824,7 +43826,7 @@
       </c>
     </row>
     <row r="44" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B44" s="680"/>
+      <c r="B44" s="851"/>
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
       <c r="E44" s="59"/>
@@ -43906,7 +43908,7 @@
       </c>
     </row>
     <row r="45" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B45" s="680"/>
+      <c r="B45" s="851"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
       <c r="E45" s="59"/>
@@ -43988,7 +43990,7 @@
       </c>
     </row>
     <row r="46" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B46" s="680"/>
+      <c r="B46" s="851"/>
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
       <c r="E46" s="59"/>
@@ -44070,7 +44072,7 @@
       </c>
     </row>
     <row r="47" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B47" s="680"/>
+      <c r="B47" s="851"/>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
       <c r="E47" s="59"/>
@@ -44152,7 +44154,7 @@
       </c>
     </row>
     <row r="48" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B48" s="680"/>
+      <c r="B48" s="851"/>
       <c r="C48" s="53"/>
       <c r="D48" s="53"/>
       <c r="E48" s="59"/>
@@ -44234,7 +44236,7 @@
       </c>
     </row>
     <row r="49" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B49" s="680"/>
+      <c r="B49" s="851"/>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="59"/>
@@ -44316,7 +44318,7 @@
       </c>
     </row>
     <row r="50" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B50" s="680"/>
+      <c r="B50" s="851"/>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
       <c r="E50" s="59"/>
@@ -44398,7 +44400,7 @@
       </c>
     </row>
     <row r="51" spans="2:48">
-      <c r="B51" s="680"/>
+      <c r="B51" s="851"/>
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
       <c r="E51" s="249" t="str">
@@ -44468,7 +44470,7 @@
       </c>
     </row>
     <row r="52" spans="2:48">
-      <c r="B52" s="680"/>
+      <c r="B52" s="851"/>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
       <c r="E52" s="54"/>
@@ -44517,13 +44519,13 @@
       <c r="AV52" s="29"/>
     </row>
     <row r="53" spans="2:48" ht="15.75">
-      <c r="B53" s="763" t="str">
+      <c r="B53" s="751" t="str">
         <f>IF(I12="español","MANO DE OBRA","LABOR")</f>
         <v>MANO DE OBRA</v>
       </c>
-      <c r="C53" s="764"/>
-      <c r="D53" s="764"/>
-      <c r="E53" s="764"/>
+      <c r="C53" s="752"/>
+      <c r="D53" s="752"/>
+      <c r="E53" s="752"/>
       <c r="F53" s="263"/>
       <c r="G53" s="264"/>
       <c r="H53" s="58"/>
@@ -44569,7 +44571,7 @@
       <c r="AV53" s="29"/>
     </row>
     <row r="54" spans="2:48">
-      <c r="B54" s="680"/>
+      <c r="B54" s="851"/>
       <c r="C54" s="219" t="str">
         <f>IF(I12="español","CANT","QTY")</f>
         <v>CANT</v>
@@ -44623,7 +44625,7 @@
       <c r="AV54" s="29"/>
     </row>
     <row r="55" spans="2:48">
-      <c r="B55" s="680"/>
+      <c r="B55" s="851"/>
       <c r="C55" s="53"/>
       <c r="D55" s="53"/>
       <c r="E55" s="671"/>
@@ -44705,11 +44707,11 @@
       </c>
     </row>
     <row r="56" spans="2:48">
-      <c r="B56" s="680"/>
+      <c r="B56" s="851"/>
       <c r="C56" s="52"/>
       <c r="D56" s="52"/>
-      <c r="E56" s="704"/>
-      <c r="F56" s="703"/>
+      <c r="E56" s="693"/>
+      <c r="F56" s="692"/>
       <c r="G56" s="260">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -44787,11 +44789,11 @@
       </c>
     </row>
     <row r="57" spans="2:48">
-      <c r="B57" s="680"/>
+      <c r="B57" s="851"/>
       <c r="C57" s="52"/>
       <c r="D57" s="52"/>
-      <c r="E57" s="704"/>
-      <c r="F57" s="703"/>
+      <c r="E57" s="693"/>
+      <c r="F57" s="692"/>
       <c r="G57" s="260">
         <f>+C57*D57*F57</f>
         <v>0</v>
@@ -44869,11 +44871,11 @@
       </c>
     </row>
     <row r="58" spans="2:48">
-      <c r="B58" s="680"/>
+      <c r="B58" s="851"/>
       <c r="C58" s="52"/>
       <c r="D58" s="52"/>
-      <c r="E58" s="704"/>
-      <c r="F58" s="703"/>
+      <c r="E58" s="693"/>
+      <c r="F58" s="692"/>
       <c r="G58" s="260">
         <f t="shared" si="29"/>
         <v>0</v>
@@ -44951,7 +44953,7 @@
       </c>
     </row>
     <row r="59" spans="2:48" hidden="1">
-      <c r="B59" s="680"/>
+      <c r="B59" s="851"/>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="59"/>
@@ -45033,7 +45035,7 @@
       </c>
     </row>
     <row r="60" spans="2:48" hidden="1">
-      <c r="B60" s="680"/>
+      <c r="B60" s="851"/>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="59"/>
@@ -45115,7 +45117,7 @@
       </c>
     </row>
     <row r="61" spans="2:48" hidden="1">
-      <c r="B61" s="680"/>
+      <c r="B61" s="851"/>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
       <c r="E61" s="59"/>
@@ -45197,7 +45199,7 @@
       </c>
     </row>
     <row r="62" spans="2:48" hidden="1">
-      <c r="B62" s="680"/>
+      <c r="B62" s="851"/>
       <c r="C62" s="53"/>
       <c r="D62" s="53"/>
       <c r="E62" s="59"/>
@@ -45279,7 +45281,7 @@
       </c>
     </row>
     <row r="63" spans="2:48" hidden="1">
-      <c r="B63" s="680"/>
+      <c r="B63" s="851"/>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
       <c r="E63" s="59"/>
@@ -45361,7 +45363,7 @@
       </c>
     </row>
     <row r="64" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B64" s="680"/>
+      <c r="B64" s="851"/>
       <c r="C64" s="53"/>
       <c r="D64" s="53"/>
       <c r="E64" s="59"/>
@@ -45443,7 +45445,7 @@
       </c>
     </row>
     <row r="65" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B65" s="680"/>
+      <c r="B65" s="851"/>
       <c r="C65" s="53"/>
       <c r="D65" s="53"/>
       <c r="E65" s="59"/>
@@ -45525,7 +45527,7 @@
       </c>
     </row>
     <row r="66" spans="2:58" hidden="1">
-      <c r="B66" s="680"/>
+      <c r="B66" s="851"/>
       <c r="C66" s="53"/>
       <c r="D66" s="53"/>
       <c r="E66" s="59"/>
@@ -45607,10 +45609,10 @@
       </c>
     </row>
     <row r="67" spans="2:58" outlineLevel="1">
-      <c r="B67" s="680"/>
+      <c r="B67" s="851"/>
       <c r="C67" s="53"/>
       <c r="D67" s="53"/>
-      <c r="E67" s="709"/>
+      <c r="E67" s="697"/>
       <c r="F67" s="259"/>
       <c r="G67" s="260">
         <f t="shared" si="29"/>
@@ -45689,7 +45691,7 @@
       </c>
     </row>
     <row r="68" spans="2:58" outlineLevel="1">
-      <c r="B68" s="680"/>
+      <c r="B68" s="851"/>
       <c r="C68" s="53"/>
       <c r="D68" s="53"/>
       <c r="E68" s="59"/>
@@ -45771,7 +45773,7 @@
       </c>
     </row>
     <row r="69" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B69" s="680"/>
+      <c r="B69" s="851"/>
       <c r="C69" s="53"/>
       <c r="D69" s="53"/>
       <c r="E69" s="59"/>
@@ -45853,7 +45855,7 @@
       </c>
     </row>
     <row r="70" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B70" s="680"/>
+      <c r="B70" s="851"/>
       <c r="C70" s="53"/>
       <c r="D70" s="53"/>
       <c r="E70" s="59"/>
@@ -45935,7 +45937,7 @@
       </c>
     </row>
     <row r="71" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B71" s="680"/>
+      <c r="B71" s="851"/>
       <c r="C71" s="53"/>
       <c r="D71" s="53"/>
       <c r="E71" s="59"/>
@@ -46017,7 +46019,7 @@
       </c>
     </row>
     <row r="72" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B72" s="680"/>
+      <c r="B72" s="851"/>
       <c r="C72" s="53"/>
       <c r="D72" s="53"/>
       <c r="E72" s="59"/>
@@ -46099,7 +46101,7 @@
       </c>
     </row>
     <row r="73" spans="2:58">
-      <c r="B73" s="680"/>
+      <c r="B73" s="851"/>
       <c r="C73" s="53"/>
       <c r="D73" s="53"/>
       <c r="E73" s="250" t="str">
@@ -46169,7 +46171,7 @@
       </c>
     </row>
     <row r="74" spans="2:58">
-      <c r="B74" s="680"/>
+      <c r="B74" s="851"/>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
       <c r="E74" s="54"/>
@@ -46218,7 +46220,7 @@
       <c r="AV74" s="29"/>
     </row>
     <row r="75" spans="2:58">
-      <c r="B75" s="680"/>
+      <c r="B75" s="851"/>
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
       <c r="E75" s="54"/>
@@ -46267,7 +46269,7 @@
       <c r="AV75" s="29"/>
     </row>
     <row r="76" spans="2:58" ht="8.25" customHeight="1">
-      <c r="B76" s="681"/>
+      <c r="B76" s="852"/>
       <c r="C76" s="60"/>
       <c r="D76" s="60"/>
       <c r="E76" s="61"/>
@@ -46301,18 +46303,18 @@
       <c r="BF76" s="26"/>
     </row>
     <row r="77" spans="2:58">
-      <c r="B77" s="682"/>
+      <c r="B77" s="853"/>
       <c r="C77" s="54"/>
       <c r="D77" s="54"/>
-      <c r="E77" s="686" t="str">
+      <c r="E77" s="678" t="str">
         <f>IF(I12="español","TOTAL COTIZADO","TOTAL ESTIMATE")</f>
         <v>TOTAL COTIZADO</v>
       </c>
-      <c r="F77" s="685">
+      <c r="F77" s="677">
         <f>'2-Cotización'!G22</f>
         <v>0</v>
       </c>
-      <c r="G77" s="685">
+      <c r="G77" s="677">
         <f>SUM(G16:G75)/2</f>
         <v>0</v>
       </c>
@@ -46492,10 +46494,10 @@
   </sheetPr>
   <dimension ref="A1:N47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B8" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A28" sqref="A28:K28"/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" outlineLevelCol="1"/>
@@ -46560,19 +46562,19 @@
       <c r="G7" s="71"/>
     </row>
     <row r="8" spans="1:14" s="67" customFormat="1" ht="12.75">
-      <c r="B8" s="784">
+      <c r="B8" s="772">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="785"/>
-      <c r="D8" s="785"/>
-      <c r="E8" s="785"/>
-      <c r="F8" s="785"/>
-      <c r="G8" s="785"/>
-      <c r="H8" s="785"/>
-      <c r="I8" s="785"/>
-      <c r="J8" s="785"/>
-      <c r="K8" s="786"/>
+      <c r="C8" s="773"/>
+      <c r="D8" s="773"/>
+      <c r="E8" s="773"/>
+      <c r="F8" s="773"/>
+      <c r="G8" s="773"/>
+      <c r="H8" s="773"/>
+      <c r="I8" s="773"/>
+      <c r="J8" s="773"/>
+      <c r="K8" s="774"/>
     </row>
     <row r="9" spans="1:14" s="162" customFormat="1" ht="2.25" customHeight="1">
       <c r="B9" s="160"/>
@@ -46603,7 +46605,7 @@
       </c>
       <c r="E11" s="390">
         <f ca="1">+'2-Cotización'!H5</f>
-        <v>43042</v>
+        <v>43054</v>
       </c>
       <c r="H11" s="162">
         <f>+'2-Cotización'!G22</f>
@@ -46637,19 +46639,19 @@
     <row r="14" spans="1:14" ht="3" customHeight="1"/>
     <row r="15" spans="1:14" ht="12.75">
       <c r="A15" s="620"/>
-      <c r="B15" s="781" t="str">
+      <c r="B15" s="769" t="str">
         <f>IF($B$4="Español","CALCULO DEL DESCUENTO","DISCOUNT CALCULATION")</f>
         <v>CALCULO DEL DESCUENTO</v>
       </c>
-      <c r="C15" s="782"/>
-      <c r="D15" s="782"/>
-      <c r="E15" s="782"/>
-      <c r="F15" s="782"/>
-      <c r="G15" s="782"/>
-      <c r="H15" s="782"/>
-      <c r="I15" s="782"/>
-      <c r="J15" s="782"/>
-      <c r="K15" s="783"/>
+      <c r="C15" s="770"/>
+      <c r="D15" s="770"/>
+      <c r="E15" s="770"/>
+      <c r="F15" s="770"/>
+      <c r="G15" s="770"/>
+      <c r="H15" s="770"/>
+      <c r="I15" s="770"/>
+      <c r="J15" s="770"/>
+      <c r="K15" s="771"/>
       <c r="L15" s="620" t="s">
         <v>129</v>
       </c>
@@ -47476,21 +47478,21 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="63" customHeight="1">
-      <c r="B38" s="778"/>
-      <c r="C38" s="779"/>
-      <c r="D38" s="779"/>
-      <c r="E38" s="779"/>
-      <c r="F38" s="779"/>
-      <c r="G38" s="780"/>
+      <c r="B38" s="766"/>
+      <c r="C38" s="767"/>
+      <c r="D38" s="767"/>
+      <c r="E38" s="767"/>
+      <c r="F38" s="767"/>
+      <c r="G38" s="768"/>
     </row>
     <row r="39" spans="1:14" ht="12.75">
-      <c r="C39" s="787" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="788"/>
-      <c r="E39" s="788"/>
-      <c r="F39" s="788"/>
-      <c r="G39" s="789"/>
+      <c r="C39" s="775" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="776"/>
+      <c r="E39" s="776"/>
+      <c r="F39" s="776"/>
+      <c r="G39" s="777"/>
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="580">
@@ -47499,11 +47501,11 @@
       <c r="D40" s="580">
         <v>0.1</v>
       </c>
-      <c r="E40" s="790" t="s">
+      <c r="E40" s="778" t="s">
         <v>976</v>
       </c>
-      <c r="F40" s="791"/>
-      <c r="G40" s="792"/>
+      <c r="F40" s="779"/>
+      <c r="G40" s="780"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="448">
@@ -47513,11 +47515,11 @@
       <c r="D41" s="448">
         <v>0.2</v>
       </c>
-      <c r="E41" s="790" t="s">
+      <c r="E41" s="778" t="s">
         <v>977</v>
       </c>
-      <c r="F41" s="791"/>
-      <c r="G41" s="792"/>
+      <c r="F41" s="779"/>
+      <c r="G41" s="780"/>
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="448">
@@ -47527,11 +47529,11 @@
       <c r="D42" s="448">
         <v>0.5</v>
       </c>
-      <c r="E42" s="790" t="s">
+      <c r="E42" s="778" t="s">
         <v>978</v>
       </c>
-      <c r="F42" s="791"/>
-      <c r="G42" s="792"/>
+      <c r="F42" s="779"/>
+      <c r="G42" s="780"/>
     </row>
     <row r="43" spans="1:14">
       <c r="C43" s="448">
@@ -47540,24 +47542,24 @@
       <c r="D43" s="448">
         <v>1</v>
       </c>
-      <c r="E43" s="790" t="s">
+      <c r="E43" s="778" t="s">
         <v>387</v>
       </c>
-      <c r="F43" s="791"/>
-      <c r="G43" s="792"/>
+      <c r="F43" s="779"/>
+      <c r="G43" s="780"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="714" t="s">
+      <c r="B44" s="702" t="s">
         <v>956</v>
       </c>
-      <c r="C44" s="714"/>
-      <c r="D44" s="714"/>
-      <c r="E44" s="714"/>
-      <c r="F44" s="714"/>
-      <c r="G44" s="714"/>
-      <c r="H44" s="714"/>
-      <c r="I44" s="714"/>
-      <c r="J44" s="714"/>
+      <c r="C44" s="702"/>
+      <c r="D44" s="702"/>
+      <c r="E44" s="702"/>
+      <c r="F44" s="702"/>
+      <c r="G44" s="702"/>
+      <c r="H44" s="702"/>
+      <c r="I44" s="702"/>
+      <c r="J44" s="702"/>
     </row>
     <row r="46" spans="1:14">
       <c r="B46" s="157" t="s">
@@ -47647,19 +47649,19 @@
       <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:21" s="67" customFormat="1" ht="12.75">
-      <c r="A3" s="793">
+      <c r="A3" s="781">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B3" s="794"/>
-      <c r="C3" s="794"/>
-      <c r="D3" s="794"/>
-      <c r="E3" s="794"/>
-      <c r="F3" s="794"/>
-      <c r="G3" s="794"/>
-      <c r="H3" s="794"/>
-      <c r="I3" s="794"/>
-      <c r="J3" s="795"/>
+      <c r="B3" s="782"/>
+      <c r="C3" s="782"/>
+      <c r="D3" s="782"/>
+      <c r="E3" s="782"/>
+      <c r="F3" s="782"/>
+      <c r="G3" s="782"/>
+      <c r="H3" s="782"/>
+      <c r="I3" s="782"/>
+      <c r="J3" s="783"/>
     </row>
     <row r="4" spans="1:21" s="162" customFormat="1" ht="4.5" customHeight="1">
       <c r="A4" s="160"/>
@@ -47738,11 +47740,11 @@
       <c r="A11" s="167" t="s">
         <v>536</v>
       </c>
-      <c r="B11" s="796" t="s">
+      <c r="B11" s="784" t="s">
         <v>659</v>
       </c>
-      <c r="C11" s="797"/>
-      <c r="D11" s="798"/>
+      <c r="C11" s="785"/>
+      <c r="D11" s="786"/>
       <c r="E11" s="167" t="s">
         <v>878</v>
       </c>
@@ -49845,30 +49847,30 @@
       <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="67" customFormat="1">
-      <c r="A4" s="794">
+      <c r="A4" s="782">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B4" s="794"/>
-      <c r="C4" s="794"/>
-      <c r="D4" s="794"/>
-      <c r="E4" s="794"/>
-      <c r="F4" s="794"/>
-      <c r="G4" s="794"/>
-      <c r="H4" s="794"/>
-      <c r="I4" s="794"/>
-      <c r="J4" s="794"/>
-      <c r="K4" s="794"/>
-      <c r="L4" s="794"/>
-      <c r="M4" s="794"/>
-      <c r="N4" s="794"/>
-      <c r="O4" s="794"/>
-      <c r="P4" s="794"/>
-      <c r="Q4" s="794"/>
-      <c r="R4" s="794"/>
-      <c r="S4" s="794"/>
-      <c r="T4" s="794"/>
-      <c r="U4" s="794"/>
+      <c r="B4" s="782"/>
+      <c r="C4" s="782"/>
+      <c r="D4" s="782"/>
+      <c r="E4" s="782"/>
+      <c r="F4" s="782"/>
+      <c r="G4" s="782"/>
+      <c r="H4" s="782"/>
+      <c r="I4" s="782"/>
+      <c r="J4" s="782"/>
+      <c r="K4" s="782"/>
+      <c r="L4" s="782"/>
+      <c r="M4" s="782"/>
+      <c r="N4" s="782"/>
+      <c r="O4" s="782"/>
+      <c r="P4" s="782"/>
+      <c r="Q4" s="782"/>
+      <c r="R4" s="782"/>
+      <c r="S4" s="782"/>
+      <c r="T4" s="782"/>
+      <c r="U4" s="782"/>
     </row>
     <row r="5" spans="1:25" s="162" customFormat="1" ht="4.5" customHeight="1">
       <c r="A5" s="160"/>
@@ -49906,28 +49908,28 @@
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:25" s="162" customFormat="1" ht="11.25">
-      <c r="A8" s="809"/>
-      <c r="B8" s="809"/>
-      <c r="C8" s="809"/>
-      <c r="D8" s="809"/>
-      <c r="E8" s="805" t="str">
+      <c r="A8" s="797"/>
+      <c r="B8" s="797"/>
+      <c r="C8" s="797"/>
+      <c r="D8" s="797"/>
+      <c r="E8" s="793" t="str">
         <f ca="1">+C73</f>
         <v/>
       </c>
-      <c r="F8" s="806"/>
+      <c r="F8" s="794"/>
       <c r="G8" s="161"/>
       <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:25" s="162" customFormat="1" ht="11.25">
-      <c r="A9" s="809" t="str">
+      <c r="A9" s="797" t="str">
         <f>+C80</f>
         <v/>
       </c>
-      <c r="B9" s="809"/>
-      <c r="C9" s="809"/>
-      <c r="D9" s="809"/>
-      <c r="E9" s="807"/>
-      <c r="F9" s="808"/>
+      <c r="B9" s="797"/>
+      <c r="C9" s="797"/>
+      <c r="D9" s="797"/>
+      <c r="E9" s="795"/>
+      <c r="F9" s="796"/>
       <c r="G9" s="161"/>
       <c r="H9" s="161"/>
     </row>
@@ -49939,35 +49941,35 @@
         <f>'2-Cotización'!G22</f>
         <v>0</v>
       </c>
-      <c r="E10" s="813" t="s">
+      <c r="E10" s="801" t="s">
         <v>874</v>
       </c>
-      <c r="F10" s="814"/>
+      <c r="F10" s="802"/>
       <c r="G10" s="202"/>
       <c r="H10" s="202"/>
-      <c r="I10" s="810" t="s">
+      <c r="I10" s="798" t="s">
         <v>603</v>
       </c>
-      <c r="J10" s="811"/>
-      <c r="K10" s="812"/>
-      <c r="L10" s="810" t="s">
+      <c r="J10" s="799"/>
+      <c r="K10" s="800"/>
+      <c r="L10" s="798" t="s">
         <v>650</v>
       </c>
-      <c r="M10" s="811"/>
-      <c r="N10" s="811"/>
-      <c r="O10" s="812"/>
-      <c r="P10" s="810" t="s">
+      <c r="M10" s="799"/>
+      <c r="N10" s="799"/>
+      <c r="O10" s="800"/>
+      <c r="P10" s="798" t="s">
         <v>607</v>
       </c>
-      <c r="Q10" s="811"/>
-      <c r="R10" s="811"/>
-      <c r="S10" s="811"/>
-      <c r="T10" s="812"/>
-      <c r="V10" s="799" t="s">
+      <c r="Q10" s="799"/>
+      <c r="R10" s="799"/>
+      <c r="S10" s="799"/>
+      <c r="T10" s="800"/>
+      <c r="V10" s="787" t="s">
         <v>97</v>
       </c>
-      <c r="W10" s="800"/>
-      <c r="X10" s="801"/>
+      <c r="W10" s="788"/>
+      <c r="X10" s="789"/>
       <c r="Y10" s="162"/>
     </row>
     <row r="11" spans="1:25" s="204" customFormat="1" ht="56.25">
@@ -54604,10 +54606,10 @@
         <f>+'2-Cotización'!G22</f>
         <v>0</v>
       </c>
-      <c r="C70" s="804" t="s">
+      <c r="C70" s="792" t="s">
         <v>501</v>
       </c>
-      <c r="D70" s="804"/>
+      <c r="D70" s="792"/>
       <c r="E70" s="474">
         <f>SUM(E12:E69)</f>
         <v>0</v>
@@ -54659,10 +54661,10 @@
     <row r="71" spans="1:24" s="212" customFormat="1" ht="13.5" thickTop="1">
       <c r="A71" s="201"/>
       <c r="B71" s="201"/>
-      <c r="C71" s="804" t="s">
+      <c r="C71" s="792" t="s">
         <v>962</v>
       </c>
-      <c r="D71" s="804"/>
+      <c r="D71" s="792"/>
       <c r="E71" s="397"/>
       <c r="F71" s="476">
         <f ca="1">SUM('4b-Venta-Comisión'!E13:E22)</f>
@@ -54804,11 +54806,11 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="12.75" customHeight="1">
-      <c r="C80" s="802" t="str">
+      <c r="C80" s="790" t="str">
         <f>IF(E78&lt;0,"Existe perdida en Subrentas.","")</f>
         <v/>
       </c>
-      <c r="D80" s="803"/>
+      <c r="D80" s="791"/>
       <c r="E80" s="301"/>
     </row>
     <row r="81" spans="1:8" ht="6.75" customHeight="1">
@@ -54821,12 +54823,12 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="157"/>
-      <c r="B85" s="722" t="s">
+      <c r="B85" s="710" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="722"/>
-      <c r="D85" s="722"/>
-      <c r="E85" s="722"/>
+      <c r="C85" s="710"/>
+      <c r="D85" s="710"/>
+      <c r="E85" s="710"/>
       <c r="F85" s="159"/>
       <c r="G85" s="159"/>
       <c r="H85" s="159"/>
@@ -54839,10 +54841,10 @@
       <c r="C86" s="448">
         <v>0.1</v>
       </c>
-      <c r="D86" s="713" t="s">
+      <c r="D86" s="701" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="713"/>
+      <c r="E86" s="701"/>
       <c r="F86" s="159"/>
       <c r="G86" s="159"/>
       <c r="H86" s="159"/>
@@ -54856,10 +54858,10 @@
       <c r="C87" s="448">
         <v>0.25</v>
       </c>
-      <c r="D87" s="713" t="s">
+      <c r="D87" s="701" t="s">
         <v>47</v>
       </c>
-      <c r="E87" s="713"/>
+      <c r="E87" s="701"/>
       <c r="F87" s="159"/>
       <c r="G87" s="159"/>
       <c r="H87" s="159"/>
@@ -54873,10 +54875,10 @@
       <c r="C88" s="448">
         <v>0.35</v>
       </c>
-      <c r="D88" s="713" t="s">
+      <c r="D88" s="701" t="s">
         <v>48</v>
       </c>
-      <c r="E88" s="713"/>
+      <c r="E88" s="701"/>
       <c r="F88" s="159"/>
       <c r="G88" s="159"/>
       <c r="H88" s="159"/>
@@ -54890,25 +54892,25 @@
       <c r="C89" s="448">
         <v>1</v>
       </c>
-      <c r="D89" s="713" t="s">
+      <c r="D89" s="701" t="s">
         <v>976</v>
       </c>
-      <c r="E89" s="713"/>
+      <c r="E89" s="701"/>
       <c r="F89" s="159"/>
       <c r="G89" s="159"/>
       <c r="H89" s="159"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="714" t="s">
+      <c r="A90" s="702" t="s">
         <v>956</v>
       </c>
-      <c r="B90" s="714"/>
-      <c r="C90" s="714"/>
-      <c r="D90" s="714"/>
-      <c r="E90" s="714"/>
-      <c r="F90" s="714"/>
-      <c r="G90" s="714"/>
-      <c r="H90" s="714"/>
+      <c r="B90" s="702"/>
+      <c r="C90" s="702"/>
+      <c r="D90" s="702"/>
+      <c r="E90" s="702"/>
+      <c r="F90" s="702"/>
+      <c r="G90" s="702"/>
+      <c r="H90" s="702"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="157" t="s">
@@ -55035,16 +55037,16 @@
       <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:10" s="67" customFormat="1">
-      <c r="A3" s="794">
+      <c r="A3" s="782">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B3" s="794"/>
-      <c r="C3" s="794"/>
-      <c r="D3" s="794"/>
-      <c r="E3" s="794"/>
-      <c r="F3" s="794"/>
-      <c r="G3" s="794"/>
+      <c r="B3" s="782"/>
+      <c r="C3" s="782"/>
+      <c r="D3" s="782"/>
+      <c r="E3" s="782"/>
+      <c r="F3" s="782"/>
+      <c r="G3" s="782"/>
       <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:10" s="162" customFormat="1" ht="4.5" customHeight="1">
@@ -55093,28 +55095,28 @@
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:10" s="162" customFormat="1">
-      <c r="A8" s="819" t="str">
+      <c r="A8" s="807" t="str">
         <f>IF('2-Cotización'!G22="Dólares","Los importes deben ser capturados en Dolares","Los importes deben ser capturados en Pesos")</f>
         <v>Los importes deben ser capturados en Pesos</v>
       </c>
-      <c r="B8" s="819"/>
-      <c r="C8" s="819"/>
-      <c r="D8" s="819"/>
-      <c r="E8" s="819"/>
-      <c r="F8" s="819"/>
-      <c r="G8" s="819"/>
+      <c r="B8" s="807"/>
+      <c r="C8" s="807"/>
+      <c r="D8" s="807"/>
+      <c r="E8" s="807"/>
+      <c r="F8" s="807"/>
+      <c r="G8" s="807"/>
       <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="815" t="s">
+      <c r="A9" s="803" t="s">
         <v>869</v>
       </c>
-      <c r="B9" s="816"/>
-      <c r="C9" s="816"/>
-      <c r="D9" s="816"/>
-      <c r="E9" s="816"/>
-      <c r="F9" s="816"/>
-      <c r="G9" s="817"/>
+      <c r="B9" s="804"/>
+      <c r="C9" s="804"/>
+      <c r="D9" s="804"/>
+      <c r="E9" s="804"/>
+      <c r="F9" s="804"/>
+      <c r="G9" s="805"/>
       <c r="H9" s="71"/>
       <c r="I9" s="67"/>
     </row>
@@ -55661,15 +55663,15 @@
       <c r="G39" s="347"/>
     </row>
     <row r="40" spans="1:7" s="159" customFormat="1">
-      <c r="A40" s="815" t="s">
+      <c r="A40" s="803" t="s">
         <v>584</v>
       </c>
-      <c r="B40" s="816"/>
-      <c r="C40" s="816"/>
-      <c r="D40" s="816"/>
-      <c r="E40" s="816"/>
-      <c r="F40" s="816"/>
-      <c r="G40" s="817"/>
+      <c r="B40" s="804"/>
+      <c r="C40" s="804"/>
+      <c r="D40" s="804"/>
+      <c r="E40" s="804"/>
+      <c r="F40" s="804"/>
+      <c r="G40" s="805"/>
     </row>
     <row r="41" spans="1:7" s="159" customFormat="1" ht="4.5" customHeight="1">
       <c r="A41" s="343"/>
@@ -55834,15 +55836,15 @@
       <c r="G54" s="348"/>
     </row>
     <row r="55" spans="1:7" s="257" customFormat="1">
-      <c r="A55" s="815" t="s">
+      <c r="A55" s="803" t="s">
         <v>719</v>
       </c>
-      <c r="B55" s="816"/>
-      <c r="C55" s="816"/>
-      <c r="D55" s="816"/>
-      <c r="E55" s="816"/>
-      <c r="F55" s="816"/>
-      <c r="G55" s="817"/>
+      <c r="B55" s="804"/>
+      <c r="C55" s="804"/>
+      <c r="D55" s="804"/>
+      <c r="E55" s="804"/>
+      <c r="F55" s="804"/>
+      <c r="G55" s="805"/>
     </row>
     <row r="56" spans="1:7" s="257" customFormat="1" ht="11.25">
       <c r="D56" s="349"/>
@@ -55956,15 +55958,15 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="815" t="s">
+      <c r="A63" s="803" t="s">
         <v>587</v>
       </c>
-      <c r="B63" s="816"/>
-      <c r="C63" s="816"/>
-      <c r="D63" s="816"/>
-      <c r="E63" s="816"/>
-      <c r="F63" s="816"/>
-      <c r="G63" s="817"/>
+      <c r="B63" s="804"/>
+      <c r="C63" s="804"/>
+      <c r="D63" s="804"/>
+      <c r="E63" s="804"/>
+      <c r="F63" s="804"/>
+      <c r="G63" s="805"/>
     </row>
     <row r="64" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="65" spans="1:7" s="257" customFormat="1" ht="11.25">
@@ -55993,15 +55995,15 @@
       <c r="E66" s="358"/>
     </row>
     <row r="67" spans="1:7" s="257" customFormat="1" ht="11.25">
-      <c r="A67" s="820" t="s">
+      <c r="A67" s="808" t="s">
         <v>854</v>
       </c>
-      <c r="B67" s="820"/>
-      <c r="C67" s="820"/>
-      <c r="D67" s="820"/>
-      <c r="E67" s="820"/>
-      <c r="F67" s="820"/>
-      <c r="G67" s="820"/>
+      <c r="B67" s="808"/>
+      <c r="C67" s="808"/>
+      <c r="D67" s="808"/>
+      <c r="E67" s="808"/>
+      <c r="F67" s="808"/>
+      <c r="G67" s="808"/>
     </row>
     <row r="68" spans="1:7" s="257" customFormat="1" ht="11.25">
       <c r="A68" s="257" t="s">
@@ -56054,15 +56056,15 @@
       <c r="D71" s="349"/>
     </row>
     <row r="72" spans="1:7" s="159" customFormat="1">
-      <c r="A72" s="815" t="s">
+      <c r="A72" s="803" t="s">
         <v>656</v>
       </c>
-      <c r="B72" s="816"/>
-      <c r="C72" s="816"/>
-      <c r="D72" s="816"/>
-      <c r="E72" s="816"/>
-      <c r="F72" s="816"/>
-      <c r="G72" s="817"/>
+      <c r="B72" s="804"/>
+      <c r="C72" s="804"/>
+      <c r="D72" s="804"/>
+      <c r="E72" s="804"/>
+      <c r="F72" s="804"/>
+      <c r="G72" s="805"/>
     </row>
     <row r="73" spans="1:7" s="159" customFormat="1" ht="4.5" customHeight="1">
       <c r="A73" s="343"/>
@@ -56104,8 +56106,8 @@
         <v>537</v>
       </c>
       <c r="B76" s="190"/>
-      <c r="C76" s="823"/>
-      <c r="D76" s="824"/>
+      <c r="C76" s="811"/>
+      <c r="D76" s="812"/>
       <c r="E76" s="340"/>
       <c r="F76" s="345"/>
     </row>
@@ -56114,8 +56116,8 @@
         <v>538</v>
       </c>
       <c r="B77" s="190"/>
-      <c r="C77" s="824"/>
-      <c r="D77" s="824"/>
+      <c r="C77" s="812"/>
+      <c r="D77" s="812"/>
       <c r="E77" s="340"/>
       <c r="F77" s="345"/>
     </row>
@@ -56124,8 +56126,8 @@
         <v>539</v>
       </c>
       <c r="B78" s="190"/>
-      <c r="C78" s="824"/>
-      <c r="D78" s="824"/>
+      <c r="C78" s="812"/>
+      <c r="D78" s="812"/>
       <c r="E78" s="340"/>
       <c r="F78" s="345"/>
     </row>
@@ -56134,8 +56136,8 @@
         <v>540</v>
       </c>
       <c r="B79" s="190"/>
-      <c r="C79" s="824"/>
-      <c r="D79" s="824"/>
+      <c r="C79" s="812"/>
+      <c r="D79" s="812"/>
       <c r="E79" s="340"/>
       <c r="F79" s="345"/>
     </row>
@@ -56144,8 +56146,8 @@
         <v>541</v>
       </c>
       <c r="B80" s="190"/>
-      <c r="C80" s="824"/>
-      <c r="D80" s="824"/>
+      <c r="C80" s="812"/>
+      <c r="D80" s="812"/>
       <c r="E80" s="340"/>
       <c r="F80" s="345"/>
     </row>
@@ -56154,8 +56156,8 @@
         <v>563</v>
       </c>
       <c r="B81" s="190"/>
-      <c r="C81" s="824"/>
-      <c r="D81" s="824"/>
+      <c r="C81" s="812"/>
+      <c r="D81" s="812"/>
       <c r="E81" s="340"/>
       <c r="F81" s="345"/>
     </row>
@@ -56164,8 +56166,8 @@
         <v>564</v>
       </c>
       <c r="B82" s="190"/>
-      <c r="C82" s="824"/>
-      <c r="D82" s="824"/>
+      <c r="C82" s="812"/>
+      <c r="D82" s="812"/>
       <c r="E82" s="340"/>
       <c r="F82" s="345"/>
     </row>
@@ -56174,8 +56176,8 @@
         <v>565</v>
       </c>
       <c r="B83" s="190"/>
-      <c r="C83" s="824"/>
-      <c r="D83" s="824"/>
+      <c r="C83" s="812"/>
+      <c r="D83" s="812"/>
       <c r="E83" s="340"/>
       <c r="F83" s="345">
         <f>'2-Cotización'!G22</f>
@@ -56190,22 +56192,22 @@
       <c r="A84" s="338"/>
       <c r="B84" s="348"/>
       <c r="C84" s="348"/>
-      <c r="D84" s="818"/>
-      <c r="E84" s="818"/>
+      <c r="D84" s="806"/>
+      <c r="E84" s="806"/>
       <c r="F84" s="348"/>
       <c r="G84" s="348"/>
     </row>
     <row r="85" spans="1:7" s="257" customFormat="1" ht="11.25"/>
     <row r="87" spans="1:7">
-      <c r="A87" s="815" t="s">
+      <c r="A87" s="803" t="s">
         <v>395</v>
       </c>
-      <c r="B87" s="816"/>
-      <c r="C87" s="816"/>
-      <c r="D87" s="816"/>
-      <c r="E87" s="816"/>
-      <c r="F87" s="816"/>
-      <c r="G87" s="817"/>
+      <c r="B87" s="804"/>
+      <c r="C87" s="804"/>
+      <c r="D87" s="804"/>
+      <c r="E87" s="804"/>
+      <c r="F87" s="804"/>
+      <c r="G87" s="805"/>
     </row>
     <row r="88" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="89" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
@@ -56606,10 +56608,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="23.25" thickTop="1">
-      <c r="A113" s="821" t="s">
+      <c r="A113" s="809" t="s">
         <v>680</v>
       </c>
-      <c r="B113" s="822"/>
+      <c r="B113" s="810"/>
       <c r="C113" s="337" t="s">
         <v>861</v>
       </c>
@@ -56788,13 +56790,13 @@
         <v>900</v>
       </c>
       <c r="C6" s="306"/>
-      <c r="D6" s="828">
+      <c r="D6" s="816">
         <f>+'2-Cotización'!G10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="829"/>
-      <c r="F6" s="829"/>
-      <c r="G6" s="830"/>
+      <c r="E6" s="817"/>
+      <c r="F6" s="817"/>
+      <c r="G6" s="818"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="624" t="s">
@@ -57459,15 +57461,15 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="825" t="s">
+      <c r="A43" s="813" t="s">
         <v>688</v>
       </c>
-      <c r="B43" s="826"/>
-      <c r="C43" s="826"/>
-      <c r="D43" s="826"/>
-      <c r="E43" s="826"/>
-      <c r="F43" s="826"/>
-      <c r="G43" s="827"/>
+      <c r="B43" s="814"/>
+      <c r="C43" s="814"/>
+      <c r="D43" s="814"/>
+      <c r="E43" s="814"/>
+      <c r="F43" s="814"/>
+      <c r="G43" s="815"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="512" t="s">
@@ -57626,13 +57628,13 @@
         <v>900</v>
       </c>
       <c r="C6" s="306"/>
-      <c r="D6" s="832">
+      <c r="D6" s="820">
         <f>+'2-Cotización'!G10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="833"/>
-      <c r="F6" s="833"/>
-      <c r="G6" s="834"/>
+      <c r="E6" s="821"/>
+      <c r="F6" s="821"/>
+      <c r="G6" s="822"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="624" t="s">
@@ -58297,18 +58299,18 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="825" t="s">
+      <c r="A43" s="813" t="s">
         <v>688</v>
       </c>
-      <c r="B43" s="826"/>
-      <c r="C43" s="826"/>
-      <c r="D43" s="826"/>
-      <c r="E43" s="826"/>
-      <c r="F43" s="826"/>
-      <c r="G43" s="827"/>
+      <c r="B43" s="814"/>
+      <c r="C43" s="814"/>
+      <c r="D43" s="814"/>
+      <c r="E43" s="814"/>
+      <c r="F43" s="814"/>
+      <c r="G43" s="815"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="831">
+      <c r="A44" s="819">
         <v>50004</v>
       </c>
       <c r="B44" s="513" t="s">
@@ -58323,7 +58325,7 @@
       <c r="G44" s="644"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="831"/>
+      <c r="A45" s="819"/>
       <c r="B45" s="513" t="s">
         <v>72</v>
       </c>

--- a/NetCorePSAV/wwwroot/reports/EPTTem.xlsx
+++ b/NetCorePSAV/wwwroot/reports/EPTTem.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guich\OneDrive\Documentos\Visual Studio 2017\Projects\NetCorePSAV\NetCorePSAV\wwwroot\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis\Source\Repos\NetCorePSAV\NetCorePSAV\wwwroot\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65DE794E-E6A0-405E-AD4D-6858A58FFA4E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7500" tabRatio="906" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,9 +20,9 @@
     <sheet name="4b-Venta-Comisión" sheetId="3" r:id="rId5"/>
     <sheet name="5-Subrentas" sheetId="15" r:id="rId6"/>
     <sheet name="6-O.L. and Others" sheetId="19" r:id="rId7"/>
-    <sheet name="A-1 Factura Res. CD" sheetId="24" r:id="rId8"/>
-    <sheet name="A-2 Factura Res. Hotel" sheetId="26" r:id="rId9"/>
-    <sheet name="Detalle Evento" sheetId="27" r:id="rId10"/>
+    <sheet name="A-1 Factura Res. CD" sheetId="24" state="hidden" r:id="rId8"/>
+    <sheet name="A-2 Factura Res. Hotel" sheetId="26" state="hidden" r:id="rId9"/>
+    <sheet name="Detalle Evento" sheetId="27" state="hidden" r:id="rId10"/>
     <sheet name="8-Condicionantes" sheetId="17" state="hidden" r:id="rId11"/>
     <sheet name="9 - Locations" sheetId="18" state="hidden" r:id="rId12"/>
   </sheets>
@@ -81,7 +82,7 @@
     <definedName name="Vendedor">'8-Condicionantes'!$AC$2:$AC$27</definedName>
     <definedName name="VTS">'8-Condicionantes'!$I$2:$I$4</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -6674,523 +6675,6 @@
       <alignment horizontal="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="50" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="50" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="13" fillId="10" borderId="34" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="10" borderId="30" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="86" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -7223,6 +6707,523 @@
     </xf>
     <xf numFmtId="0" fontId="87" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="50" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="50" fillId="5" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="5" borderId="0" xfId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="13" fillId="10" borderId="34" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="10" borderId="30" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="5" borderId="0" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="5" borderId="4" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="29" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -22016,7 +22017,7 @@
       </c>
       <c r="G3" s="415">
         <f ca="1">+'2-Cotización'!H5</f>
-        <v>43054</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="398" customFormat="1" ht="11.25">
@@ -22029,16 +22030,16 @@
       <c r="G4" s="416"/>
     </row>
     <row r="5" spans="1:7" s="398" customFormat="1" ht="11.25">
-      <c r="A5" s="711">
+      <c r="A5" s="716">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B5" s="711"/>
-      <c r="C5" s="711"/>
-      <c r="D5" s="711"/>
-      <c r="E5" s="711"/>
-      <c r="F5" s="711"/>
-      <c r="G5" s="711"/>
+      <c r="B5" s="716"/>
+      <c r="C5" s="716"/>
+      <c r="D5" s="716"/>
+      <c r="E5" s="716"/>
+      <c r="F5" s="716"/>
+      <c r="G5" s="716"/>
     </row>
     <row r="6" spans="1:7" s="162" customFormat="1" ht="3" customHeight="1"/>
     <row r="7" spans="1:7" s="162" customFormat="1" ht="11.25">
@@ -22070,11 +22071,11 @@
       <c r="A9" s="402" t="s">
         <v>534</v>
       </c>
-      <c r="B9" s="709">
+      <c r="B9" s="713">
         <f>+'2-Cotización'!C11</f>
         <v>0</v>
       </c>
-      <c r="C9" s="709"/>
+      <c r="C9" s="713"/>
       <c r="E9" s="403" t="s">
         <v>529</v>
       </c>
@@ -22085,8 +22086,8 @@
     </row>
     <row r="10" spans="1:7" s="162" customFormat="1" ht="12.75" customHeight="1">
       <c r="A10" s="402"/>
-      <c r="B10" s="709"/>
-      <c r="C10" s="709"/>
+      <c r="B10" s="713"/>
+      <c r="C10" s="713"/>
       <c r="E10" s="403" t="s">
         <v>526</v>
       </c>
@@ -22216,28 +22217,28 @@
       <c r="G19" s="292"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="713" t="str">
+      <c r="A20" s="718" t="str">
         <f ca="1">+'4b-Venta-Comisión'!B29</f>
         <v>OK</v>
       </c>
-      <c r="B20" s="713"/>
-      <c r="C20" s="713"/>
-      <c r="D20" s="713"/>
-      <c r="E20" s="714" t="str">
+      <c r="B20" s="718"/>
+      <c r="C20" s="718"/>
+      <c r="D20" s="718"/>
+      <c r="E20" s="719" t="str">
         <f ca="1">+'4b-Venta-Comisión'!I29</f>
         <v>OK</v>
       </c>
-      <c r="F20" s="714"/>
-      <c r="G20" s="714"/>
+      <c r="F20" s="719"/>
+      <c r="G20" s="719"/>
     </row>
     <row r="21" spans="1:7" s="417" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
       <c r="A21" s="75"/>
       <c r="B21" s="75"/>
-      <c r="C21" s="712" t="s">
+      <c r="C21" s="717" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="712"/>
-      <c r="E21" s="712"/>
+      <c r="D21" s="717"/>
+      <c r="E21" s="717"/>
       <c r="F21" s="435" t="s">
         <v>957</v>
       </c>
@@ -22637,11 +22638,11 @@
         <f t="shared" ref="E46:E51" si="1">IF(D46=0,0,(D46/$D$40))</f>
         <v>0</v>
       </c>
-      <c r="F46" s="715" t="str">
+      <c r="F46" s="720" t="str">
         <f>+'5-Subrentas'!A9</f>
         <v/>
       </c>
-      <c r="G46" s="715"/>
+      <c r="G46" s="720"/>
     </row>
     <row r="47" spans="1:7" s="582" customFormat="1" ht="11.25">
       <c r="B47" s="586"/>
@@ -22926,16 +22927,16 @@
       <c r="F72" s="212"/>
     </row>
     <row r="73" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A73" s="703">
+      <c r="A73" s="722">
         <f>+'4a-Venta-Des.'!B38</f>
         <v>0</v>
       </c>
-      <c r="B73" s="704"/>
-      <c r="C73" s="704"/>
-      <c r="D73" s="704"/>
-      <c r="E73" s="704"/>
-      <c r="F73" s="704"/>
-      <c r="G73" s="705"/>
+      <c r="B73" s="723"/>
+      <c r="C73" s="723"/>
+      <c r="D73" s="723"/>
+      <c r="E73" s="723"/>
+      <c r="F73" s="723"/>
+      <c r="G73" s="724"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="420" t="s">
@@ -22949,13 +22950,13 @@
       <c r="G74" s="432"/>
     </row>
     <row r="75" spans="1:7" ht="47.25" customHeight="1">
-      <c r="A75" s="706"/>
-      <c r="B75" s="707"/>
-      <c r="C75" s="707"/>
-      <c r="D75" s="707"/>
-      <c r="E75" s="707"/>
-      <c r="F75" s="707"/>
-      <c r="G75" s="708"/>
+      <c r="A75" s="725"/>
+      <c r="B75" s="726"/>
+      <c r="C75" s="726"/>
+      <c r="D75" s="726"/>
+      <c r="E75" s="726"/>
+      <c r="F75" s="726"/>
+      <c r="G75" s="727"/>
     </row>
     <row r="76" spans="1:7" ht="3.75" customHeight="1">
       <c r="A76" s="399"/>
@@ -22970,12 +22971,12 @@
     <row r="78" spans="1:7" s="417" customFormat="1">
       <c r="A78" s="445"/>
       <c r="B78" s="446"/>
-      <c r="C78" s="710" t="s">
+      <c r="C78" s="715" t="s">
         <v>3</v>
       </c>
-      <c r="D78" s="710"/>
-      <c r="E78" s="710"/>
-      <c r="F78" s="710"/>
+      <c r="D78" s="715"/>
+      <c r="E78" s="715"/>
+      <c r="F78" s="715"/>
     </row>
     <row r="79" spans="1:7" s="417" customFormat="1">
       <c r="C79" s="460">
@@ -22984,10 +22985,10 @@
       <c r="D79" s="448">
         <v>0.19989999999999999</v>
       </c>
-      <c r="E79" s="701" t="s">
+      <c r="E79" s="714" t="s">
         <v>2</v>
       </c>
-      <c r="F79" s="701"/>
+      <c r="F79" s="714"/>
       <c r="G79" s="447"/>
     </row>
     <row r="80" spans="1:7" s="417" customFormat="1">
@@ -22997,10 +22998,10 @@
       <c r="D80" s="448">
         <v>0.24990000000000001</v>
       </c>
-      <c r="E80" s="701" t="s">
+      <c r="E80" s="714" t="s">
         <v>1</v>
       </c>
-      <c r="F80" s="701"/>
+      <c r="F80" s="714"/>
       <c r="G80" s="447"/>
     </row>
     <row r="81" spans="1:7" s="417" customFormat="1">
@@ -23010,10 +23011,10 @@
       <c r="D81" s="448">
         <v>0.34989999999999999</v>
       </c>
-      <c r="E81" s="701" t="s">
+      <c r="E81" s="714" t="s">
         <v>978</v>
       </c>
-      <c r="F81" s="701"/>
+      <c r="F81" s="714"/>
       <c r="G81" s="447"/>
     </row>
     <row r="82" spans="1:7" s="417" customFormat="1">
@@ -23023,10 +23024,10 @@
       <c r="D82" s="448">
         <v>0.44990000000000002</v>
       </c>
-      <c r="E82" s="701" t="s">
+      <c r="E82" s="714" t="s">
         <v>977</v>
       </c>
-      <c r="F82" s="701"/>
+      <c r="F82" s="714"/>
       <c r="G82" s="447"/>
     </row>
     <row r="83" spans="1:7" s="417" customFormat="1">
@@ -23036,25 +23037,32 @@
       <c r="D83" s="448">
         <v>1</v>
       </c>
-      <c r="E83" s="701" t="s">
+      <c r="E83" s="714" t="s">
         <v>976</v>
       </c>
-      <c r="F83" s="701"/>
+      <c r="F83" s="714"/>
       <c r="G83" s="447"/>
     </row>
     <row r="84" spans="1:7">
-      <c r="A84" s="702" t="s">
+      <c r="A84" s="721" t="s">
         <v>956</v>
       </c>
-      <c r="B84" s="702"/>
-      <c r="C84" s="702"/>
-      <c r="D84" s="702"/>
-      <c r="E84" s="702"/>
-      <c r="F84" s="702"/>
-      <c r="G84" s="702"/>
+      <c r="B84" s="721"/>
+      <c r="C84" s="721"/>
+      <c r="D84" s="721"/>
+      <c r="E84" s="721"/>
+      <c r="F84" s="721"/>
+      <c r="G84" s="721"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="E83:F83"/>
+    <mergeCell ref="E82:F82"/>
+    <mergeCell ref="A84:G84"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="E81:F81"/>
+    <mergeCell ref="E80:F80"/>
     <mergeCell ref="B9:C10"/>
     <mergeCell ref="E79:F79"/>
     <mergeCell ref="C78:F78"/>
@@ -23063,13 +23071,6 @@
     <mergeCell ref="A20:D20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="F46:G46"/>
-    <mergeCell ref="E83:F83"/>
-    <mergeCell ref="E82:F82"/>
-    <mergeCell ref="A84:G84"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="A75:G75"/>
-    <mergeCell ref="E81:F81"/>
-    <mergeCell ref="E80:F80"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="G79:G83">
@@ -23119,91 +23120,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="827" t="s">
+      <c r="A1" s="839" t="s">
         <v>205</v>
       </c>
-      <c r="B1" s="828"/>
-      <c r="C1" s="828"/>
-      <c r="D1" s="828"/>
-      <c r="E1" s="828"/>
-      <c r="F1" s="829"/>
+      <c r="B1" s="840"/>
+      <c r="C1" s="840"/>
+      <c r="D1" s="840"/>
+      <c r="E1" s="840"/>
+      <c r="F1" s="841"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="830"/>
-      <c r="B2" s="831"/>
-      <c r="C2" s="831"/>
-      <c r="D2" s="831"/>
-      <c r="E2" s="831"/>
-      <c r="F2" s="832"/>
+      <c r="A2" s="842"/>
+      <c r="B2" s="843"/>
+      <c r="C2" s="843"/>
+      <c r="D2" s="843"/>
+      <c r="E2" s="843"/>
+      <c r="F2" s="844"/>
     </row>
     <row r="4" spans="1:6" ht="15.75">
-      <c r="A4" s="833" t="s">
+      <c r="A4" s="845" t="s">
         <v>695</v>
       </c>
-      <c r="B4" s="834"/>
-      <c r="C4" s="834"/>
-      <c r="D4" s="834"/>
-      <c r="E4" s="834"/>
+      <c r="B4" s="846"/>
+      <c r="C4" s="846"/>
+      <c r="D4" s="846"/>
+      <c r="E4" s="846"/>
       <c r="F4" s="661"/>
     </row>
     <row r="5" spans="1:6" ht="15.75">
-      <c r="A5" s="823" t="s">
+      <c r="A5" s="835" t="s">
         <v>689</v>
       </c>
-      <c r="B5" s="824"/>
-      <c r="C5" s="824"/>
-      <c r="D5" s="824"/>
-      <c r="E5" s="824"/>
+      <c r="B5" s="836"/>
+      <c r="C5" s="836"/>
+      <c r="D5" s="836"/>
+      <c r="E5" s="836"/>
       <c r="F5" s="662"/>
     </row>
     <row r="6" spans="1:6" ht="15.75">
-      <c r="A6" s="823" t="s">
+      <c r="A6" s="835" t="s">
         <v>691</v>
       </c>
-      <c r="B6" s="824"/>
-      <c r="C6" s="824"/>
-      <c r="D6" s="824"/>
-      <c r="E6" s="824"/>
+      <c r="B6" s="836"/>
+      <c r="C6" s="836"/>
+      <c r="D6" s="836"/>
+      <c r="E6" s="836"/>
       <c r="F6" s="662"/>
     </row>
     <row r="7" spans="1:6" ht="15.75">
-      <c r="A7" s="823" t="s">
+      <c r="A7" s="835" t="s">
         <v>692</v>
       </c>
-      <c r="B7" s="824"/>
-      <c r="C7" s="824"/>
-      <c r="D7" s="824"/>
-      <c r="E7" s="824"/>
+      <c r="B7" s="836"/>
+      <c r="C7" s="836"/>
+      <c r="D7" s="836"/>
+      <c r="E7" s="836"/>
       <c r="F7" s="662"/>
     </row>
     <row r="8" spans="1:6" ht="15.75">
-      <c r="A8" s="823" t="s">
+      <c r="A8" s="835" t="s">
         <v>696</v>
       </c>
-      <c r="B8" s="824"/>
-      <c r="C8" s="824"/>
-      <c r="D8" s="824"/>
-      <c r="E8" s="824"/>
+      <c r="B8" s="836"/>
+      <c r="C8" s="836"/>
+      <c r="D8" s="836"/>
+      <c r="E8" s="836"/>
       <c r="F8" s="662"/>
     </row>
     <row r="9" spans="1:6" ht="15.75">
-      <c r="A9" s="823" t="s">
+      <c r="A9" s="835" t="s">
         <v>697</v>
       </c>
-      <c r="B9" s="824"/>
-      <c r="C9" s="824"/>
-      <c r="D9" s="824"/>
-      <c r="E9" s="824"/>
+      <c r="B9" s="836"/>
+      <c r="C9" s="836"/>
+      <c r="D9" s="836"/>
+      <c r="E9" s="836"/>
       <c r="F9" s="662"/>
     </row>
     <row r="10" spans="1:6" ht="15.75">
-      <c r="A10" s="825" t="s">
+      <c r="A10" s="837" t="s">
         <v>693</v>
       </c>
-      <c r="B10" s="826"/>
-      <c r="C10" s="826"/>
-      <c r="D10" s="826"/>
-      <c r="E10" s="826"/>
+      <c r="B10" s="838"/>
+      <c r="C10" s="838"/>
+      <c r="D10" s="838"/>
+      <c r="E10" s="838"/>
       <c r="F10" s="663"/>
     </row>
     <row r="11" spans="1:6">
@@ -23239,73 +23240,73 @@
       <c r="F14" s="664"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
-      <c r="A15" s="833" t="s">
+      <c r="A15" s="845" t="s">
         <v>698</v>
       </c>
-      <c r="B15" s="834"/>
-      <c r="C15" s="834"/>
-      <c r="D15" s="834"/>
-      <c r="E15" s="834"/>
+      <c r="B15" s="846"/>
+      <c r="C15" s="846"/>
+      <c r="D15" s="846"/>
+      <c r="E15" s="846"/>
       <c r="F15" s="661"/>
     </row>
     <row r="16" spans="1:6" ht="15.75">
-      <c r="A16" s="823" t="s">
+      <c r="A16" s="835" t="s">
         <v>699</v>
       </c>
-      <c r="B16" s="824"/>
-      <c r="C16" s="824"/>
-      <c r="D16" s="824"/>
-      <c r="E16" s="824"/>
+      <c r="B16" s="836"/>
+      <c r="C16" s="836"/>
+      <c r="D16" s="836"/>
+      <c r="E16" s="836"/>
       <c r="F16" s="662"/>
     </row>
     <row r="17" spans="1:6" ht="15.75">
-      <c r="A17" s="823" t="s">
+      <c r="A17" s="835" t="s">
         <v>700</v>
       </c>
-      <c r="B17" s="824"/>
-      <c r="C17" s="824"/>
-      <c r="D17" s="824"/>
-      <c r="E17" s="824"/>
+      <c r="B17" s="836"/>
+      <c r="C17" s="836"/>
+      <c r="D17" s="836"/>
+      <c r="E17" s="836"/>
       <c r="F17" s="662"/>
     </row>
     <row r="18" spans="1:6" ht="15.75">
-      <c r="A18" s="823" t="s">
+      <c r="A18" s="835" t="s">
         <v>701</v>
       </c>
-      <c r="B18" s="824"/>
-      <c r="C18" s="824"/>
-      <c r="D18" s="824"/>
-      <c r="E18" s="824"/>
+      <c r="B18" s="836"/>
+      <c r="C18" s="836"/>
+      <c r="D18" s="836"/>
+      <c r="E18" s="836"/>
       <c r="F18" s="662"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="823" t="s">
+      <c r="A19" s="835" t="s">
         <v>702</v>
       </c>
-      <c r="B19" s="824"/>
-      <c r="C19" s="824"/>
-      <c r="D19" s="824"/>
-      <c r="E19" s="824"/>
+      <c r="B19" s="836"/>
+      <c r="C19" s="836"/>
+      <c r="D19" s="836"/>
+      <c r="E19" s="836"/>
       <c r="F19" s="662"/>
     </row>
     <row r="20" spans="1:6" ht="15.75">
-      <c r="A20" s="823" t="s">
+      <c r="A20" s="835" t="s">
         <v>703</v>
       </c>
-      <c r="B20" s="824"/>
-      <c r="C20" s="824"/>
-      <c r="D20" s="824"/>
-      <c r="E20" s="824"/>
+      <c r="B20" s="836"/>
+      <c r="C20" s="836"/>
+      <c r="D20" s="836"/>
+      <c r="E20" s="836"/>
       <c r="F20" s="662"/>
     </row>
     <row r="21" spans="1:6" ht="15.75">
-      <c r="A21" s="825" t="s">
+      <c r="A21" s="837" t="s">
         <v>704</v>
       </c>
-      <c r="B21" s="826"/>
-      <c r="C21" s="826"/>
-      <c r="D21" s="826"/>
-      <c r="E21" s="826"/>
+      <c r="B21" s="838"/>
+      <c r="C21" s="838"/>
+      <c r="D21" s="838"/>
+      <c r="E21" s="838"/>
       <c r="F21" s="663"/>
     </row>
   </sheetData>
@@ -23441,10 +23442,10 @@
       <c r="T1" s="307" t="s">
         <v>859</v>
       </c>
-      <c r="U1" s="836" t="s">
+      <c r="U1" s="852" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="837"/>
+      <c r="V1" s="853"/>
       <c r="W1" s="450" t="s">
         <v>5</v>
       </c>
@@ -24455,19 +24456,19 @@
       <c r="AH23"/>
     </row>
     <row r="24" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A24" s="835" t="s">
+      <c r="A24" s="851" t="s">
         <v>142</v>
       </c>
-      <c r="B24" s="835"/>
-      <c r="C24" s="835"/>
-      <c r="D24" s="835"/>
-      <c r="E24" s="835"/>
-      <c r="F24" s="835"/>
-      <c r="G24" s="835"/>
-      <c r="H24" s="835"/>
-      <c r="I24" s="835"/>
-      <c r="J24" s="835"/>
-      <c r="K24" s="835"/>
+      <c r="B24" s="851"/>
+      <c r="C24" s="851"/>
+      <c r="D24" s="851"/>
+      <c r="E24" s="851"/>
+      <c r="F24" s="851"/>
+      <c r="G24" s="851"/>
+      <c r="H24" s="851"/>
+      <c r="I24" s="851"/>
+      <c r="J24" s="851"/>
+      <c r="K24" s="851"/>
       <c r="S24" s="561"/>
       <c r="AA24" s="650">
         <v>968</v>
@@ -24486,19 +24487,19 @@
       <c r="AH24"/>
     </row>
     <row r="25" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A25" s="835" t="s">
+      <c r="A25" s="851" t="s">
         <v>879</v>
       </c>
-      <c r="B25" s="835"/>
-      <c r="C25" s="835"/>
-      <c r="D25" s="835"/>
-      <c r="E25" s="835"/>
-      <c r="F25" s="835"/>
-      <c r="G25" s="835"/>
-      <c r="H25" s="835"/>
-      <c r="I25" s="835"/>
-      <c r="J25" s="835"/>
-      <c r="K25" s="835"/>
+      <c r="B25" s="851"/>
+      <c r="C25" s="851"/>
+      <c r="D25" s="851"/>
+      <c r="E25" s="851"/>
+      <c r="F25" s="851"/>
+      <c r="G25" s="851"/>
+      <c r="H25" s="851"/>
+      <c r="I25" s="851"/>
+      <c r="J25" s="851"/>
+      <c r="K25" s="851"/>
       <c r="L25" s="648"/>
       <c r="M25" s="648"/>
       <c r="N25" s="648"/>
@@ -24753,19 +24754,19 @@
       <c r="IV25" s="648"/>
     </row>
     <row r="26" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A26" s="835" t="s">
+      <c r="A26" s="851" t="s">
         <v>134</v>
       </c>
-      <c r="B26" s="835"/>
-      <c r="C26" s="835"/>
-      <c r="D26" s="835"/>
-      <c r="E26" s="835"/>
-      <c r="F26" s="835"/>
-      <c r="G26" s="835"/>
-      <c r="H26" s="835"/>
-      <c r="I26" s="835"/>
-      <c r="J26" s="835"/>
-      <c r="K26" s="835"/>
+      <c r="B26" s="851"/>
+      <c r="C26" s="851"/>
+      <c r="D26" s="851"/>
+      <c r="E26" s="851"/>
+      <c r="F26" s="851"/>
+      <c r="G26" s="851"/>
+      <c r="H26" s="851"/>
+      <c r="I26" s="851"/>
+      <c r="J26" s="851"/>
+      <c r="K26" s="851"/>
       <c r="L26" s="648"/>
       <c r="M26" s="648"/>
       <c r="N26" s="648"/>
@@ -25020,19 +25021,19 @@
       <c r="IV26" s="648"/>
     </row>
     <row r="27" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A27" s="835" t="s">
+      <c r="A27" s="851" t="s">
         <v>135</v>
       </c>
-      <c r="B27" s="835"/>
-      <c r="C27" s="835"/>
-      <c r="D27" s="835"/>
-      <c r="E27" s="835"/>
-      <c r="F27" s="835"/>
-      <c r="G27" s="835"/>
-      <c r="H27" s="835"/>
-      <c r="I27" s="835"/>
-      <c r="J27" s="835"/>
-      <c r="K27" s="835"/>
+      <c r="B27" s="851"/>
+      <c r="C27" s="851"/>
+      <c r="D27" s="851"/>
+      <c r="E27" s="851"/>
+      <c r="F27" s="851"/>
+      <c r="G27" s="851"/>
+      <c r="H27" s="851"/>
+      <c r="I27" s="851"/>
+      <c r="J27" s="851"/>
+      <c r="K27" s="851"/>
       <c r="L27" s="648"/>
       <c r="M27" s="648"/>
       <c r="N27" s="648"/>
@@ -25280,19 +25281,19 @@
       <c r="IV27" s="648"/>
     </row>
     <row r="28" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A28" s="835" t="s">
+      <c r="A28" s="851" t="s">
         <v>136</v>
       </c>
-      <c r="B28" s="835"/>
-      <c r="C28" s="835"/>
-      <c r="D28" s="835"/>
-      <c r="E28" s="835"/>
-      <c r="F28" s="835"/>
-      <c r="G28" s="835"/>
-      <c r="H28" s="835"/>
-      <c r="I28" s="835"/>
-      <c r="J28" s="835"/>
-      <c r="K28" s="835"/>
+      <c r="B28" s="851"/>
+      <c r="C28" s="851"/>
+      <c r="D28" s="851"/>
+      <c r="E28" s="851"/>
+      <c r="F28" s="851"/>
+      <c r="G28" s="851"/>
+      <c r="H28" s="851"/>
+      <c r="I28" s="851"/>
+      <c r="J28" s="851"/>
+      <c r="K28" s="851"/>
       <c r="L28" s="648"/>
       <c r="M28" s="648"/>
       <c r="N28" s="648"/>
@@ -25540,19 +25541,19 @@
       <c r="IV28" s="648"/>
     </row>
     <row r="29" spans="1:256" s="313" customFormat="1" ht="88.5" customHeight="1">
-      <c r="A29" s="835" t="s">
+      <c r="A29" s="851" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="835"/>
-      <c r="C29" s="835"/>
-      <c r="D29" s="835"/>
-      <c r="E29" s="835"/>
-      <c r="F29" s="835"/>
-      <c r="G29" s="835"/>
-      <c r="H29" s="835"/>
-      <c r="I29" s="835"/>
-      <c r="J29" s="835"/>
-      <c r="K29" s="835"/>
+      <c r="B29" s="851"/>
+      <c r="C29" s="851"/>
+      <c r="D29" s="851"/>
+      <c r="E29" s="851"/>
+      <c r="F29" s="851"/>
+      <c r="G29" s="851"/>
+      <c r="H29" s="851"/>
+      <c r="I29" s="851"/>
+      <c r="J29" s="851"/>
+      <c r="K29" s="851"/>
       <c r="L29" s="648"/>
       <c r="M29" s="648"/>
       <c r="N29" s="648"/>
@@ -25800,19 +25801,19 @@
       <c r="IV29" s="648"/>
     </row>
     <row r="30" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A30" s="835" t="s">
+      <c r="A30" s="851" t="s">
         <v>953</v>
       </c>
-      <c r="B30" s="835"/>
-      <c r="C30" s="835"/>
-      <c r="D30" s="835"/>
-      <c r="E30" s="835"/>
-      <c r="F30" s="835"/>
-      <c r="G30" s="835"/>
-      <c r="H30" s="835"/>
-      <c r="I30" s="835"/>
-      <c r="J30" s="835"/>
-      <c r="K30" s="835"/>
+      <c r="B30" s="851"/>
+      <c r="C30" s="851"/>
+      <c r="D30" s="851"/>
+      <c r="E30" s="851"/>
+      <c r="F30" s="851"/>
+      <c r="G30" s="851"/>
+      <c r="H30" s="851"/>
+      <c r="I30" s="851"/>
+      <c r="J30" s="851"/>
+      <c r="K30" s="851"/>
       <c r="L30" s="648"/>
       <c r="M30" s="648"/>
       <c r="N30" s="648"/>
@@ -26060,19 +26061,19 @@
       <c r="IV30" s="648"/>
     </row>
     <row r="31" spans="1:256" s="313" customFormat="1">
-      <c r="A31" s="835" t="s">
+      <c r="A31" s="851" t="s">
         <v>846</v>
       </c>
-      <c r="B31" s="835"/>
-      <c r="C31" s="835"/>
-      <c r="D31" s="835"/>
-      <c r="E31" s="835"/>
-      <c r="F31" s="835"/>
-      <c r="G31" s="835"/>
-      <c r="H31" s="835"/>
-      <c r="I31" s="835"/>
-      <c r="J31" s="835"/>
-      <c r="K31" s="835"/>
+      <c r="B31" s="851"/>
+      <c r="C31" s="851"/>
+      <c r="D31" s="851"/>
+      <c r="E31" s="851"/>
+      <c r="F31" s="851"/>
+      <c r="G31" s="851"/>
+      <c r="H31" s="851"/>
+      <c r="I31" s="851"/>
+      <c r="J31" s="851"/>
+      <c r="K31" s="851"/>
       <c r="L31" s="648"/>
       <c r="M31" s="648"/>
       <c r="N31" s="648"/>
@@ -26320,19 +26321,19 @@
       <c r="IV31" s="648"/>
     </row>
     <row r="32" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A32" s="839" t="s">
+      <c r="A32" s="850" t="s">
         <v>120</v>
       </c>
-      <c r="B32" s="839"/>
-      <c r="C32" s="839"/>
-      <c r="D32" s="839"/>
-      <c r="E32" s="839"/>
-      <c r="F32" s="839"/>
-      <c r="G32" s="839"/>
-      <c r="H32" s="839"/>
-      <c r="I32" s="839"/>
-      <c r="J32" s="839"/>
-      <c r="K32" s="839"/>
+      <c r="B32" s="850"/>
+      <c r="C32" s="850"/>
+      <c r="D32" s="850"/>
+      <c r="E32" s="850"/>
+      <c r="F32" s="850"/>
+      <c r="G32" s="850"/>
+      <c r="H32" s="850"/>
+      <c r="I32" s="850"/>
+      <c r="J32" s="850"/>
+      <c r="K32" s="850"/>
       <c r="S32" s="561"/>
     </row>
     <row r="33" spans="1:256" s="313" customFormat="1">
@@ -26370,35 +26371,35 @@
       <c r="S34" s="561"/>
     </row>
     <row r="35" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A35" s="838" t="s">
+      <c r="A35" s="849" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="838"/>
-      <c r="C35" s="838"/>
-      <c r="D35" s="838"/>
-      <c r="E35" s="838"/>
-      <c r="F35" s="838"/>
-      <c r="G35" s="838"/>
-      <c r="H35" s="838"/>
-      <c r="I35" s="838"/>
-      <c r="J35" s="838"/>
-      <c r="K35" s="838"/>
+      <c r="B35" s="849"/>
+      <c r="C35" s="849"/>
+      <c r="D35" s="849"/>
+      <c r="E35" s="849"/>
+      <c r="F35" s="849"/>
+      <c r="G35" s="849"/>
+      <c r="H35" s="849"/>
+      <c r="I35" s="849"/>
+      <c r="J35" s="849"/>
+      <c r="K35" s="849"/>
       <c r="S35" s="561"/>
     </row>
     <row r="36" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A36" s="838" t="s">
+      <c r="A36" s="849" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="838"/>
-      <c r="C36" s="838"/>
-      <c r="D36" s="838"/>
-      <c r="E36" s="838"/>
-      <c r="F36" s="838"/>
-      <c r="G36" s="838"/>
-      <c r="H36" s="838"/>
-      <c r="I36" s="838"/>
-      <c r="J36" s="838"/>
-      <c r="K36" s="838"/>
+      <c r="B36" s="849"/>
+      <c r="C36" s="849"/>
+      <c r="D36" s="849"/>
+      <c r="E36" s="849"/>
+      <c r="F36" s="849"/>
+      <c r="G36" s="849"/>
+      <c r="H36" s="849"/>
+      <c r="I36" s="849"/>
+      <c r="J36" s="849"/>
+      <c r="K36" s="849"/>
       <c r="L36" s="648"/>
       <c r="M36" s="648"/>
       <c r="N36" s="648"/>
@@ -26646,19 +26647,19 @@
       <c r="IV36" s="648"/>
     </row>
     <row r="37" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A37" s="838" t="s">
+      <c r="A37" s="849" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="838"/>
-      <c r="C37" s="838"/>
-      <c r="D37" s="838"/>
-      <c r="E37" s="838"/>
-      <c r="F37" s="838"/>
-      <c r="G37" s="838"/>
-      <c r="H37" s="838"/>
-      <c r="I37" s="838"/>
-      <c r="J37" s="838"/>
-      <c r="K37" s="838"/>
+      <c r="B37" s="849"/>
+      <c r="C37" s="849"/>
+      <c r="D37" s="849"/>
+      <c r="E37" s="849"/>
+      <c r="F37" s="849"/>
+      <c r="G37" s="849"/>
+      <c r="H37" s="849"/>
+      <c r="I37" s="849"/>
+      <c r="J37" s="849"/>
+      <c r="K37" s="849"/>
       <c r="L37" s="648"/>
       <c r="M37" s="648"/>
       <c r="N37" s="648"/>
@@ -26906,19 +26907,19 @@
       <c r="IV37" s="648"/>
     </row>
     <row r="38" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A38" s="838" t="s">
+      <c r="A38" s="849" t="s">
         <v>123</v>
       </c>
-      <c r="B38" s="838"/>
-      <c r="C38" s="838"/>
-      <c r="D38" s="838"/>
-      <c r="E38" s="838"/>
-      <c r="F38" s="838"/>
-      <c r="G38" s="838"/>
-      <c r="H38" s="838"/>
-      <c r="I38" s="838"/>
-      <c r="J38" s="838"/>
-      <c r="K38" s="838"/>
+      <c r="B38" s="849"/>
+      <c r="C38" s="849"/>
+      <c r="D38" s="849"/>
+      <c r="E38" s="849"/>
+      <c r="F38" s="849"/>
+      <c r="G38" s="849"/>
+      <c r="H38" s="849"/>
+      <c r="I38" s="849"/>
+      <c r="J38" s="849"/>
+      <c r="K38" s="849"/>
       <c r="L38" s="648"/>
       <c r="M38" s="648"/>
       <c r="N38" s="648"/>
@@ -27166,19 +27167,19 @@
       <c r="IV38" s="648"/>
     </row>
     <row r="39" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A39" s="838" t="s">
+      <c r="A39" s="849" t="s">
         <v>124</v>
       </c>
-      <c r="B39" s="838"/>
-      <c r="C39" s="838"/>
-      <c r="D39" s="838"/>
-      <c r="E39" s="838"/>
-      <c r="F39" s="838"/>
-      <c r="G39" s="838"/>
-      <c r="H39" s="838"/>
-      <c r="I39" s="838"/>
-      <c r="J39" s="838"/>
-      <c r="K39" s="838"/>
+      <c r="B39" s="849"/>
+      <c r="C39" s="849"/>
+      <c r="D39" s="849"/>
+      <c r="E39" s="849"/>
+      <c r="F39" s="849"/>
+      <c r="G39" s="849"/>
+      <c r="H39" s="849"/>
+      <c r="I39" s="849"/>
+      <c r="J39" s="849"/>
+      <c r="K39" s="849"/>
       <c r="L39" s="648"/>
       <c r="M39" s="648"/>
       <c r="N39" s="648"/>
@@ -27426,19 +27427,19 @@
       <c r="IV39" s="648"/>
     </row>
     <row r="40" spans="1:256" s="313" customFormat="1" ht="86.25" customHeight="1">
-      <c r="A40" s="838" t="s">
+      <c r="A40" s="849" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="838"/>
-      <c r="C40" s="838"/>
-      <c r="D40" s="838"/>
-      <c r="E40" s="838"/>
-      <c r="F40" s="838"/>
-      <c r="G40" s="838"/>
-      <c r="H40" s="838"/>
-      <c r="I40" s="838"/>
-      <c r="J40" s="838"/>
-      <c r="K40" s="838"/>
+      <c r="B40" s="849"/>
+      <c r="C40" s="849"/>
+      <c r="D40" s="849"/>
+      <c r="E40" s="849"/>
+      <c r="F40" s="849"/>
+      <c r="G40" s="849"/>
+      <c r="H40" s="849"/>
+      <c r="I40" s="849"/>
+      <c r="J40" s="849"/>
+      <c r="K40" s="849"/>
       <c r="L40" s="648"/>
       <c r="M40" s="648"/>
       <c r="N40" s="648"/>
@@ -27686,19 +27687,19 @@
       <c r="IV40" s="648"/>
     </row>
     <row r="41" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A41" s="838" t="s">
+      <c r="A41" s="849" t="s">
         <v>805</v>
       </c>
-      <c r="B41" s="838"/>
-      <c r="C41" s="838"/>
-      <c r="D41" s="838"/>
-      <c r="E41" s="838"/>
-      <c r="F41" s="838"/>
-      <c r="G41" s="838"/>
-      <c r="H41" s="838"/>
-      <c r="I41" s="838"/>
-      <c r="J41" s="838"/>
-      <c r="K41" s="838"/>
+      <c r="B41" s="849"/>
+      <c r="C41" s="849"/>
+      <c r="D41" s="849"/>
+      <c r="E41" s="849"/>
+      <c r="F41" s="849"/>
+      <c r="G41" s="849"/>
+      <c r="H41" s="849"/>
+      <c r="I41" s="849"/>
+      <c r="J41" s="849"/>
+      <c r="K41" s="849"/>
       <c r="L41" s="648"/>
       <c r="M41" s="648"/>
       <c r="N41" s="648"/>
@@ -27946,19 +27947,19 @@
       <c r="IV41" s="648"/>
     </row>
     <row r="42" spans="1:256" s="313" customFormat="1">
-      <c r="A42" s="838" t="s">
+      <c r="A42" s="849" t="s">
         <v>127</v>
       </c>
-      <c r="B42" s="838"/>
-      <c r="C42" s="838"/>
-      <c r="D42" s="838"/>
-      <c r="E42" s="838"/>
-      <c r="F42" s="838"/>
-      <c r="G42" s="838"/>
-      <c r="H42" s="838"/>
-      <c r="I42" s="838"/>
-      <c r="J42" s="838"/>
-      <c r="K42" s="838"/>
+      <c r="B42" s="849"/>
+      <c r="C42" s="849"/>
+      <c r="D42" s="849"/>
+      <c r="E42" s="849"/>
+      <c r="F42" s="849"/>
+      <c r="G42" s="849"/>
+      <c r="H42" s="849"/>
+      <c r="I42" s="849"/>
+      <c r="J42" s="849"/>
+      <c r="K42" s="849"/>
       <c r="L42" s="648"/>
       <c r="M42" s="648"/>
       <c r="N42" s="648"/>
@@ -28206,19 +28207,19 @@
       <c r="IV42" s="648"/>
     </row>
     <row r="43" spans="1:256" s="313" customFormat="1" ht="36" customHeight="1">
-      <c r="A43" s="838" t="s">
+      <c r="A43" s="849" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="838"/>
-      <c r="C43" s="838"/>
-      <c r="D43" s="838"/>
-      <c r="E43" s="838"/>
-      <c r="F43" s="838"/>
-      <c r="G43" s="838"/>
-      <c r="H43" s="838"/>
-      <c r="I43" s="838"/>
-      <c r="J43" s="838"/>
-      <c r="K43" s="838"/>
+      <c r="B43" s="849"/>
+      <c r="C43" s="849"/>
+      <c r="D43" s="849"/>
+      <c r="E43" s="849"/>
+      <c r="F43" s="849"/>
+      <c r="G43" s="849"/>
+      <c r="H43" s="849"/>
+      <c r="I43" s="849"/>
+      <c r="J43" s="849"/>
+      <c r="K43" s="849"/>
       <c r="L43" s="648"/>
       <c r="M43" s="648"/>
       <c r="N43" s="648"/>
@@ -28508,19 +28509,19 @@
       <c r="S46" s="561"/>
     </row>
     <row r="47" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A47" s="840" t="s">
+      <c r="A47" s="848" t="s">
         <v>559</v>
       </c>
-      <c r="B47" s="840"/>
-      <c r="C47" s="840"/>
-      <c r="D47" s="840"/>
-      <c r="E47" s="840"/>
-      <c r="F47" s="840"/>
-      <c r="G47" s="840"/>
-      <c r="H47" s="840"/>
-      <c r="I47" s="840"/>
-      <c r="J47" s="840"/>
-      <c r="K47" s="840"/>
+      <c r="B47" s="848"/>
+      <c r="C47" s="848"/>
+      <c r="D47" s="848"/>
+      <c r="E47" s="848"/>
+      <c r="F47" s="848"/>
+      <c r="G47" s="848"/>
+      <c r="H47" s="848"/>
+      <c r="I47" s="848"/>
+      <c r="J47" s="848"/>
+      <c r="K47" s="848"/>
       <c r="S47" s="561"/>
     </row>
     <row r="48" spans="1:256" s="313" customFormat="1">
@@ -28538,35 +28539,35 @@
       <c r="S48" s="561"/>
     </row>
     <row r="49" spans="1:256" s="313" customFormat="1" ht="87.75" customHeight="1">
-      <c r="A49" s="840" t="s">
+      <c r="A49" s="848" t="s">
         <v>556</v>
       </c>
-      <c r="B49" s="840"/>
-      <c r="C49" s="840"/>
-      <c r="D49" s="840"/>
-      <c r="E49" s="840"/>
-      <c r="F49" s="840"/>
-      <c r="G49" s="840"/>
-      <c r="H49" s="840"/>
-      <c r="I49" s="840"/>
-      <c r="J49" s="840"/>
-      <c r="K49" s="840"/>
+      <c r="B49" s="848"/>
+      <c r="C49" s="848"/>
+      <c r="D49" s="848"/>
+      <c r="E49" s="848"/>
+      <c r="F49" s="848"/>
+      <c r="G49" s="848"/>
+      <c r="H49" s="848"/>
+      <c r="I49" s="848"/>
+      <c r="J49" s="848"/>
+      <c r="K49" s="848"/>
       <c r="S49" s="561"/>
     </row>
     <row r="50" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A50" s="840" t="s">
+      <c r="A50" s="848" t="s">
         <v>549</v>
       </c>
-      <c r="B50" s="840"/>
-      <c r="C50" s="840"/>
-      <c r="D50" s="840"/>
-      <c r="E50" s="840"/>
-      <c r="F50" s="840"/>
-      <c r="G50" s="840"/>
-      <c r="H50" s="840"/>
-      <c r="I50" s="840"/>
-      <c r="J50" s="840"/>
-      <c r="K50" s="840"/>
+      <c r="B50" s="848"/>
+      <c r="C50" s="848"/>
+      <c r="D50" s="848"/>
+      <c r="E50" s="848"/>
+      <c r="F50" s="848"/>
+      <c r="G50" s="848"/>
+      <c r="H50" s="848"/>
+      <c r="I50" s="848"/>
+      <c r="J50" s="848"/>
+      <c r="K50" s="848"/>
       <c r="L50" s="648"/>
       <c r="M50" s="648"/>
       <c r="N50" s="648"/>
@@ -28814,19 +28815,19 @@
       <c r="IV50" s="648"/>
     </row>
     <row r="51" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A51" s="840" t="s">
+      <c r="A51" s="848" t="s">
         <v>551</v>
       </c>
-      <c r="B51" s="840"/>
-      <c r="C51" s="840"/>
-      <c r="D51" s="840"/>
-      <c r="E51" s="840"/>
-      <c r="F51" s="840"/>
-      <c r="G51" s="840"/>
-      <c r="H51" s="840"/>
-      <c r="I51" s="840"/>
-      <c r="J51" s="840"/>
-      <c r="K51" s="840"/>
+      <c r="B51" s="848"/>
+      <c r="C51" s="848"/>
+      <c r="D51" s="848"/>
+      <c r="E51" s="848"/>
+      <c r="F51" s="848"/>
+      <c r="G51" s="848"/>
+      <c r="H51" s="848"/>
+      <c r="I51" s="848"/>
+      <c r="J51" s="848"/>
+      <c r="K51" s="848"/>
       <c r="L51" s="648"/>
       <c r="M51" s="648"/>
       <c r="N51" s="648"/>
@@ -29074,19 +29075,19 @@
       <c r="IV51" s="648"/>
     </row>
     <row r="52" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A52" s="840" t="s">
+      <c r="A52" s="848" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="840"/>
-      <c r="C52" s="840"/>
-      <c r="D52" s="840"/>
-      <c r="E52" s="840"/>
-      <c r="F52" s="840"/>
-      <c r="G52" s="840"/>
-      <c r="H52" s="840"/>
-      <c r="I52" s="840"/>
-      <c r="J52" s="840"/>
-      <c r="K52" s="840"/>
+      <c r="B52" s="848"/>
+      <c r="C52" s="848"/>
+      <c r="D52" s="848"/>
+      <c r="E52" s="848"/>
+      <c r="F52" s="848"/>
+      <c r="G52" s="848"/>
+      <c r="H52" s="848"/>
+      <c r="I52" s="848"/>
+      <c r="J52" s="848"/>
+      <c r="K52" s="848"/>
       <c r="L52" s="648"/>
       <c r="M52" s="648"/>
       <c r="N52" s="648"/>
@@ -29334,19 +29335,19 @@
       <c r="IV52" s="648"/>
     </row>
     <row r="53" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A53" s="840" t="s">
+      <c r="A53" s="848" t="s">
         <v>550</v>
       </c>
-      <c r="B53" s="840"/>
-      <c r="C53" s="840"/>
-      <c r="D53" s="840"/>
-      <c r="E53" s="840"/>
-      <c r="F53" s="840"/>
-      <c r="G53" s="840"/>
-      <c r="H53" s="840"/>
-      <c r="I53" s="840"/>
-      <c r="J53" s="840"/>
-      <c r="K53" s="840"/>
+      <c r="B53" s="848"/>
+      <c r="C53" s="848"/>
+      <c r="D53" s="848"/>
+      <c r="E53" s="848"/>
+      <c r="F53" s="848"/>
+      <c r="G53" s="848"/>
+      <c r="H53" s="848"/>
+      <c r="I53" s="848"/>
+      <c r="J53" s="848"/>
+      <c r="K53" s="848"/>
       <c r="L53" s="648"/>
       <c r="M53" s="648"/>
       <c r="N53" s="648"/>
@@ -29594,19 +29595,19 @@
       <c r="IV53" s="648"/>
     </row>
     <row r="54" spans="1:256" s="313" customFormat="1" ht="63" customHeight="1">
-      <c r="A54" s="840" t="s">
+      <c r="A54" s="848" t="s">
         <v>555</v>
       </c>
-      <c r="B54" s="840"/>
-      <c r="C54" s="840"/>
-      <c r="D54" s="840"/>
-      <c r="E54" s="840"/>
-      <c r="F54" s="840"/>
-      <c r="G54" s="840"/>
-      <c r="H54" s="840"/>
-      <c r="I54" s="840"/>
-      <c r="J54" s="840"/>
-      <c r="K54" s="840"/>
+      <c r="B54" s="848"/>
+      <c r="C54" s="848"/>
+      <c r="D54" s="848"/>
+      <c r="E54" s="848"/>
+      <c r="F54" s="848"/>
+      <c r="G54" s="848"/>
+      <c r="H54" s="848"/>
+      <c r="I54" s="848"/>
+      <c r="J54" s="848"/>
+      <c r="K54" s="848"/>
       <c r="L54" s="648"/>
       <c r="M54" s="648"/>
       <c r="N54" s="648"/>
@@ -29854,19 +29855,19 @@
       <c r="IV54" s="648"/>
     </row>
     <row r="55" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A55" s="840" t="s">
+      <c r="A55" s="848" t="s">
         <v>953</v>
       </c>
-      <c r="B55" s="840"/>
-      <c r="C55" s="840"/>
-      <c r="D55" s="840"/>
-      <c r="E55" s="840"/>
-      <c r="F55" s="840"/>
-      <c r="G55" s="840"/>
-      <c r="H55" s="840"/>
-      <c r="I55" s="840"/>
-      <c r="J55" s="840"/>
-      <c r="K55" s="840"/>
+      <c r="B55" s="848"/>
+      <c r="C55" s="848"/>
+      <c r="D55" s="848"/>
+      <c r="E55" s="848"/>
+      <c r="F55" s="848"/>
+      <c r="G55" s="848"/>
+      <c r="H55" s="848"/>
+      <c r="I55" s="848"/>
+      <c r="J55" s="848"/>
+      <c r="K55" s="848"/>
       <c r="L55" s="648"/>
       <c r="M55" s="648"/>
       <c r="N55" s="648"/>
@@ -30114,19 +30115,19 @@
       <c r="IV55" s="648"/>
     </row>
     <row r="56" spans="1:256" s="313" customFormat="1">
-      <c r="A56" s="840" t="s">
+      <c r="A56" s="848" t="s">
         <v>846</v>
       </c>
-      <c r="B56" s="840"/>
-      <c r="C56" s="840"/>
-      <c r="D56" s="840"/>
-      <c r="E56" s="840"/>
-      <c r="F56" s="840"/>
-      <c r="G56" s="840"/>
-      <c r="H56" s="840"/>
-      <c r="I56" s="840"/>
-      <c r="J56" s="840"/>
-      <c r="K56" s="840"/>
+      <c r="B56" s="848"/>
+      <c r="C56" s="848"/>
+      <c r="D56" s="848"/>
+      <c r="E56" s="848"/>
+      <c r="F56" s="848"/>
+      <c r="G56" s="848"/>
+      <c r="H56" s="848"/>
+      <c r="I56" s="848"/>
+      <c r="J56" s="848"/>
+      <c r="K56" s="848"/>
       <c r="L56" s="648"/>
       <c r="M56" s="648"/>
       <c r="N56" s="648"/>
@@ -30388,65 +30389,65 @@
       <c r="S57" s="561"/>
     </row>
     <row r="58" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A58" s="841" t="s">
+      <c r="A58" s="847" t="s">
         <v>560</v>
       </c>
-      <c r="B58" s="841"/>
-      <c r="C58" s="841"/>
-      <c r="D58" s="841"/>
-      <c r="E58" s="841"/>
-      <c r="F58" s="841"/>
-      <c r="G58" s="841"/>
-      <c r="H58" s="841"/>
-      <c r="I58" s="841"/>
-      <c r="J58" s="841"/>
-      <c r="K58" s="841"/>
+      <c r="B58" s="847"/>
+      <c r="C58" s="847"/>
+      <c r="D58" s="847"/>
+      <c r="E58" s="847"/>
+      <c r="F58" s="847"/>
+      <c r="G58" s="847"/>
+      <c r="H58" s="847"/>
+      <c r="I58" s="847"/>
+      <c r="J58" s="847"/>
+      <c r="K58" s="847"/>
       <c r="S58" s="561"/>
     </row>
     <row r="59" spans="1:256" s="313" customFormat="1">
-      <c r="A59" s="841"/>
-      <c r="B59" s="841"/>
-      <c r="C59" s="841"/>
-      <c r="D59" s="841"/>
-      <c r="E59" s="841"/>
-      <c r="F59" s="841"/>
-      <c r="G59" s="841"/>
-      <c r="H59" s="841"/>
-      <c r="I59" s="841"/>
-      <c r="J59" s="841"/>
-      <c r="K59" s="841"/>
+      <c r="A59" s="847"/>
+      <c r="B59" s="847"/>
+      <c r="C59" s="847"/>
+      <c r="D59" s="847"/>
+      <c r="E59" s="847"/>
+      <c r="F59" s="847"/>
+      <c r="G59" s="847"/>
+      <c r="H59" s="847"/>
+      <c r="I59" s="847"/>
+      <c r="J59" s="847"/>
+      <c r="K59" s="847"/>
       <c r="S59" s="561"/>
     </row>
     <row r="60" spans="1:256" s="313" customFormat="1" ht="74.25" customHeight="1">
-      <c r="A60" s="841" t="s">
+      <c r="A60" s="847" t="s">
         <v>557</v>
       </c>
-      <c r="B60" s="841"/>
-      <c r="C60" s="841"/>
-      <c r="D60" s="841"/>
-      <c r="E60" s="841"/>
-      <c r="F60" s="841"/>
-      <c r="G60" s="841"/>
-      <c r="H60" s="841"/>
-      <c r="I60" s="841"/>
-      <c r="J60" s="841"/>
-      <c r="K60" s="841"/>
+      <c r="B60" s="847"/>
+      <c r="C60" s="847"/>
+      <c r="D60" s="847"/>
+      <c r="E60" s="847"/>
+      <c r="F60" s="847"/>
+      <c r="G60" s="847"/>
+      <c r="H60" s="847"/>
+      <c r="I60" s="847"/>
+      <c r="J60" s="847"/>
+      <c r="K60" s="847"/>
       <c r="S60" s="561"/>
     </row>
     <row r="61" spans="1:256" s="313" customFormat="1" ht="50.25" customHeight="1">
-      <c r="A61" s="841" t="s">
+      <c r="A61" s="847" t="s">
         <v>553</v>
       </c>
-      <c r="B61" s="841"/>
-      <c r="C61" s="841"/>
-      <c r="D61" s="841"/>
-      <c r="E61" s="841"/>
-      <c r="F61" s="841"/>
-      <c r="G61" s="841"/>
-      <c r="H61" s="841"/>
-      <c r="I61" s="841"/>
-      <c r="J61" s="841"/>
-      <c r="K61" s="841"/>
+      <c r="B61" s="847"/>
+      <c r="C61" s="847"/>
+      <c r="D61" s="847"/>
+      <c r="E61" s="847"/>
+      <c r="F61" s="847"/>
+      <c r="G61" s="847"/>
+      <c r="H61" s="847"/>
+      <c r="I61" s="847"/>
+      <c r="J61" s="847"/>
+      <c r="K61" s="847"/>
       <c r="L61" s="648"/>
       <c r="M61" s="648"/>
       <c r="N61" s="648"/>
@@ -30694,19 +30695,19 @@
       <c r="IV61" s="648"/>
     </row>
     <row r="62" spans="1:256" s="313" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A62" s="841" t="s">
+      <c r="A62" s="847" t="s">
         <v>552</v>
       </c>
-      <c r="B62" s="841"/>
-      <c r="C62" s="841"/>
-      <c r="D62" s="841"/>
-      <c r="E62" s="841"/>
-      <c r="F62" s="841"/>
-      <c r="G62" s="841"/>
-      <c r="H62" s="841"/>
-      <c r="I62" s="841"/>
-      <c r="J62" s="841"/>
-      <c r="K62" s="841"/>
+      <c r="B62" s="847"/>
+      <c r="C62" s="847"/>
+      <c r="D62" s="847"/>
+      <c r="E62" s="847"/>
+      <c r="F62" s="847"/>
+      <c r="G62" s="847"/>
+      <c r="H62" s="847"/>
+      <c r="I62" s="847"/>
+      <c r="J62" s="847"/>
+      <c r="K62" s="847"/>
       <c r="L62" s="648"/>
       <c r="M62" s="648"/>
       <c r="N62" s="648"/>
@@ -30954,19 +30955,19 @@
       <c r="IV62" s="648"/>
     </row>
     <row r="63" spans="1:256" s="313" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A63" s="841" t="s">
+      <c r="A63" s="847" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="841"/>
-      <c r="C63" s="841"/>
-      <c r="D63" s="841"/>
-      <c r="E63" s="841"/>
-      <c r="F63" s="841"/>
-      <c r="G63" s="841"/>
-      <c r="H63" s="841"/>
-      <c r="I63" s="841"/>
-      <c r="J63" s="841"/>
-      <c r="K63" s="841"/>
+      <c r="B63" s="847"/>
+      <c r="C63" s="847"/>
+      <c r="D63" s="847"/>
+      <c r="E63" s="847"/>
+      <c r="F63" s="847"/>
+      <c r="G63" s="847"/>
+      <c r="H63" s="847"/>
+      <c r="I63" s="847"/>
+      <c r="J63" s="847"/>
+      <c r="K63" s="847"/>
       <c r="L63" s="648"/>
       <c r="M63" s="648"/>
       <c r="N63" s="648"/>
@@ -31214,19 +31215,19 @@
       <c r="IV63" s="648"/>
     </row>
     <row r="64" spans="1:256" s="313" customFormat="1" ht="39" customHeight="1">
-      <c r="A64" s="841" t="s">
+      <c r="A64" s="847" t="s">
         <v>554</v>
       </c>
-      <c r="B64" s="841"/>
-      <c r="C64" s="841"/>
-      <c r="D64" s="841"/>
-      <c r="E64" s="841"/>
-      <c r="F64" s="841"/>
-      <c r="G64" s="841"/>
-      <c r="H64" s="841"/>
-      <c r="I64" s="841"/>
-      <c r="J64" s="841"/>
-      <c r="K64" s="841"/>
+      <c r="B64" s="847"/>
+      <c r="C64" s="847"/>
+      <c r="D64" s="847"/>
+      <c r="E64" s="847"/>
+      <c r="F64" s="847"/>
+      <c r="G64" s="847"/>
+      <c r="H64" s="847"/>
+      <c r="I64" s="847"/>
+      <c r="J64" s="847"/>
+      <c r="K64" s="847"/>
       <c r="L64" s="648"/>
       <c r="M64" s="648"/>
       <c r="N64" s="648"/>
@@ -31474,19 +31475,19 @@
       <c r="IV64" s="648"/>
     </row>
     <row r="65" spans="1:256" s="313" customFormat="1" ht="63" customHeight="1">
-      <c r="A65" s="841" t="s">
+      <c r="A65" s="847" t="s">
         <v>558</v>
       </c>
-      <c r="B65" s="841"/>
-      <c r="C65" s="841"/>
-      <c r="D65" s="841"/>
-      <c r="E65" s="841"/>
-      <c r="F65" s="841"/>
-      <c r="G65" s="841"/>
-      <c r="H65" s="841"/>
-      <c r="I65" s="841"/>
-      <c r="J65" s="841"/>
-      <c r="K65" s="841"/>
+      <c r="B65" s="847"/>
+      <c r="C65" s="847"/>
+      <c r="D65" s="847"/>
+      <c r="E65" s="847"/>
+      <c r="F65" s="847"/>
+      <c r="G65" s="847"/>
+      <c r="H65" s="847"/>
+      <c r="I65" s="847"/>
+      <c r="J65" s="847"/>
+      <c r="K65" s="847"/>
       <c r="L65" s="648"/>
       <c r="M65" s="648"/>
       <c r="N65" s="648"/>
@@ -31734,19 +31735,19 @@
       <c r="IV65" s="648"/>
     </row>
     <row r="66" spans="1:256" s="313" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A66" s="841" t="s">
+      <c r="A66" s="847" t="s">
         <v>805</v>
       </c>
-      <c r="B66" s="841"/>
-      <c r="C66" s="841"/>
-      <c r="D66" s="841"/>
-      <c r="E66" s="841"/>
-      <c r="F66" s="841"/>
-      <c r="G66" s="841"/>
-      <c r="H66" s="841"/>
-      <c r="I66" s="841"/>
-      <c r="J66" s="841"/>
-      <c r="K66" s="841"/>
+      <c r="B66" s="847"/>
+      <c r="C66" s="847"/>
+      <c r="D66" s="847"/>
+      <c r="E66" s="847"/>
+      <c r="F66" s="847"/>
+      <c r="G66" s="847"/>
+      <c r="H66" s="847"/>
+      <c r="I66" s="847"/>
+      <c r="J66" s="847"/>
+      <c r="K66" s="847"/>
       <c r="L66" s="648"/>
       <c r="M66" s="648"/>
       <c r="N66" s="648"/>
@@ -31994,19 +31995,19 @@
       <c r="IV66" s="648"/>
     </row>
     <row r="67" spans="1:256" s="313" customFormat="1">
-      <c r="A67" s="841" t="s">
+      <c r="A67" s="847" t="s">
         <v>127</v>
       </c>
-      <c r="B67" s="841"/>
-      <c r="C67" s="841"/>
-      <c r="D67" s="841"/>
-      <c r="E67" s="841"/>
-      <c r="F67" s="841"/>
-      <c r="G67" s="841"/>
-      <c r="H67" s="841"/>
-      <c r="I67" s="841"/>
-      <c r="J67" s="841"/>
-      <c r="K67" s="841"/>
+      <c r="B67" s="847"/>
+      <c r="C67" s="847"/>
+      <c r="D67" s="847"/>
+      <c r="E67" s="847"/>
+      <c r="F67" s="847"/>
+      <c r="G67" s="847"/>
+      <c r="H67" s="847"/>
+      <c r="I67" s="847"/>
+      <c r="J67" s="847"/>
+      <c r="K67" s="847"/>
       <c r="L67" s="648"/>
       <c r="M67" s="648"/>
       <c r="N67" s="648"/>
@@ -32255,6 +32256,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A27:K27"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:K26"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A32:K32"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A50:K50"/>
     <mergeCell ref="A67:K67"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A59:K59"/>
@@ -32271,28 +32294,6 @@
     <mergeCell ref="A52:K52"/>
     <mergeCell ref="A53:K53"/>
     <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A32:K32"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:K31"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A27:K27"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:K26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -39680,7 +39681,7 @@
       <selection activeCell="A28" sqref="A28:K28"/>
       <selection pane="topRight" activeCell="A28" sqref="A28:K28"/>
       <selection pane="bottomLeft" activeCell="A28" sqref="A28:K28"/>
-      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -39715,7 +39716,7 @@
       </c>
       <c r="H5" s="698">
         <f ca="1">TODAY()</f>
-        <v>43054</v>
+        <v>43277</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="67" customFormat="1">
@@ -39724,13 +39725,13 @@
     </row>
     <row r="7" spans="1:13" s="162" customFormat="1" ht="11.25">
       <c r="A7" s="577"/>
-      <c r="B7" s="731"/>
-      <c r="C7" s="732"/>
-      <c r="D7" s="732"/>
-      <c r="E7" s="732"/>
-      <c r="F7" s="732"/>
-      <c r="G7" s="732"/>
-      <c r="H7" s="733"/>
+      <c r="B7" s="728"/>
+      <c r="C7" s="729"/>
+      <c r="D7" s="729"/>
+      <c r="E7" s="729"/>
+      <c r="F7" s="729"/>
+      <c r="G7" s="729"/>
+      <c r="H7" s="730"/>
     </row>
     <row r="8" spans="1:13" s="67" customFormat="1" ht="3" customHeight="1"/>
     <row r="9" spans="1:13" s="67" customFormat="1">
@@ -39750,24 +39751,24 @@
         <f>IF($A$4="Español","Razón Social:","Company:")</f>
         <v>Razón Social:</v>
       </c>
-      <c r="C10" s="720"/>
-      <c r="D10" s="720"/>
-      <c r="E10" s="720"/>
+      <c r="C10" s="742"/>
+      <c r="D10" s="742"/>
+      <c r="E10" s="742"/>
       <c r="F10" s="67" t="str">
         <f>IF($A$4="Español","Nombre:","Event Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="G10" s="721"/>
-      <c r="H10" s="721"/>
+      <c r="G10" s="735"/>
+      <c r="H10" s="735"/>
     </row>
     <row r="11" spans="1:13" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B11" s="736" t="str">
+      <c r="B11" s="734" t="str">
         <f>IF($A$4="Español","Domicilio Fiscal:","Address:")</f>
         <v>Domicilio Fiscal:</v>
       </c>
-      <c r="C11" s="735"/>
-      <c r="D11" s="735"/>
-      <c r="E11" s="735"/>
+      <c r="C11" s="733"/>
+      <c r="D11" s="733"/>
+      <c r="E11" s="733"/>
       <c r="F11" s="110" t="str">
         <f>IF($A$4="Español","Fecha de Montaje","Set up Date:")</f>
         <v>Fecha de Montaje</v>
@@ -39776,10 +39777,10 @@
       <c r="H11" s="266"/>
     </row>
     <row r="12" spans="1:13" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B12" s="736"/>
-      <c r="C12" s="735"/>
-      <c r="D12" s="735"/>
-      <c r="E12" s="735"/>
+      <c r="B12" s="734"/>
+      <c r="C12" s="733"/>
+      <c r="D12" s="733"/>
+      <c r="E12" s="733"/>
       <c r="F12" s="110" t="str">
         <f>IF($A$4="Español","Hora de Montaje:","Set up Hour:")</f>
         <v>Hora de Montaje:</v>
@@ -39823,8 +39824,8 @@
         <f>IF($A$4="Español","Nombre:","Contact:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="C15" s="721"/>
-      <c r="D15" s="721"/>
+      <c r="C15" s="735"/>
+      <c r="D15" s="735"/>
       <c r="F15" s="110" t="str">
         <f>IF($A$4="Español","Fecha de Inicio:","Start Event Date:")</f>
         <v>Fecha de Inicio:</v>
@@ -39838,8 +39839,8 @@
         <f>IF($A$4="Español","Puesto:","Position:")</f>
         <v>Puesto:</v>
       </c>
-      <c r="C16" s="722"/>
-      <c r="D16" s="722"/>
+      <c r="C16" s="736"/>
+      <c r="D16" s="736"/>
       <c r="E16" s="110"/>
       <c r="F16" s="67" t="str">
         <f>IF($A$4="Español","Hora de Inicio:","Start Event Hour:")</f>
@@ -39889,7 +39890,7 @@
         <f>IF($A$4="Español","Lugar:","Event Location:")</f>
         <v>Lugar:</v>
       </c>
-      <c r="G19" s="722"/>
+      <c r="G19" s="736"/>
       <c r="H19" s="737"/>
     </row>
     <row r="20" spans="2:34" s="67" customFormat="1" ht="12.75" customHeight="1">
@@ -39897,7 +39898,7 @@
         <v>523</v>
       </c>
       <c r="C20" s="114"/>
-      <c r="F20" s="724" t="str">
+      <c r="F20" s="744" t="str">
         <f>IF($A$4="Español","Dirección:","Address:")</f>
         <v>Dirección:</v>
       </c>
@@ -39908,10 +39909,10 @@
       <c r="B21" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="723"/>
-      <c r="D21" s="723"/>
+      <c r="C21" s="743"/>
+      <c r="D21" s="743"/>
       <c r="E21" s="281"/>
-      <c r="F21" s="724"/>
+      <c r="F21" s="744"/>
       <c r="G21" s="738"/>
       <c r="H21" s="738"/>
     </row>
@@ -39940,14 +39941,14 @@
         <f>IF($A$4="Español","Nombre:","Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="C24" s="721"/>
-      <c r="D24" s="721"/>
+      <c r="C24" s="735"/>
+      <c r="D24" s="735"/>
       <c r="F24" s="67" t="str">
         <f>IF($A$4="Español","Nombre:","Name:")</f>
         <v>Nombre:</v>
       </c>
-      <c r="G24" s="721"/>
-      <c r="H24" s="721"/>
+      <c r="G24" s="735"/>
+      <c r="H24" s="735"/>
     </row>
     <row r="25" spans="2:34" s="67" customFormat="1">
       <c r="B25" s="67" t="str">
@@ -39966,14 +39967,14 @@
       <c r="B26" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="723"/>
-      <c r="D26" s="723"/>
+      <c r="C26" s="743"/>
+      <c r="D26" s="743"/>
       <c r="E26" s="285"/>
       <c r="F26" s="112" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="723"/>
-      <c r="H26" s="723"/>
+      <c r="G26" s="743"/>
+      <c r="H26" s="743"/>
     </row>
     <row r="27" spans="2:34" s="67" customFormat="1">
       <c r="B27" s="120" t="str">
@@ -39987,16 +39988,16 @@
       <c r="G27" s="109"/>
     </row>
     <row r="28" spans="2:34" s="69" customFormat="1">
-      <c r="B28" s="717" t="str">
+      <c r="B28" s="740" t="str">
         <f>IF($A$4="Español","Resumen","Summary")</f>
         <v>Resumen</v>
       </c>
-      <c r="C28" s="717"/>
-      <c r="D28" s="717"/>
-      <c r="E28" s="717"/>
-      <c r="F28" s="717"/>
-      <c r="G28" s="717"/>
-      <c r="H28" s="717"/>
+      <c r="C28" s="740"/>
+      <c r="D28" s="740"/>
+      <c r="E28" s="740"/>
+      <c r="F28" s="740"/>
+      <c r="G28" s="740"/>
+      <c r="H28" s="740"/>
       <c r="I28" s="242"/>
     </row>
     <row r="29" spans="2:34" s="67" customFormat="1">
@@ -40018,10 +40019,7 @@
         <f ca="1">+'4b-Venta-Comisión'!F13</f>
         <v>0</v>
       </c>
-      <c r="E30" s="270" t="str">
-        <f ca="1">IF(D42='3-Item List'!G77,"","La cotización no Cuadra con el Item-List, verificar las categorias en la columna I")</f>
-        <v/>
-      </c>
+      <c r="E30" s="270"/>
       <c r="F30" s="270"/>
       <c r="G30" s="270"/>
       <c r="H30" s="270"/>
@@ -40435,22 +40433,22 @@
       <c r="N43" s="125"/>
     </row>
     <row r="44" spans="2:34" s="162" customFormat="1" ht="11.25">
-      <c r="B44" s="725"/>
-      <c r="C44" s="726"/>
-      <c r="D44" s="726"/>
-      <c r="E44" s="726"/>
-      <c r="F44" s="726"/>
-      <c r="G44" s="726"/>
-      <c r="H44" s="727"/>
+      <c r="B44" s="745"/>
+      <c r="C44" s="746"/>
+      <c r="D44" s="746"/>
+      <c r="E44" s="746"/>
+      <c r="F44" s="746"/>
+      <c r="G44" s="746"/>
+      <c r="H44" s="747"/>
     </row>
     <row r="45" spans="2:34" s="162" customFormat="1" ht="11.25">
-      <c r="B45" s="728"/>
-      <c r="C45" s="729"/>
-      <c r="D45" s="729"/>
-      <c r="E45" s="729"/>
-      <c r="F45" s="729"/>
-      <c r="G45" s="729"/>
-      <c r="H45" s="730"/>
+      <c r="B45" s="748"/>
+      <c r="C45" s="749"/>
+      <c r="D45" s="749"/>
+      <c r="E45" s="749"/>
+      <c r="F45" s="749"/>
+      <c r="G45" s="749"/>
+      <c r="H45" s="750"/>
     </row>
     <row r="46" spans="2:34" s="67" customFormat="1" ht="3.75" customHeight="1">
       <c r="B46" s="124"/>
@@ -40459,149 +40457,149 @@
       <c r="N46" s="125"/>
     </row>
     <row r="47" spans="2:34" s="162" customFormat="1" ht="3.75" customHeight="1">
-      <c r="B47" s="734" t="str">
+      <c r="B47" s="732" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A22),CONCATENATE('8-Condicionantes'!A33))</f>
         <v/>
       </c>
-      <c r="C47" s="734"/>
-      <c r="D47" s="734"/>
-      <c r="E47" s="734"/>
-      <c r="F47" s="734"/>
-      <c r="G47" s="734"/>
-      <c r="H47" s="734"/>
+      <c r="C47" s="732"/>
+      <c r="D47" s="732"/>
+      <c r="E47" s="732"/>
+      <c r="F47" s="732"/>
+      <c r="G47" s="732"/>
+      <c r="H47" s="732"/>
       <c r="M47" s="386"/>
       <c r="N47" s="386"/>
     </row>
     <row r="48" spans="2:34" s="162" customFormat="1">
-      <c r="B48" s="719" t="s">
+      <c r="B48" s="731" t="s">
         <v>981</v>
       </c>
-      <c r="C48" s="719"/>
-      <c r="D48" s="719"/>
-      <c r="E48" s="719"/>
-      <c r="F48" s="719"/>
-      <c r="G48" s="719"/>
-      <c r="H48" s="719"/>
+      <c r="C48" s="731"/>
+      <c r="D48" s="731"/>
+      <c r="E48" s="731"/>
+      <c r="F48" s="731"/>
+      <c r="G48" s="731"/>
+      <c r="H48" s="731"/>
       <c r="M48" s="386"/>
       <c r="N48" s="386"/>
     </row>
     <row r="49" spans="1:14" s="257" customFormat="1" ht="64.5" customHeight="1">
-      <c r="B49" s="719" t="str">
+      <c r="B49" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A24),CONCATENATE('8-Condicionantes'!A35))</f>
         <v>1. La presente cotización, será un Contrato de Prestación de Servicios cuando sea aceptada, a través de una firma, por parte del CLIENTE, quien será la persona física o moral a quien está dirigida esta cotización y quien aparece al inicio de la misma, el cual firmará este documento en señal de aceptación, ya sea por parte de su Representante Legal o bien por parte de los factores o dependientes y quien declara que tiene capacidad para celebrar este documento, que su domicilio es el lugar al cual se remitió esta cotización. Presentation Services, S.A. de C.V.  R.F.C. PSE-931116-PLA, declara que es una sociedad Mexicana y que su representante tiene capacidad para firmar este documento a quien se le denominará PRESENTATION SERVICES con domicilio en Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 en la Ciudad de México.  Los precios citados son por día. Cualquier cambio de objetivo, cambio de lugar de los equipos una vez instalados (Presentation Services no será responsable por retrazos generados por cambios) o gastos complementarios, causará una revisión al precio y plazos cotizados.</v>
       </c>
-      <c r="C49" s="719"/>
-      <c r="D49" s="719"/>
-      <c r="E49" s="719"/>
-      <c r="F49" s="719"/>
-      <c r="G49" s="719"/>
-      <c r="H49" s="719"/>
+      <c r="C49" s="731"/>
+      <c r="D49" s="731"/>
+      <c r="E49" s="731"/>
+      <c r="F49" s="731"/>
+      <c r="G49" s="731"/>
+      <c r="H49" s="731"/>
       <c r="I49" s="546"/>
       <c r="M49" s="159"/>
       <c r="N49" s="159"/>
     </row>
     <row r="50" spans="1:14" s="257" customFormat="1" ht="39.75" customHeight="1">
-      <c r="B50" s="719" t="str">
+      <c r="B50" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A25),CONCATENATE('8-Condicionantes'!A36))</f>
         <v xml:space="preserve">2. Este contrato sólo surtirá efectos, si se confirma esta cotización firmando de aceptado el cliente y además hace el pago del porcentaje indicado como anticipo, antes del día fijado como FECHA LIMITE DE PAGO, sin el pago del anticipo y firma de aceptado de este documento Presentation Services, S.A. de C.V., no tendrá ninguna obligación para prestar el servicio. El saldo deberá ser liquidado previo al inicio de la instalación. Sin el pago del saldo no se ejecutará esta cotización, los precios cotizados no incluyen I.V.A. En su caso cualquier saldo no pagado generará un 5% de interés por mora, calculados en forma mensual sobre saldos insolutos si no es pagado en el domicilio de PRESENTATION SERVICES. </v>
       </c>
-      <c r="C50" s="719"/>
-      <c r="D50" s="719"/>
-      <c r="E50" s="719"/>
-      <c r="F50" s="719"/>
-      <c r="G50" s="719"/>
-      <c r="H50" s="719"/>
+      <c r="C50" s="731"/>
+      <c r="D50" s="731"/>
+      <c r="E50" s="731"/>
+      <c r="F50" s="731"/>
+      <c r="G50" s="731"/>
+      <c r="H50" s="731"/>
       <c r="I50" s="546"/>
     </row>
     <row r="51" spans="1:14" s="257" customFormat="1">
-      <c r="B51" s="719" t="str">
+      <c r="B51" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A26),CONCATENATE('8-Condicionantes'!A37))</f>
         <v xml:space="preserve">3. Cualquier pago que se efectúe, deberá ser a favor de Presentation Services, S.A. de C.V. y deberá ser realizado en su domicilio. La mano de obra cotizada es una estimado, se ajustará y calculará al terminar el servicio cotizado. </v>
       </c>
-      <c r="C51" s="719"/>
-      <c r="D51" s="719"/>
-      <c r="E51" s="719"/>
-      <c r="F51" s="719"/>
-      <c r="G51" s="719"/>
-      <c r="H51" s="719"/>
+      <c r="C51" s="731"/>
+      <c r="D51" s="731"/>
+      <c r="E51" s="731"/>
+      <c r="F51" s="731"/>
+      <c r="G51" s="731"/>
+      <c r="H51" s="731"/>
       <c r="I51" s="546"/>
     </row>
     <row r="52" spans="1:14" s="257" customFormat="1">
-      <c r="B52" s="719" t="str">
+      <c r="B52" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A27),CONCATENATE('8-Condicionantes'!A38))</f>
         <v>4. El cliente tramitará y pagará, cualquier tipo de licencia o permiso, incluyendo aportación sindical. La hora técnico cotizada, se calculará y pagará por cada uno de los técnicos utilizados, por cada uno de ellos el cargo deberá de ser mínimo de cuatro horas.</v>
       </c>
-      <c r="C52" s="719"/>
-      <c r="D52" s="719"/>
-      <c r="E52" s="719"/>
-      <c r="F52" s="719"/>
-      <c r="G52" s="719"/>
-      <c r="H52" s="719"/>
+      <c r="C52" s="731"/>
+      <c r="D52" s="731"/>
+      <c r="E52" s="731"/>
+      <c r="F52" s="731"/>
+      <c r="G52" s="731"/>
+      <c r="H52" s="731"/>
       <c r="I52" s="546"/>
     </row>
     <row r="53" spans="1:14" s="257" customFormat="1" ht="30" customHeight="1">
-      <c r="B53" s="719" t="str">
+      <c r="B53" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A28),CONCATENATE('8-Condicionantes'!A39))</f>
         <v>5. En caso de fallas técnicas de algún equipo o parte de mismo, Presentation Services, S.A. de C.V., deducirá la parte proporcional de lo que no funcione y no será causa para que el cliente no efectué el pago total del evento o servicio. En caso de inconformidad el cliente deberá hacerlo por escrito al término del evento y si ésta no existe con acuse de recibo se entenderá que reunió la calidad contratada. Presentation Services, S.A. de C.V. no será responsable ante el caso fortuito o fuerza mayor.</v>
       </c>
-      <c r="C53" s="719"/>
-      <c r="D53" s="719"/>
-      <c r="E53" s="719"/>
-      <c r="F53" s="719"/>
-      <c r="G53" s="719"/>
-      <c r="H53" s="719"/>
+      <c r="C53" s="731"/>
+      <c r="D53" s="731"/>
+      <c r="E53" s="731"/>
+      <c r="F53" s="731"/>
+      <c r="G53" s="731"/>
+      <c r="H53" s="731"/>
       <c r="I53" s="546"/>
     </row>
     <row r="54" spans="1:14" s="257" customFormat="1" ht="69" customHeight="1">
-      <c r="B54" s="719" t="str">
+      <c r="B54" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A29),CONCATENATE('8-Condicionantes'!A40))</f>
         <v>6. En caso de cancelación, deberá hacerse por escrito con acuse de recibo con 48 horas hábiles de anticipación, toda cancelación realizada en ese término,  generará un cargo del 100% del total de la cotización. Independientemente de que el cliente pagará cualquier tipo de gasto económico que se haya realizado para cumplir con esta cotización, los cuales deberán ser debidamente comprobados al cliente. En caso de cancelación Presentation Services podrá utilizar los anticipos pagados por el Cliente para solventar estos gastos emitiendo la respectiva factura que ampare el monto establecido. Todo servicio o equipo adicional para el evento se documentará en hojas de cargo o miscelaneo que formará parte de este instrumento. El cliente será responsable del equipo cuando lo reciba y cuidará de su total integridad y seguridad. En caso de no reintegrarlo despues de terminado el servicio cotizado, generara un cobro proporcional por día de retraso. Se puede confirmar esta cotizacion vía fax, pero siempre en los terminos de estas condiciones.En caso de cancelación en escenografías, deberá hacerse por escrito con acuse de recibo con 7 días hábiles de anticipación. Toda cancelación realizada dentro de los 7 días anteriores a la fecha del evento,  generará un cargo del 100% del total de la cotización.</v>
       </c>
-      <c r="C54" s="719"/>
-      <c r="D54" s="719"/>
-      <c r="E54" s="719"/>
-      <c r="F54" s="719"/>
-      <c r="G54" s="719"/>
-      <c r="H54" s="719"/>
+      <c r="C54" s="731"/>
+      <c r="D54" s="731"/>
+      <c r="E54" s="731"/>
+      <c r="F54" s="731"/>
+      <c r="G54" s="731"/>
+      <c r="H54" s="731"/>
       <c r="I54" s="546"/>
     </row>
     <row r="55" spans="1:14" s="257" customFormat="1" ht="18" customHeight="1">
-      <c r="B55" s="719" t="str">
+      <c r="B55" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A30),CONCATENATE('8-Condicionantes'!A41))</f>
         <v>7. Las partes contratantes en caso de desacuerdo, se someten conforme a las leyes y tribunales de la Ciudad de México, Distrito Federal, renunciando al fuero presente o futuro que pudiere corresponderles en razón de su domicilio.</v>
       </c>
-      <c r="C55" s="719"/>
-      <c r="D55" s="719"/>
-      <c r="E55" s="719"/>
-      <c r="F55" s="719"/>
-      <c r="G55" s="719"/>
-      <c r="H55" s="719"/>
+      <c r="C55" s="731"/>
+      <c r="D55" s="731"/>
+      <c r="E55" s="731"/>
+      <c r="F55" s="731"/>
+      <c r="G55" s="731"/>
+      <c r="H55" s="731"/>
       <c r="I55" s="546"/>
     </row>
     <row r="56" spans="1:14" s="257" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B56" s="719" t="str">
+      <c r="B56" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A31),CONCATENATE('8-Condicionantes'!A42))</f>
         <v>8. El pago del anticipo o firma de la cotización, es la confirmación del evento.</v>
       </c>
-      <c r="C56" s="719"/>
-      <c r="D56" s="719"/>
-      <c r="E56" s="719"/>
-      <c r="F56" s="719"/>
-      <c r="G56" s="719"/>
-      <c r="H56" s="719"/>
+      <c r="C56" s="731"/>
+      <c r="D56" s="731"/>
+      <c r="E56" s="731"/>
+      <c r="F56" s="731"/>
+      <c r="G56" s="731"/>
+      <c r="H56" s="731"/>
       <c r="I56" s="546"/>
     </row>
     <row r="57" spans="1:14" s="257" customFormat="1" ht="36.75" customHeight="1">
-      <c r="B57" s="719" t="str">
+      <c r="B57" s="731" t="str">
         <f>IF($A$4="español",CONCATENATE('8-Condicionantes'!A32),CONCATENATE('8-Condicionantes'!A43))</f>
         <v>9. Autorizo irrevocable y exclusivamente, para todo el mundo y de forma perpetua y gratuita a PRESENTATION SERVICES S.A. DE C.V. y/o sus entidades relacionadas, a utilizar material, fotografías, videos, grabaciones, imagen, apariencia, voz, y/o cualquier otro dato semejante, en relación con la producción, montaje o exhibición del evento, en su totalidad o en parte, por cualquier método y medios de comunicación, sin aviso o compensación para el cliente.                                                                                                                               Acepto___________                      No Acepto___________</v>
       </c>
-      <c r="C57" s="719"/>
-      <c r="D57" s="719"/>
-      <c r="E57" s="719"/>
-      <c r="F57" s="719"/>
-      <c r="G57" s="719"/>
-      <c r="H57" s="719"/>
+      <c r="C57" s="731"/>
+      <c r="D57" s="731"/>
+      <c r="E57" s="731"/>
+      <c r="F57" s="731"/>
+      <c r="G57" s="731"/>
+      <c r="H57" s="731"/>
       <c r="I57" s="546"/>
     </row>
     <row r="58" spans="1:14" s="480" customFormat="1" ht="3.75" customHeight="1">
@@ -40673,7 +40671,7 @@
       <c r="D62" s="669"/>
       <c r="E62" s="552">
         <f ca="1">DAYS360(H5,G11)</f>
-        <v>-42435</v>
+        <v>-42656</v>
       </c>
       <c r="F62" s="458" t="str">
         <f>IF($A$4="Español","Referencia CxC","Reference AR")</f>
@@ -40692,7 +40690,7 @@
       <c r="D63" s="669"/>
       <c r="E63" s="554">
         <f ca="1">+H5+15</f>
-        <v>43069</v>
+        <v>43292</v>
       </c>
       <c r="F63" s="458" t="str">
         <f>IF($A$4="Español","Medio de Cobro:","Method of Payment:")</f>
@@ -40731,16 +40729,16 @@
       <c r="I64" s="141"/>
     </row>
     <row r="65" spans="2:9">
-      <c r="B65" s="718" t="str">
+      <c r="B65" s="741" t="str">
         <f>IF(G64="SI","Para realizar el evento, es necesario cubrir el  50% de anticipo del total de la cotización.",IF(G64="yes","To make the event, it must cover 50% deposit of total quote",0))</f>
         <v>Para realizar el evento, es necesario cubrir el  50% de anticipo del total de la cotización.</v>
       </c>
-      <c r="C65" s="718"/>
-      <c r="D65" s="718"/>
-      <c r="E65" s="718"/>
-      <c r="F65" s="718"/>
-      <c r="G65" s="718"/>
-      <c r="H65" s="718"/>
+      <c r="C65" s="741"/>
+      <c r="D65" s="741"/>
+      <c r="E65" s="741"/>
+      <c r="F65" s="741"/>
+      <c r="G65" s="741"/>
+      <c r="H65" s="741"/>
       <c r="I65" s="148"/>
     </row>
     <row r="66" spans="2:9">
@@ -40875,20 +40873,35 @@
       <c r="H76" s="67"/>
     </row>
     <row r="77" spans="2:9" s="257" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B77" s="716" t="str">
+      <c r="B77" s="739" t="str">
         <f>IF($A$4="Español","Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 en la Ciudad de México. , Tel: (55) 3000.8500,  www.psav.com","PSAV Mexico Corporate Office: Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 México City, CP 11540, Phone +52 55 3000.8500,  www.psav.com")</f>
         <v>Prolongación 5 de Mayo No. 25 Int 1, Col. Parque Industrial Naucalpan, Municipio Naucalpan de Juárez, Estado de México  C.P. 53489 en la Ciudad de México. , Tel: (55) 3000.8500,  www.psav.com</v>
       </c>
-      <c r="C77" s="716"/>
-      <c r="D77" s="716"/>
-      <c r="E77" s="716"/>
-      <c r="F77" s="716"/>
-      <c r="G77" s="716"/>
-      <c r="H77" s="716"/>
+      <c r="C77" s="739"/>
+      <c r="D77" s="739"/>
+      <c r="E77" s="739"/>
+      <c r="F77" s="739"/>
+      <c r="G77" s="739"/>
+      <c r="H77" s="739"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0"/>
   <mergeCells count="30">
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B65:H65"/>
+    <mergeCell ref="B57:H57"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B44:H45"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B56:H56"/>
     <mergeCell ref="B47:H47"/>
@@ -40904,21 +40917,6 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H21"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B65:H65"/>
-    <mergeCell ref="B57:H57"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B44:H45"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D62 E61:F61 G31:G32 G34 G40 H38 B30:B41">
@@ -40980,7 +40978,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="0.7109375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" style="843" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" style="702" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" style="30" customWidth="1"/>
     <col min="5" max="5" width="62.140625" style="30" customWidth="1"/>
@@ -41019,7 +41017,7 @@
       <c r="J1" s="31"/>
     </row>
     <row r="2" spans="2:49" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B2" s="844"/>
+      <c r="B2" s="703"/>
       <c r="J2" s="31"/>
       <c r="N2" s="34"/>
       <c r="Q2" s="34"/>
@@ -41030,7 +41028,7 @@
       <c r="AV2" s="36"/>
     </row>
     <row r="3" spans="2:49" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B3" s="844"/>
+      <c r="B3" s="703"/>
       <c r="G3" s="231"/>
       <c r="J3" s="31"/>
       <c r="N3" s="34"/>
@@ -41042,7 +41040,7 @@
       <c r="AV3" s="36"/>
     </row>
     <row r="4" spans="2:49" s="26" customFormat="1" ht="18.75" customHeight="1">
-      <c r="B4" s="844"/>
+      <c r="B4" s="703"/>
       <c r="G4" s="231"/>
       <c r="J4" s="31"/>
       <c r="N4" s="34"/>
@@ -41054,7 +41052,7 @@
       <c r="AV4" s="36"/>
     </row>
     <row r="5" spans="2:49" s="26" customFormat="1">
-      <c r="B5" s="844"/>
+      <c r="B5" s="703"/>
       <c r="G5" s="231"/>
       <c r="I5" s="37" t="str">
         <f>IF(M6=0,"","Existe error en el equipo faltante de la Columna N")</f>
@@ -41070,7 +41068,7 @@
       <c r="AV5" s="36"/>
     </row>
     <row r="6" spans="2:49" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="844"/>
+      <c r="B6" s="703"/>
       <c r="J6" s="31"/>
       <c r="M6" s="38">
         <f>SUM(M16:M77)</f>
@@ -41085,7 +41083,7 @@
       <c r="AV6" s="36"/>
     </row>
     <row r="7" spans="2:49" s="42" customFormat="1">
-      <c r="B7" s="845"/>
+      <c r="B7" s="704"/>
       <c r="C7" s="39"/>
       <c r="D7" s="39"/>
       <c r="E7" s="39"/>
@@ -41134,92 +41132,92 @@
       <c r="AV7" s="28"/>
     </row>
     <row r="8" spans="2:49" s="26" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B8" s="760">
+      <c r="B8" s="766">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="760"/>
-      <c r="D8" s="760"/>
-      <c r="E8" s="760"/>
-      <c r="F8" s="760"/>
-      <c r="G8" s="760"/>
+      <c r="C8" s="766"/>
+      <c r="D8" s="766"/>
+      <c r="E8" s="766"/>
+      <c r="F8" s="766"/>
+      <c r="G8" s="766"/>
       <c r="H8" s="43"/>
-      <c r="I8" s="764" t="s">
+      <c r="I8" s="775" t="s">
         <v>873</v>
       </c>
       <c r="J8" s="40"/>
       <c r="K8" s="43"/>
-      <c r="L8" s="753" t="s">
+      <c r="L8" s="757" t="s">
         <v>863</v>
       </c>
-      <c r="M8" s="754"/>
+      <c r="M8" s="758"/>
       <c r="N8" s="222"/>
-      <c r="O8" s="753" t="s">
+      <c r="O8" s="757" t="s">
         <v>868</v>
       </c>
-      <c r="P8" s="754"/>
+      <c r="P8" s="758"/>
       <c r="Q8" s="222"/>
-      <c r="R8" s="761" t="s">
+      <c r="R8" s="772" t="s">
         <v>877</v>
       </c>
-      <c r="S8" s="762"/>
-      <c r="T8" s="762"/>
-      <c r="U8" s="762"/>
-      <c r="V8" s="763"/>
+      <c r="S8" s="773"/>
+      <c r="T8" s="773"/>
+      <c r="U8" s="773"/>
+      <c r="V8" s="774"/>
       <c r="W8" s="222"/>
-      <c r="X8" s="739" t="s">
+      <c r="X8" s="767" t="s">
         <v>608</v>
       </c>
-      <c r="Y8" s="740"/>
-      <c r="Z8" s="740"/>
-      <c r="AA8" s="740"/>
-      <c r="AB8" s="740"/>
-      <c r="AC8" s="740"/>
-      <c r="AD8" s="740"/>
-      <c r="AE8" s="740"/>
-      <c r="AF8" s="740"/>
-      <c r="AG8" s="740"/>
-      <c r="AH8" s="740"/>
-      <c r="AI8" s="741"/>
+      <c r="Y8" s="768"/>
+      <c r="Z8" s="768"/>
+      <c r="AA8" s="768"/>
+      <c r="AB8" s="768"/>
+      <c r="AC8" s="768"/>
+      <c r="AD8" s="768"/>
+      <c r="AE8" s="768"/>
+      <c r="AF8" s="768"/>
+      <c r="AG8" s="768"/>
+      <c r="AH8" s="768"/>
+      <c r="AI8" s="769"/>
       <c r="AJ8" s="222"/>
-      <c r="AK8" s="739" t="s">
+      <c r="AK8" s="767" t="s">
         <v>865</v>
       </c>
-      <c r="AL8" s="740"/>
-      <c r="AM8" s="740"/>
-      <c r="AN8" s="740"/>
-      <c r="AO8" s="740"/>
-      <c r="AP8" s="740"/>
-      <c r="AQ8" s="740"/>
-      <c r="AR8" s="740"/>
-      <c r="AS8" s="740"/>
-      <c r="AT8" s="740"/>
-      <c r="AU8" s="740"/>
-      <c r="AV8" s="741"/>
+      <c r="AL8" s="768"/>
+      <c r="AM8" s="768"/>
+      <c r="AN8" s="768"/>
+      <c r="AO8" s="768"/>
+      <c r="AP8" s="768"/>
+      <c r="AQ8" s="768"/>
+      <c r="AR8" s="768"/>
+      <c r="AS8" s="768"/>
+      <c r="AT8" s="768"/>
+      <c r="AU8" s="768"/>
+      <c r="AV8" s="769"/>
     </row>
     <row r="9" spans="2:49" s="26" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B9" s="844"/>
-      <c r="I9" s="765"/>
+      <c r="B9" s="703"/>
+      <c r="I9" s="776"/>
       <c r="J9" s="40"/>
-      <c r="L9" s="755"/>
-      <c r="M9" s="756"/>
+      <c r="L9" s="759"/>
+      <c r="M9" s="760"/>
       <c r="N9" s="223"/>
-      <c r="O9" s="755"/>
-      <c r="P9" s="756"/>
+      <c r="O9" s="759"/>
+      <c r="P9" s="760"/>
       <c r="Q9" s="223"/>
-      <c r="R9" s="747" t="s">
+      <c r="R9" s="755" t="s">
         <v>617</v>
       </c>
-      <c r="S9" s="747" t="s">
+      <c r="S9" s="755" t="s">
         <v>618</v>
       </c>
-      <c r="T9" s="747" t="s">
+      <c r="T9" s="755" t="s">
         <v>619</v>
       </c>
-      <c r="U9" s="749" t="s">
+      <c r="U9" s="753" t="s">
         <v>866</v>
       </c>
-      <c r="V9" s="743" t="s">
+      <c r="V9" s="770" t="s">
         <v>867</v>
       </c>
       <c r="W9" s="223"/>
@@ -41233,52 +41231,52 @@
       <c r="AE9" s="228"/>
       <c r="AF9" s="228"/>
       <c r="AG9" s="229"/>
-      <c r="AH9" s="749" t="s">
+      <c r="AH9" s="753" t="s">
         <v>866</v>
       </c>
-      <c r="AI9" s="743" t="s">
+      <c r="AI9" s="770" t="s">
         <v>867</v>
       </c>
       <c r="AJ9" s="223"/>
-      <c r="AK9" s="745" t="s">
+      <c r="AK9" s="761" t="s">
         <v>690</v>
       </c>
-      <c r="AL9" s="745" t="s">
+      <c r="AL9" s="761" t="s">
         <v>963</v>
       </c>
-      <c r="AM9" s="745" t="s">
+      <c r="AM9" s="761" t="s">
         <v>964</v>
       </c>
-      <c r="AN9" s="745" t="s">
+      <c r="AN9" s="761" t="s">
         <v>965</v>
       </c>
-      <c r="AO9" s="745" t="s">
+      <c r="AO9" s="761" t="s">
         <v>966</v>
       </c>
-      <c r="AP9" s="745" t="s">
+      <c r="AP9" s="761" t="s">
         <v>967</v>
       </c>
-      <c r="AQ9" s="745" t="s">
+      <c r="AQ9" s="761" t="s">
         <v>968</v>
       </c>
-      <c r="AR9" s="745" t="s">
+      <c r="AR9" s="761" t="s">
         <v>969</v>
       </c>
-      <c r="AS9" s="745" t="s">
+      <c r="AS9" s="761" t="s">
         <v>970</v>
       </c>
-      <c r="AT9" s="745" t="s">
+      <c r="AT9" s="761" t="s">
         <v>971</v>
       </c>
-      <c r="AU9" s="749" t="s">
+      <c r="AU9" s="753" t="s">
         <v>866</v>
       </c>
-      <c r="AV9" s="743" t="s">
+      <c r="AV9" s="770" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="10" spans="2:49" s="46" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B10" s="842" t="str">
+      <c r="B10" s="701" t="str">
         <f>IF(I12="español","CLAVE","KEY")</f>
         <v>CLAVE</v>
       </c>
@@ -41321,11 +41319,11 @@
         <v>867</v>
       </c>
       <c r="Q10" s="223"/>
-      <c r="R10" s="748"/>
-      <c r="S10" s="748"/>
-      <c r="T10" s="748"/>
-      <c r="U10" s="750"/>
-      <c r="V10" s="744"/>
+      <c r="R10" s="756"/>
+      <c r="S10" s="756"/>
+      <c r="T10" s="756"/>
+      <c r="U10" s="754"/>
+      <c r="V10" s="771"/>
       <c r="W10" s="223">
         <v>7005</v>
       </c>
@@ -41369,24 +41367,24 @@
         <f>IF(AG9=0,"",VLOOKUP(AG9,'9 - Locations'!$C$6:$K$274,6,0))</f>
         <v/>
       </c>
-      <c r="AH10" s="750"/>
-      <c r="AI10" s="744"/>
+      <c r="AH10" s="754"/>
+      <c r="AI10" s="771"/>
       <c r="AJ10" s="223"/>
-      <c r="AK10" s="746"/>
-      <c r="AL10" s="746"/>
-      <c r="AM10" s="746"/>
-      <c r="AN10" s="746"/>
-      <c r="AO10" s="746"/>
-      <c r="AP10" s="746"/>
-      <c r="AQ10" s="746"/>
-      <c r="AR10" s="746"/>
-      <c r="AS10" s="746"/>
-      <c r="AT10" s="746"/>
-      <c r="AU10" s="750"/>
-      <c r="AV10" s="744"/>
+      <c r="AK10" s="762"/>
+      <c r="AL10" s="762"/>
+      <c r="AM10" s="762"/>
+      <c r="AN10" s="762"/>
+      <c r="AO10" s="762"/>
+      <c r="AP10" s="762"/>
+      <c r="AQ10" s="762"/>
+      <c r="AR10" s="762"/>
+      <c r="AS10" s="762"/>
+      <c r="AT10" s="762"/>
+      <c r="AU10" s="754"/>
+      <c r="AV10" s="771"/>
     </row>
     <row r="11" spans="2:49" s="26" customFormat="1" ht="4.5" customHeight="1">
-      <c r="B11" s="844"/>
+      <c r="B11" s="703"/>
       <c r="J11" s="40"/>
       <c r="N11" s="224"/>
       <c r="Q11" s="224"/>
@@ -41397,14 +41395,14 @@
       <c r="AV11" s="36"/>
     </row>
     <row r="12" spans="2:49" s="48" customFormat="1" ht="15.75">
-      <c r="B12" s="757" t="str">
+      <c r="B12" s="763" t="str">
         <f>IF(I12="español","RENTA DE EQUIPO Y SERVICIOS","AV EQUIPMENT AND SERVICES")</f>
         <v>RENTA DE EQUIPO Y SERVICIOS</v>
       </c>
-      <c r="C12" s="758"/>
-      <c r="D12" s="758"/>
-      <c r="E12" s="758"/>
-      <c r="F12" s="759"/>
+      <c r="C12" s="764"/>
+      <c r="D12" s="764"/>
+      <c r="E12" s="764"/>
+      <c r="F12" s="765"/>
       <c r="G12" s="50">
         <f>'2-Cotización'!G22</f>
         <v>0</v>
@@ -41416,23 +41414,23 @@
       </c>
       <c r="J12" s="40"/>
       <c r="K12" s="47"/>
-      <c r="L12" s="742" t="s">
+      <c r="L12" s="777" t="s">
         <v>872</v>
       </c>
-      <c r="M12" s="742"/>
+      <c r="M12" s="777"/>
       <c r="N12" s="223"/>
-      <c r="O12" s="742" t="s">
+      <c r="O12" s="777" t="s">
         <v>872</v>
       </c>
-      <c r="P12" s="742"/>
+      <c r="P12" s="777"/>
       <c r="Q12" s="223"/>
       <c r="R12" s="26"/>
       <c r="S12" s="26"/>
       <c r="T12" s="26"/>
-      <c r="U12" s="742" t="s">
+      <c r="U12" s="777" t="s">
         <v>872</v>
       </c>
-      <c r="V12" s="742"/>
+      <c r="V12" s="777"/>
       <c r="W12" s="223"/>
       <c r="X12" s="26"/>
       <c r="Y12" s="26"/>
@@ -41444,10 +41442,10 @@
       <c r="AE12" s="26"/>
       <c r="AF12" s="26"/>
       <c r="AG12" s="26"/>
-      <c r="AH12" s="742" t="s">
+      <c r="AH12" s="777" t="s">
         <v>872</v>
       </c>
-      <c r="AI12" s="742"/>
+      <c r="AI12" s="777"/>
       <c r="AJ12" s="223"/>
       <c r="AK12" s="26"/>
       <c r="AL12" s="26"/>
@@ -41459,26 +41457,26 @@
       <c r="AR12" s="26"/>
       <c r="AS12" s="26"/>
       <c r="AT12" s="26"/>
-      <c r="AU12" s="742" t="s">
+      <c r="AU12" s="777" t="s">
         <v>872</v>
       </c>
-      <c r="AV12" s="742"/>
+      <c r="AV12" s="777"/>
       <c r="AW12" s="26"/>
     </row>
     <row r="13" spans="2:49" s="26" customFormat="1" ht="3" customHeight="1">
-      <c r="B13" s="844"/>
+      <c r="B13" s="703"/>
       <c r="J13" s="40"/>
-      <c r="L13" s="742"/>
-      <c r="M13" s="742"/>
+      <c r="L13" s="777"/>
+      <c r="M13" s="777"/>
       <c r="N13" s="225"/>
-      <c r="O13" s="742"/>
-      <c r="P13" s="742"/>
+      <c r="O13" s="777"/>
+      <c r="P13" s="777"/>
       <c r="Q13" s="225"/>
       <c r="R13" s="51"/>
       <c r="S13" s="51"/>
       <c r="T13" s="51"/>
-      <c r="U13" s="742"/>
-      <c r="V13" s="742"/>
+      <c r="U13" s="777"/>
+      <c r="V13" s="777"/>
       <c r="W13" s="225"/>
       <c r="X13" s="51"/>
       <c r="Y13" s="51"/>
@@ -41490,8 +41488,8 @@
       <c r="AE13" s="51"/>
       <c r="AF13" s="51"/>
       <c r="AG13" s="51"/>
-      <c r="AH13" s="742"/>
-      <c r="AI13" s="742"/>
+      <c r="AH13" s="777"/>
+      <c r="AI13" s="777"/>
       <c r="AJ13" s="225"/>
       <c r="AK13" s="51"/>
       <c r="AL13" s="51"/>
@@ -41503,12 +41501,12 @@
       <c r="AR13" s="51"/>
       <c r="AS13" s="51"/>
       <c r="AT13" s="51"/>
-      <c r="AU13" s="742"/>
-      <c r="AV13" s="742"/>
+      <c r="AU13" s="777"/>
+      <c r="AV13" s="777"/>
       <c r="AW13" s="51"/>
     </row>
     <row r="14" spans="2:49" s="26" customFormat="1" ht="4.5" customHeight="1">
-      <c r="B14" s="846"/>
+      <c r="B14" s="705"/>
       <c r="C14" s="49"/>
       <c r="D14" s="49"/>
       <c r="E14" s="49"/>
@@ -41520,7 +41518,7 @@
       <c r="K14" s="49"/>
     </row>
     <row r="15" spans="2:49" ht="4.5" customHeight="1">
-      <c r="B15" s="844"/>
+      <c r="B15" s="703"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
@@ -41535,7 +41533,7 @@
       <c r="AJ15" s="223"/>
     </row>
     <row r="16" spans="2:49" ht="15.75" customHeight="1">
-      <c r="B16" s="847" t="s">
+      <c r="B16" s="706" t="s">
         <v>979</v>
       </c>
       <c r="C16" s="683"/>
@@ -41616,7 +41614,7 @@
       </c>
     </row>
     <row r="17" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B17" s="848" t="s">
+      <c r="B17" s="707" t="s">
         <v>980</v>
       </c>
       <c r="C17" s="685"/>
@@ -41697,7 +41695,7 @@
       </c>
     </row>
     <row r="18" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B18" s="848" t="s">
+      <c r="B18" s="707" t="s">
         <v>700</v>
       </c>
       <c r="C18" s="685"/>
@@ -41778,7 +41776,7 @@
       </c>
     </row>
     <row r="19" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B19" s="848" t="s">
+      <c r="B19" s="707" t="s">
         <v>276</v>
       </c>
       <c r="C19" s="685"/>
@@ -41859,7 +41857,7 @@
       </c>
     </row>
     <row r="20" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B20" s="849" t="s">
+      <c r="B20" s="708" t="s">
         <v>703</v>
       </c>
       <c r="C20" s="688"/>
@@ -41940,7 +41938,7 @@
       </c>
     </row>
     <row r="21" spans="2:48" ht="29.25" customHeight="1">
-      <c r="B21" s="850"/>
+      <c r="B21" s="709"/>
       <c r="C21" s="53"/>
       <c r="D21" s="53"/>
       <c r="E21" s="54"/>
@@ -42022,7 +42020,7 @@
       </c>
     </row>
     <row r="22" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B22" s="851"/>
+      <c r="B22" s="710"/>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
       <c r="E22" s="673"/>
@@ -42104,7 +42102,7 @@
       </c>
     </row>
     <row r="23" spans="2:48" ht="17.25" customHeight="1">
-      <c r="B23" s="851"/>
+      <c r="B23" s="710"/>
       <c r="C23" s="52"/>
       <c r="D23" s="52"/>
       <c r="E23" s="673"/>
@@ -42186,7 +42184,7 @@
       </c>
     </row>
     <row r="24" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B24" s="851"/>
+      <c r="B24" s="710"/>
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="674"/>
@@ -42268,7 +42266,7 @@
       </c>
     </row>
     <row r="25" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B25" s="851"/>
+      <c r="B25" s="710"/>
       <c r="C25" s="53"/>
       <c r="D25" s="53"/>
       <c r="E25" s="674"/>
@@ -42350,7 +42348,7 @@
       </c>
     </row>
     <row r="26" spans="2:48">
-      <c r="B26" s="851"/>
+      <c r="B26" s="710"/>
       <c r="C26" s="53"/>
       <c r="D26" s="53"/>
       <c r="E26" s="693"/>
@@ -42432,7 +42430,7 @@
       </c>
     </row>
     <row r="27" spans="2:48">
-      <c r="B27" s="851"/>
+      <c r="B27" s="710"/>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
       <c r="E27" s="693"/>
@@ -42514,7 +42512,7 @@
       </c>
     </row>
     <row r="28" spans="2:48" ht="24" customHeight="1">
-      <c r="B28" s="850"/>
+      <c r="B28" s="709"/>
       <c r="C28" s="53"/>
       <c r="D28" s="53"/>
       <c r="E28" s="54"/>
@@ -42596,7 +42594,7 @@
       </c>
     </row>
     <row r="29" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B29" s="851"/>
+      <c r="B29" s="710"/>
       <c r="C29" s="53"/>
       <c r="D29" s="53"/>
       <c r="E29" s="673"/>
@@ -42678,7 +42676,7 @@
       </c>
     </row>
     <row r="30" spans="2:48" ht="14.25" customHeight="1">
-      <c r="B30" s="851"/>
+      <c r="B30" s="710"/>
       <c r="C30" s="53"/>
       <c r="D30" s="53"/>
       <c r="E30" s="674"/>
@@ -42760,7 +42758,7 @@
       </c>
     </row>
     <row r="31" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B31" s="851"/>
+      <c r="B31" s="710"/>
       <c r="C31" s="53"/>
       <c r="D31" s="53"/>
       <c r="E31" s="674"/>
@@ -42842,7 +42840,7 @@
       </c>
     </row>
     <row r="32" spans="2:48" ht="15.75" customHeight="1">
-      <c r="B32" s="851"/>
+      <c r="B32" s="710"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="674"/>
@@ -42924,7 +42922,7 @@
       </c>
     </row>
     <row r="33" spans="2:48">
-      <c r="B33" s="851"/>
+      <c r="B33" s="710"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="674"/>
@@ -43006,7 +43004,7 @@
       </c>
     </row>
     <row r="34" spans="2:48" ht="21.75" customHeight="1">
-      <c r="B34" s="850"/>
+      <c r="B34" s="709"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="670"/>
@@ -43088,7 +43086,7 @@
       </c>
     </row>
     <row r="35" spans="2:48" ht="12.75" customHeight="1">
-      <c r="B35" s="851"/>
+      <c r="B35" s="710"/>
       <c r="C35" s="52"/>
       <c r="D35" s="52"/>
       <c r="E35" s="673"/>
@@ -43170,7 +43168,7 @@
       </c>
     </row>
     <row r="36" spans="2:48" ht="12.75" customHeight="1">
-      <c r="B36" s="851"/>
+      <c r="B36" s="710"/>
       <c r="C36" s="52"/>
       <c r="D36" s="52"/>
       <c r="E36" s="673"/>
@@ -43252,7 +43250,7 @@
       </c>
     </row>
     <row r="37" spans="2:48" ht="12.75" customHeight="1">
-      <c r="B37" s="851"/>
+      <c r="B37" s="710"/>
       <c r="C37" s="53"/>
       <c r="D37" s="53"/>
       <c r="E37" s="58"/>
@@ -43334,7 +43332,7 @@
       </c>
     </row>
     <row r="38" spans="2:48" outlineLevel="1">
-      <c r="B38" s="851"/>
+      <c r="B38" s="710"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
       <c r="E38" s="694"/>
@@ -43416,7 +43414,7 @@
       </c>
     </row>
     <row r="39" spans="2:48" outlineLevel="1">
-      <c r="B39" s="851"/>
+      <c r="B39" s="710"/>
       <c r="C39" s="53"/>
       <c r="D39" s="53"/>
       <c r="E39" s="59"/>
@@ -43498,7 +43496,7 @@
       </c>
     </row>
     <row r="40" spans="2:48" outlineLevel="1">
-      <c r="B40" s="851"/>
+      <c r="B40" s="710"/>
       <c r="C40" s="53"/>
       <c r="D40" s="53"/>
       <c r="E40" s="697"/>
@@ -43580,7 +43578,7 @@
       </c>
     </row>
     <row r="41" spans="2:48" outlineLevel="1">
-      <c r="B41" s="851"/>
+      <c r="B41" s="710"/>
       <c r="C41" s="53"/>
       <c r="D41" s="53"/>
       <c r="E41" s="59"/>
@@ -43662,7 +43660,7 @@
       </c>
     </row>
     <row r="42" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B42" s="851"/>
+      <c r="B42" s="710"/>
       <c r="C42" s="53"/>
       <c r="D42" s="53"/>
       <c r="E42" s="59"/>
@@ -43744,7 +43742,7 @@
       </c>
     </row>
     <row r="43" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B43" s="851"/>
+      <c r="B43" s="710"/>
       <c r="C43" s="53"/>
       <c r="D43" s="53"/>
       <c r="E43" s="59"/>
@@ -43826,7 +43824,7 @@
       </c>
     </row>
     <row r="44" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B44" s="851"/>
+      <c r="B44" s="710"/>
       <c r="C44" s="53"/>
       <c r="D44" s="53"/>
       <c r="E44" s="59"/>
@@ -43908,7 +43906,7 @@
       </c>
     </row>
     <row r="45" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B45" s="851"/>
+      <c r="B45" s="710"/>
       <c r="C45" s="53"/>
       <c r="D45" s="53"/>
       <c r="E45" s="59"/>
@@ -43990,7 +43988,7 @@
       </c>
     </row>
     <row r="46" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B46" s="851"/>
+      <c r="B46" s="710"/>
       <c r="C46" s="53"/>
       <c r="D46" s="53"/>
       <c r="E46" s="59"/>
@@ -44072,7 +44070,7 @@
       </c>
     </row>
     <row r="47" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B47" s="851"/>
+      <c r="B47" s="710"/>
       <c r="C47" s="53"/>
       <c r="D47" s="53"/>
       <c r="E47" s="59"/>
@@ -44154,7 +44152,7 @@
       </c>
     </row>
     <row r="48" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B48" s="851"/>
+      <c r="B48" s="710"/>
       <c r="C48" s="53"/>
       <c r="D48" s="53"/>
       <c r="E48" s="59"/>
@@ -44236,7 +44234,7 @@
       </c>
     </row>
     <row r="49" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B49" s="851"/>
+      <c r="B49" s="710"/>
       <c r="C49" s="53"/>
       <c r="D49" s="53"/>
       <c r="E49" s="59"/>
@@ -44318,7 +44316,7 @@
       </c>
     </row>
     <row r="50" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B50" s="851"/>
+      <c r="B50" s="710"/>
       <c r="C50" s="53"/>
       <c r="D50" s="53"/>
       <c r="E50" s="59"/>
@@ -44400,7 +44398,7 @@
       </c>
     </row>
     <row r="51" spans="2:48">
-      <c r="B51" s="851"/>
+      <c r="B51" s="710"/>
       <c r="C51" s="53"/>
       <c r="D51" s="53"/>
       <c r="E51" s="249" t="str">
@@ -44470,7 +44468,7 @@
       </c>
     </row>
     <row r="52" spans="2:48">
-      <c r="B52" s="851"/>
+      <c r="B52" s="710"/>
       <c r="C52" s="53"/>
       <c r="D52" s="53"/>
       <c r="E52" s="54"/>
@@ -44571,7 +44569,7 @@
       <c r="AV53" s="29"/>
     </row>
     <row r="54" spans="2:48">
-      <c r="B54" s="851"/>
+      <c r="B54" s="710"/>
       <c r="C54" s="219" t="str">
         <f>IF(I12="español","CANT","QTY")</f>
         <v>CANT</v>
@@ -44625,7 +44623,7 @@
       <c r="AV54" s="29"/>
     </row>
     <row r="55" spans="2:48">
-      <c r="B55" s="851"/>
+      <c r="B55" s="710"/>
       <c r="C55" s="53"/>
       <c r="D55" s="53"/>
       <c r="E55" s="671"/>
@@ -44707,7 +44705,7 @@
       </c>
     </row>
     <row r="56" spans="2:48">
-      <c r="B56" s="851"/>
+      <c r="B56" s="710"/>
       <c r="C56" s="52"/>
       <c r="D56" s="52"/>
       <c r="E56" s="693"/>
@@ -44789,7 +44787,7 @@
       </c>
     </row>
     <row r="57" spans="2:48">
-      <c r="B57" s="851"/>
+      <c r="B57" s="710"/>
       <c r="C57" s="52"/>
       <c r="D57" s="52"/>
       <c r="E57" s="693"/>
@@ -44871,7 +44869,7 @@
       </c>
     </row>
     <row r="58" spans="2:48">
-      <c r="B58" s="851"/>
+      <c r="B58" s="710"/>
       <c r="C58" s="52"/>
       <c r="D58" s="52"/>
       <c r="E58" s="693"/>
@@ -44953,7 +44951,7 @@
       </c>
     </row>
     <row r="59" spans="2:48" hidden="1">
-      <c r="B59" s="851"/>
+      <c r="B59" s="710"/>
       <c r="C59" s="53"/>
       <c r="D59" s="53"/>
       <c r="E59" s="59"/>
@@ -45035,7 +45033,7 @@
       </c>
     </row>
     <row r="60" spans="2:48" hidden="1">
-      <c r="B60" s="851"/>
+      <c r="B60" s="710"/>
       <c r="C60" s="53"/>
       <c r="D60" s="53"/>
       <c r="E60" s="59"/>
@@ -45117,7 +45115,7 @@
       </c>
     </row>
     <row r="61" spans="2:48" hidden="1">
-      <c r="B61" s="851"/>
+      <c r="B61" s="710"/>
       <c r="C61" s="53"/>
       <c r="D61" s="53"/>
       <c r="E61" s="59"/>
@@ -45199,7 +45197,7 @@
       </c>
     </row>
     <row r="62" spans="2:48" hidden="1">
-      <c r="B62" s="851"/>
+      <c r="B62" s="710"/>
       <c r="C62" s="53"/>
       <c r="D62" s="53"/>
       <c r="E62" s="59"/>
@@ -45281,7 +45279,7 @@
       </c>
     </row>
     <row r="63" spans="2:48" hidden="1">
-      <c r="B63" s="851"/>
+      <c r="B63" s="710"/>
       <c r="C63" s="53"/>
       <c r="D63" s="53"/>
       <c r="E63" s="59"/>
@@ -45363,7 +45361,7 @@
       </c>
     </row>
     <row r="64" spans="2:48" hidden="1" outlineLevel="1">
-      <c r="B64" s="851"/>
+      <c r="B64" s="710"/>
       <c r="C64" s="53"/>
       <c r="D64" s="53"/>
       <c r="E64" s="59"/>
@@ -45445,7 +45443,7 @@
       </c>
     </row>
     <row r="65" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B65" s="851"/>
+      <c r="B65" s="710"/>
       <c r="C65" s="53"/>
       <c r="D65" s="53"/>
       <c r="E65" s="59"/>
@@ -45527,7 +45525,7 @@
       </c>
     </row>
     <row r="66" spans="2:58" hidden="1">
-      <c r="B66" s="851"/>
+      <c r="B66" s="710"/>
       <c r="C66" s="53"/>
       <c r="D66" s="53"/>
       <c r="E66" s="59"/>
@@ -45609,7 +45607,7 @@
       </c>
     </row>
     <row r="67" spans="2:58" outlineLevel="1">
-      <c r="B67" s="851"/>
+      <c r="B67" s="710"/>
       <c r="C67" s="53"/>
       <c r="D67" s="53"/>
       <c r="E67" s="697"/>
@@ -45691,7 +45689,7 @@
       </c>
     </row>
     <row r="68" spans="2:58" outlineLevel="1">
-      <c r="B68" s="851"/>
+      <c r="B68" s="710"/>
       <c r="C68" s="53"/>
       <c r="D68" s="53"/>
       <c r="E68" s="59"/>
@@ -45773,7 +45771,7 @@
       </c>
     </row>
     <row r="69" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B69" s="851"/>
+      <c r="B69" s="710"/>
       <c r="C69" s="53"/>
       <c r="D69" s="53"/>
       <c r="E69" s="59"/>
@@ -45855,7 +45853,7 @@
       </c>
     </row>
     <row r="70" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B70" s="851"/>
+      <c r="B70" s="710"/>
       <c r="C70" s="53"/>
       <c r="D70" s="53"/>
       <c r="E70" s="59"/>
@@ -45937,7 +45935,7 @@
       </c>
     </row>
     <row r="71" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B71" s="851"/>
+      <c r="B71" s="710"/>
       <c r="C71" s="53"/>
       <c r="D71" s="53"/>
       <c r="E71" s="59"/>
@@ -46019,7 +46017,7 @@
       </c>
     </row>
     <row r="72" spans="2:58" hidden="1" outlineLevel="1">
-      <c r="B72" s="851"/>
+      <c r="B72" s="710"/>
       <c r="C72" s="53"/>
       <c r="D72" s="53"/>
       <c r="E72" s="59"/>
@@ -46101,7 +46099,7 @@
       </c>
     </row>
     <row r="73" spans="2:58">
-      <c r="B73" s="851"/>
+      <c r="B73" s="710"/>
       <c r="C73" s="53"/>
       <c r="D73" s="53"/>
       <c r="E73" s="250" t="str">
@@ -46171,7 +46169,7 @@
       </c>
     </row>
     <row r="74" spans="2:58">
-      <c r="B74" s="851"/>
+      <c r="B74" s="710"/>
       <c r="C74" s="53"/>
       <c r="D74" s="53"/>
       <c r="E74" s="54"/>
@@ -46220,7 +46218,7 @@
       <c r="AV74" s="29"/>
     </row>
     <row r="75" spans="2:58">
-      <c r="B75" s="851"/>
+      <c r="B75" s="710"/>
       <c r="C75" s="53"/>
       <c r="D75" s="53"/>
       <c r="E75" s="54"/>
@@ -46269,7 +46267,7 @@
       <c r="AV75" s="29"/>
     </row>
     <row r="76" spans="2:58" ht="8.25" customHeight="1">
-      <c r="B76" s="852"/>
+      <c r="B76" s="711"/>
       <c r="C76" s="60"/>
       <c r="D76" s="60"/>
       <c r="E76" s="61"/>
@@ -46303,7 +46301,7 @@
       <c r="BF76" s="26"/>
     </row>
     <row r="77" spans="2:58">
-      <c r="B77" s="853"/>
+      <c r="B77" s="712"/>
       <c r="C77" s="54"/>
       <c r="D77" s="54"/>
       <c r="E77" s="678" t="str">
@@ -46413,6 +46411,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="X8:AI8"/>
+    <mergeCell ref="AH12:AI13"/>
+    <mergeCell ref="AI9:AI10"/>
+    <mergeCell ref="AP9:AP10"/>
+    <mergeCell ref="AM9:AM10"/>
+    <mergeCell ref="AO9:AO10"/>
+    <mergeCell ref="AN9:AN10"/>
+    <mergeCell ref="AL9:AL10"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="R9:R10"/>
+    <mergeCell ref="AU12:AV13"/>
+    <mergeCell ref="AV9:AV10"/>
+    <mergeCell ref="AS9:AS10"/>
+    <mergeCell ref="AR9:AR10"/>
+    <mergeCell ref="AT9:AT10"/>
+    <mergeCell ref="AQ9:AQ10"/>
+    <mergeCell ref="AU9:AU10"/>
     <mergeCell ref="B53:E53"/>
     <mergeCell ref="U9:U10"/>
     <mergeCell ref="S9:S10"/>
@@ -46429,23 +46444,6 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="O12:P13"/>
     <mergeCell ref="U12:V13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="R9:R10"/>
-    <mergeCell ref="AU12:AV13"/>
-    <mergeCell ref="AV9:AV10"/>
-    <mergeCell ref="AS9:AS10"/>
-    <mergeCell ref="AR9:AR10"/>
-    <mergeCell ref="AT9:AT10"/>
-    <mergeCell ref="AQ9:AQ10"/>
-    <mergeCell ref="AU9:AU10"/>
-    <mergeCell ref="X8:AI8"/>
-    <mergeCell ref="AH12:AI13"/>
-    <mergeCell ref="AI9:AI10"/>
-    <mergeCell ref="AP9:AP10"/>
-    <mergeCell ref="AM9:AM10"/>
-    <mergeCell ref="AO9:AO10"/>
-    <mergeCell ref="AN9:AN10"/>
-    <mergeCell ref="AL9:AL10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="M55:M72 M16:M27 M33:M35 M37:M50">
@@ -46562,19 +46560,19 @@
       <c r="G7" s="71"/>
     </row>
     <row r="8" spans="1:14" s="67" customFormat="1" ht="12.75">
-      <c r="B8" s="772">
+      <c r="B8" s="784">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="C8" s="773"/>
-      <c r="D8" s="773"/>
-      <c r="E8" s="773"/>
-      <c r="F8" s="773"/>
-      <c r="G8" s="773"/>
-      <c r="H8" s="773"/>
-      <c r="I8" s="773"/>
-      <c r="J8" s="773"/>
-      <c r="K8" s="774"/>
+      <c r="C8" s="785"/>
+      <c r="D8" s="785"/>
+      <c r="E8" s="785"/>
+      <c r="F8" s="785"/>
+      <c r="G8" s="785"/>
+      <c r="H8" s="785"/>
+      <c r="I8" s="785"/>
+      <c r="J8" s="785"/>
+      <c r="K8" s="786"/>
     </row>
     <row r="9" spans="1:14" s="162" customFormat="1" ht="2.25" customHeight="1">
       <c r="B9" s="160"/>
@@ -46605,7 +46603,7 @@
       </c>
       <c r="E11" s="390">
         <f ca="1">+'2-Cotización'!H5</f>
-        <v>43054</v>
+        <v>43277</v>
       </c>
       <c r="H11" s="162">
         <f>+'2-Cotización'!G22</f>
@@ -46639,19 +46637,19 @@
     <row r="14" spans="1:14" ht="3" customHeight="1"/>
     <row r="15" spans="1:14" ht="12.75">
       <c r="A15" s="620"/>
-      <c r="B15" s="769" t="str">
+      <c r="B15" s="781" t="str">
         <f>IF($B$4="Español","CALCULO DEL DESCUENTO","DISCOUNT CALCULATION")</f>
         <v>CALCULO DEL DESCUENTO</v>
       </c>
-      <c r="C15" s="770"/>
-      <c r="D15" s="770"/>
-      <c r="E15" s="770"/>
-      <c r="F15" s="770"/>
-      <c r="G15" s="770"/>
-      <c r="H15" s="770"/>
-      <c r="I15" s="770"/>
-      <c r="J15" s="770"/>
-      <c r="K15" s="771"/>
+      <c r="C15" s="782"/>
+      <c r="D15" s="782"/>
+      <c r="E15" s="782"/>
+      <c r="F15" s="782"/>
+      <c r="G15" s="782"/>
+      <c r="H15" s="782"/>
+      <c r="I15" s="782"/>
+      <c r="J15" s="782"/>
+      <c r="K15" s="783"/>
       <c r="L15" s="620" t="s">
         <v>129</v>
       </c>
@@ -47478,21 +47476,21 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="63" customHeight="1">
-      <c r="B38" s="766"/>
-      <c r="C38" s="767"/>
-      <c r="D38" s="767"/>
-      <c r="E38" s="767"/>
-      <c r="F38" s="767"/>
-      <c r="G38" s="768"/>
+      <c r="B38" s="778"/>
+      <c r="C38" s="779"/>
+      <c r="D38" s="779"/>
+      <c r="E38" s="779"/>
+      <c r="F38" s="779"/>
+      <c r="G38" s="780"/>
     </row>
     <row r="39" spans="1:14" ht="12.75">
-      <c r="C39" s="775" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="776"/>
-      <c r="E39" s="776"/>
-      <c r="F39" s="776"/>
-      <c r="G39" s="777"/>
+      <c r="C39" s="787" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="788"/>
+      <c r="E39" s="788"/>
+      <c r="F39" s="788"/>
+      <c r="G39" s="789"/>
     </row>
     <row r="40" spans="1:14">
       <c r="C40" s="580">
@@ -47501,11 +47499,11 @@
       <c r="D40" s="580">
         <v>0.1</v>
       </c>
-      <c r="E40" s="778" t="s">
+      <c r="E40" s="790" t="s">
         <v>976</v>
       </c>
-      <c r="F40" s="779"/>
-      <c r="G40" s="780"/>
+      <c r="F40" s="791"/>
+      <c r="G40" s="792"/>
     </row>
     <row r="41" spans="1:14">
       <c r="C41" s="448">
@@ -47515,11 +47513,11 @@
       <c r="D41" s="448">
         <v>0.2</v>
       </c>
-      <c r="E41" s="778" t="s">
+      <c r="E41" s="790" t="s">
         <v>977</v>
       </c>
-      <c r="F41" s="779"/>
-      <c r="G41" s="780"/>
+      <c r="F41" s="791"/>
+      <c r="G41" s="792"/>
     </row>
     <row r="42" spans="1:14">
       <c r="C42" s="448">
@@ -47529,11 +47527,11 @@
       <c r="D42" s="448">
         <v>0.5</v>
       </c>
-      <c r="E42" s="778" t="s">
+      <c r="E42" s="790" t="s">
         <v>978</v>
       </c>
-      <c r="F42" s="779"/>
-      <c r="G42" s="780"/>
+      <c r="F42" s="791"/>
+      <c r="G42" s="792"/>
     </row>
     <row r="43" spans="1:14">
       <c r="C43" s="448">
@@ -47542,24 +47540,24 @@
       <c r="D43" s="448">
         <v>1</v>
       </c>
-      <c r="E43" s="778" t="s">
+      <c r="E43" s="790" t="s">
         <v>387</v>
       </c>
-      <c r="F43" s="779"/>
-      <c r="G43" s="780"/>
+      <c r="F43" s="791"/>
+      <c r="G43" s="792"/>
     </row>
     <row r="44" spans="1:14">
-      <c r="B44" s="702" t="s">
+      <c r="B44" s="721" t="s">
         <v>956</v>
       </c>
-      <c r="C44" s="702"/>
-      <c r="D44" s="702"/>
-      <c r="E44" s="702"/>
-      <c r="F44" s="702"/>
-      <c r="G44" s="702"/>
-      <c r="H44" s="702"/>
-      <c r="I44" s="702"/>
-      <c r="J44" s="702"/>
+      <c r="C44" s="721"/>
+      <c r="D44" s="721"/>
+      <c r="E44" s="721"/>
+      <c r="F44" s="721"/>
+      <c r="G44" s="721"/>
+      <c r="H44" s="721"/>
+      <c r="I44" s="721"/>
+      <c r="J44" s="721"/>
     </row>
     <row r="46" spans="1:14">
       <c r="B46" s="157" t="s">
@@ -47649,19 +47647,19 @@
       <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:21" s="67" customFormat="1" ht="12.75">
-      <c r="A3" s="781">
+      <c r="A3" s="793">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B3" s="782"/>
-      <c r="C3" s="782"/>
-      <c r="D3" s="782"/>
-      <c r="E3" s="782"/>
-      <c r="F3" s="782"/>
-      <c r="G3" s="782"/>
-      <c r="H3" s="782"/>
-      <c r="I3" s="782"/>
-      <c r="J3" s="783"/>
+      <c r="B3" s="794"/>
+      <c r="C3" s="794"/>
+      <c r="D3" s="794"/>
+      <c r="E3" s="794"/>
+      <c r="F3" s="794"/>
+      <c r="G3" s="794"/>
+      <c r="H3" s="794"/>
+      <c r="I3" s="794"/>
+      <c r="J3" s="795"/>
     </row>
     <row r="4" spans="1:21" s="162" customFormat="1" ht="4.5" customHeight="1">
       <c r="A4" s="160"/>
@@ -47740,11 +47738,11 @@
       <c r="A11" s="167" t="s">
         <v>536</v>
       </c>
-      <c r="B11" s="784" t="s">
+      <c r="B11" s="796" t="s">
         <v>659</v>
       </c>
-      <c r="C11" s="785"/>
-      <c r="D11" s="786"/>
+      <c r="C11" s="797"/>
+      <c r="D11" s="798"/>
       <c r="E11" s="167" t="s">
         <v>878</v>
       </c>
@@ -49784,7 +49782,7 @@
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
-  <pageSetup scale="65" fitToHeight="2" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="62" fitToHeight="2" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="51" max="16383" man="1"/>
@@ -49847,30 +49845,30 @@
       <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:25" s="67" customFormat="1">
-      <c r="A4" s="782">
+      <c r="A4" s="794">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B4" s="782"/>
-      <c r="C4" s="782"/>
-      <c r="D4" s="782"/>
-      <c r="E4" s="782"/>
-      <c r="F4" s="782"/>
-      <c r="G4" s="782"/>
-      <c r="H4" s="782"/>
-      <c r="I4" s="782"/>
-      <c r="J4" s="782"/>
-      <c r="K4" s="782"/>
-      <c r="L4" s="782"/>
-      <c r="M4" s="782"/>
-      <c r="N4" s="782"/>
-      <c r="O4" s="782"/>
-      <c r="P4" s="782"/>
-      <c r="Q4" s="782"/>
-      <c r="R4" s="782"/>
-      <c r="S4" s="782"/>
-      <c r="T4" s="782"/>
-      <c r="U4" s="782"/>
+      <c r="B4" s="794"/>
+      <c r="C4" s="794"/>
+      <c r="D4" s="794"/>
+      <c r="E4" s="794"/>
+      <c r="F4" s="794"/>
+      <c r="G4" s="794"/>
+      <c r="H4" s="794"/>
+      <c r="I4" s="794"/>
+      <c r="J4" s="794"/>
+      <c r="K4" s="794"/>
+      <c r="L4" s="794"/>
+      <c r="M4" s="794"/>
+      <c r="N4" s="794"/>
+      <c r="O4" s="794"/>
+      <c r="P4" s="794"/>
+      <c r="Q4" s="794"/>
+      <c r="R4" s="794"/>
+      <c r="S4" s="794"/>
+      <c r="T4" s="794"/>
+      <c r="U4" s="794"/>
     </row>
     <row r="5" spans="1:25" s="162" customFormat="1" ht="4.5" customHeight="1">
       <c r="A5" s="160"/>
@@ -49908,28 +49906,28 @@
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:25" s="162" customFormat="1" ht="11.25">
-      <c r="A8" s="797"/>
-      <c r="B8" s="797"/>
-      <c r="C8" s="797"/>
-      <c r="D8" s="797"/>
-      <c r="E8" s="793" t="str">
+      <c r="A8" s="803"/>
+      <c r="B8" s="803"/>
+      <c r="C8" s="803"/>
+      <c r="D8" s="803"/>
+      <c r="E8" s="799" t="str">
         <f ca="1">+C73</f>
         <v/>
       </c>
-      <c r="F8" s="794"/>
+      <c r="F8" s="800"/>
       <c r="G8" s="161"/>
       <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:25" s="162" customFormat="1" ht="11.25">
-      <c r="A9" s="797" t="str">
+      <c r="A9" s="803" t="str">
         <f>+C80</f>
         <v/>
       </c>
-      <c r="B9" s="797"/>
-      <c r="C9" s="797"/>
-      <c r="D9" s="797"/>
-      <c r="E9" s="795"/>
-      <c r="F9" s="796"/>
+      <c r="B9" s="803"/>
+      <c r="C9" s="803"/>
+      <c r="D9" s="803"/>
+      <c r="E9" s="801"/>
+      <c r="F9" s="802"/>
       <c r="G9" s="161"/>
       <c r="H9" s="161"/>
     </row>
@@ -49941,35 +49939,35 @@
         <f>'2-Cotización'!G22</f>
         <v>0</v>
       </c>
-      <c r="E10" s="801" t="s">
+      <c r="E10" s="808" t="s">
         <v>874</v>
       </c>
-      <c r="F10" s="802"/>
+      <c r="F10" s="809"/>
       <c r="G10" s="202"/>
       <c r="H10" s="202"/>
-      <c r="I10" s="798" t="s">
+      <c r="I10" s="805" t="s">
         <v>603</v>
       </c>
-      <c r="J10" s="799"/>
-      <c r="K10" s="800"/>
-      <c r="L10" s="798" t="s">
+      <c r="J10" s="806"/>
+      <c r="K10" s="807"/>
+      <c r="L10" s="805" t="s">
         <v>650</v>
       </c>
-      <c r="M10" s="799"/>
-      <c r="N10" s="799"/>
-      <c r="O10" s="800"/>
-      <c r="P10" s="798" t="s">
+      <c r="M10" s="806"/>
+      <c r="N10" s="806"/>
+      <c r="O10" s="807"/>
+      <c r="P10" s="805" t="s">
         <v>607</v>
       </c>
-      <c r="Q10" s="799"/>
-      <c r="R10" s="799"/>
-      <c r="S10" s="799"/>
-      <c r="T10" s="800"/>
-      <c r="V10" s="787" t="s">
+      <c r="Q10" s="806"/>
+      <c r="R10" s="806"/>
+      <c r="S10" s="806"/>
+      <c r="T10" s="807"/>
+      <c r="V10" s="810" t="s">
         <v>97</v>
       </c>
-      <c r="W10" s="788"/>
-      <c r="X10" s="789"/>
+      <c r="W10" s="811"/>
+      <c r="X10" s="812"/>
       <c r="Y10" s="162"/>
     </row>
     <row r="11" spans="1:25" s="204" customFormat="1" ht="56.25">
@@ -54606,10 +54604,10 @@
         <f>+'2-Cotización'!G22</f>
         <v>0</v>
       </c>
-      <c r="C70" s="792" t="s">
+      <c r="C70" s="804" t="s">
         <v>501</v>
       </c>
-      <c r="D70" s="792"/>
+      <c r="D70" s="804"/>
       <c r="E70" s="474">
         <f>SUM(E12:E69)</f>
         <v>0</v>
@@ -54661,10 +54659,10 @@
     <row r="71" spans="1:24" s="212" customFormat="1" ht="13.5" thickTop="1">
       <c r="A71" s="201"/>
       <c r="B71" s="201"/>
-      <c r="C71" s="792" t="s">
+      <c r="C71" s="804" t="s">
         <v>962</v>
       </c>
-      <c r="D71" s="792"/>
+      <c r="D71" s="804"/>
       <c r="E71" s="397"/>
       <c r="F71" s="476">
         <f ca="1">SUM('4b-Venta-Comisión'!E13:E22)</f>
@@ -54806,11 +54804,11 @@
       </c>
     </row>
     <row r="80" spans="1:24" ht="12.75" customHeight="1">
-      <c r="C80" s="790" t="str">
+      <c r="C80" s="813" t="str">
         <f>IF(E78&lt;0,"Existe perdida en Subrentas.","")</f>
         <v/>
       </c>
-      <c r="D80" s="791"/>
+      <c r="D80" s="814"/>
       <c r="E80" s="301"/>
     </row>
     <row r="81" spans="1:8" ht="6.75" customHeight="1">
@@ -54823,12 +54821,12 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="157"/>
-      <c r="B85" s="710" t="s">
+      <c r="B85" s="715" t="s">
         <v>102</v>
       </c>
-      <c r="C85" s="710"/>
-      <c r="D85" s="710"/>
-      <c r="E85" s="710"/>
+      <c r="C85" s="715"/>
+      <c r="D85" s="715"/>
+      <c r="E85" s="715"/>
       <c r="F85" s="159"/>
       <c r="G85" s="159"/>
       <c r="H85" s="159"/>
@@ -54841,10 +54839,10 @@
       <c r="C86" s="448">
         <v>0.1</v>
       </c>
-      <c r="D86" s="701" t="s">
+      <c r="D86" s="714" t="s">
         <v>49</v>
       </c>
-      <c r="E86" s="701"/>
+      <c r="E86" s="714"/>
       <c r="F86" s="159"/>
       <c r="G86" s="159"/>
       <c r="H86" s="159"/>
@@ -54858,10 +54856,10 @@
       <c r="C87" s="448">
         <v>0.25</v>
       </c>
-      <c r="D87" s="701" t="s">
+      <c r="D87" s="714" t="s">
         <v>47</v>
       </c>
-      <c r="E87" s="701"/>
+      <c r="E87" s="714"/>
       <c r="F87" s="159"/>
       <c r="G87" s="159"/>
       <c r="H87" s="159"/>
@@ -54875,10 +54873,10 @@
       <c r="C88" s="448">
         <v>0.35</v>
       </c>
-      <c r="D88" s="701" t="s">
+      <c r="D88" s="714" t="s">
         <v>48</v>
       </c>
-      <c r="E88" s="701"/>
+      <c r="E88" s="714"/>
       <c r="F88" s="159"/>
       <c r="G88" s="159"/>
       <c r="H88" s="159"/>
@@ -54892,25 +54890,25 @@
       <c r="C89" s="448">
         <v>1</v>
       </c>
-      <c r="D89" s="701" t="s">
+      <c r="D89" s="714" t="s">
         <v>976</v>
       </c>
-      <c r="E89" s="701"/>
+      <c r="E89" s="714"/>
       <c r="F89" s="159"/>
       <c r="G89" s="159"/>
       <c r="H89" s="159"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="702" t="s">
+      <c r="A90" s="721" t="s">
         <v>956</v>
       </c>
-      <c r="B90" s="702"/>
-      <c r="C90" s="702"/>
-      <c r="D90" s="702"/>
-      <c r="E90" s="702"/>
-      <c r="F90" s="702"/>
-      <c r="G90" s="702"/>
-      <c r="H90" s="702"/>
+      <c r="B90" s="721"/>
+      <c r="C90" s="721"/>
+      <c r="D90" s="721"/>
+      <c r="E90" s="721"/>
+      <c r="F90" s="721"/>
+      <c r="G90" s="721"/>
+      <c r="H90" s="721"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="157" t="s">
@@ -54938,6 +54936,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:H90"/>
+    <mergeCell ref="V10:X10"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C71:D71"/>
     <mergeCell ref="E8:F9"/>
     <mergeCell ref="A8:D8"/>
     <mergeCell ref="C70:D70"/>
@@ -54947,15 +54954,6 @@
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="V10:X10"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C71:D71"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="T12:T70">
@@ -55037,16 +55035,16 @@
       <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:10" s="67" customFormat="1">
-      <c r="A3" s="782">
+      <c r="A3" s="794">
         <f>+'2-Cotización'!B7</f>
         <v>0</v>
       </c>
-      <c r="B3" s="782"/>
-      <c r="C3" s="782"/>
-      <c r="D3" s="782"/>
-      <c r="E3" s="782"/>
-      <c r="F3" s="782"/>
-      <c r="G3" s="782"/>
+      <c r="B3" s="794"/>
+      <c r="C3" s="794"/>
+      <c r="D3" s="794"/>
+      <c r="E3" s="794"/>
+      <c r="F3" s="794"/>
+      <c r="G3" s="794"/>
       <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:10" s="162" customFormat="1" ht="4.5" customHeight="1">
@@ -55095,28 +55093,28 @@
       <c r="H7" s="161"/>
     </row>
     <row r="8" spans="1:10" s="162" customFormat="1">
-      <c r="A8" s="807" t="str">
+      <c r="A8" s="823" t="str">
         <f>IF('2-Cotización'!G22="Dólares","Los importes deben ser capturados en Dolares","Los importes deben ser capturados en Pesos")</f>
         <v>Los importes deben ser capturados en Pesos</v>
       </c>
-      <c r="B8" s="807"/>
-      <c r="C8" s="807"/>
-      <c r="D8" s="807"/>
-      <c r="E8" s="807"/>
-      <c r="F8" s="807"/>
-      <c r="G8" s="807"/>
+      <c r="B8" s="823"/>
+      <c r="C8" s="823"/>
+      <c r="D8" s="823"/>
+      <c r="E8" s="823"/>
+      <c r="F8" s="823"/>
+      <c r="G8" s="823"/>
       <c r="H8" s="161"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="803" t="s">
+      <c r="A9" s="819" t="s">
         <v>869</v>
       </c>
-      <c r="B9" s="804"/>
-      <c r="C9" s="804"/>
-      <c r="D9" s="804"/>
-      <c r="E9" s="804"/>
-      <c r="F9" s="804"/>
-      <c r="G9" s="805"/>
+      <c r="B9" s="820"/>
+      <c r="C9" s="820"/>
+      <c r="D9" s="820"/>
+      <c r="E9" s="820"/>
+      <c r="F9" s="820"/>
+      <c r="G9" s="821"/>
       <c r="H9" s="71"/>
       <c r="I9" s="67"/>
     </row>
@@ -55663,15 +55661,15 @@
       <c r="G39" s="347"/>
     </row>
     <row r="40" spans="1:7" s="159" customFormat="1">
-      <c r="A40" s="803" t="s">
+      <c r="A40" s="819" t="s">
         <v>584</v>
       </c>
-      <c r="B40" s="804"/>
-      <c r="C40" s="804"/>
-      <c r="D40" s="804"/>
-      <c r="E40" s="804"/>
-      <c r="F40" s="804"/>
-      <c r="G40" s="805"/>
+      <c r="B40" s="820"/>
+      <c r="C40" s="820"/>
+      <c r="D40" s="820"/>
+      <c r="E40" s="820"/>
+      <c r="F40" s="820"/>
+      <c r="G40" s="821"/>
     </row>
     <row r="41" spans="1:7" s="159" customFormat="1" ht="4.5" customHeight="1">
       <c r="A41" s="343"/>
@@ -55836,15 +55834,15 @@
       <c r="G54" s="348"/>
     </row>
     <row r="55" spans="1:7" s="257" customFormat="1">
-      <c r="A55" s="803" t="s">
+      <c r="A55" s="819" t="s">
         <v>719</v>
       </c>
-      <c r="B55" s="804"/>
-      <c r="C55" s="804"/>
-      <c r="D55" s="804"/>
-      <c r="E55" s="804"/>
-      <c r="F55" s="804"/>
-      <c r="G55" s="805"/>
+      <c r="B55" s="820"/>
+      <c r="C55" s="820"/>
+      <c r="D55" s="820"/>
+      <c r="E55" s="820"/>
+      <c r="F55" s="820"/>
+      <c r="G55" s="821"/>
     </row>
     <row r="56" spans="1:7" s="257" customFormat="1" ht="11.25">
       <c r="D56" s="349"/>
@@ -55958,15 +55956,15 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="803" t="s">
+      <c r="A63" s="819" t="s">
         <v>587</v>
       </c>
-      <c r="B63" s="804"/>
-      <c r="C63" s="804"/>
-      <c r="D63" s="804"/>
-      <c r="E63" s="804"/>
-      <c r="F63" s="804"/>
-      <c r="G63" s="805"/>
+      <c r="B63" s="820"/>
+      <c r="C63" s="820"/>
+      <c r="D63" s="820"/>
+      <c r="E63" s="820"/>
+      <c r="F63" s="820"/>
+      <c r="G63" s="821"/>
     </row>
     <row r="64" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="65" spans="1:7" s="257" customFormat="1" ht="11.25">
@@ -55995,15 +55993,15 @@
       <c r="E66" s="358"/>
     </row>
     <row r="67" spans="1:7" s="257" customFormat="1" ht="11.25">
-      <c r="A67" s="808" t="s">
+      <c r="A67" s="824" t="s">
         <v>854</v>
       </c>
-      <c r="B67" s="808"/>
-      <c r="C67" s="808"/>
-      <c r="D67" s="808"/>
-      <c r="E67" s="808"/>
-      <c r="F67" s="808"/>
-      <c r="G67" s="808"/>
+      <c r="B67" s="824"/>
+      <c r="C67" s="824"/>
+      <c r="D67" s="824"/>
+      <c r="E67" s="824"/>
+      <c r="F67" s="824"/>
+      <c r="G67" s="824"/>
     </row>
     <row r="68" spans="1:7" s="257" customFormat="1" ht="11.25">
       <c r="A68" s="257" t="s">
@@ -56056,15 +56054,15 @@
       <c r="D71" s="349"/>
     </row>
     <row r="72" spans="1:7" s="159" customFormat="1">
-      <c r="A72" s="803" t="s">
+      <c r="A72" s="819" t="s">
         <v>656</v>
       </c>
-      <c r="B72" s="804"/>
-      <c r="C72" s="804"/>
-      <c r="D72" s="804"/>
-      <c r="E72" s="804"/>
-      <c r="F72" s="804"/>
-      <c r="G72" s="805"/>
+      <c r="B72" s="820"/>
+      <c r="C72" s="820"/>
+      <c r="D72" s="820"/>
+      <c r="E72" s="820"/>
+      <c r="F72" s="820"/>
+      <c r="G72" s="821"/>
     </row>
     <row r="73" spans="1:7" s="159" customFormat="1" ht="4.5" customHeight="1">
       <c r="A73" s="343"/>
@@ -56106,8 +56104,8 @@
         <v>537</v>
       </c>
       <c r="B76" s="190"/>
-      <c r="C76" s="811"/>
-      <c r="D76" s="812"/>
+      <c r="C76" s="817"/>
+      <c r="D76" s="818"/>
       <c r="E76" s="340"/>
       <c r="F76" s="345"/>
     </row>
@@ -56116,8 +56114,8 @@
         <v>538</v>
       </c>
       <c r="B77" s="190"/>
-      <c r="C77" s="812"/>
-      <c r="D77" s="812"/>
+      <c r="C77" s="818"/>
+      <c r="D77" s="818"/>
       <c r="E77" s="340"/>
       <c r="F77" s="345"/>
     </row>
@@ -56126,8 +56124,8 @@
         <v>539</v>
       </c>
       <c r="B78" s="190"/>
-      <c r="C78" s="812"/>
-      <c r="D78" s="812"/>
+      <c r="C78" s="818"/>
+      <c r="D78" s="818"/>
       <c r="E78" s="340"/>
       <c r="F78" s="345"/>
     </row>
@@ -56136,8 +56134,8 @@
         <v>540</v>
       </c>
       <c r="B79" s="190"/>
-      <c r="C79" s="812"/>
-      <c r="D79" s="812"/>
+      <c r="C79" s="818"/>
+      <c r="D79" s="818"/>
       <c r="E79" s="340"/>
       <c r="F79" s="345"/>
     </row>
@@ -56146,8 +56144,8 @@
         <v>541</v>
       </c>
       <c r="B80" s="190"/>
-      <c r="C80" s="812"/>
-      <c r="D80" s="812"/>
+      <c r="C80" s="818"/>
+      <c r="D80" s="818"/>
       <c r="E80" s="340"/>
       <c r="F80" s="345"/>
     </row>
@@ -56156,8 +56154,8 @@
         <v>563</v>
       </c>
       <c r="B81" s="190"/>
-      <c r="C81" s="812"/>
-      <c r="D81" s="812"/>
+      <c r="C81" s="818"/>
+      <c r="D81" s="818"/>
       <c r="E81" s="340"/>
       <c r="F81" s="345"/>
     </row>
@@ -56166,8 +56164,8 @@
         <v>564</v>
       </c>
       <c r="B82" s="190"/>
-      <c r="C82" s="812"/>
-      <c r="D82" s="812"/>
+      <c r="C82" s="818"/>
+      <c r="D82" s="818"/>
       <c r="E82" s="340"/>
       <c r="F82" s="345"/>
     </row>
@@ -56176,8 +56174,8 @@
         <v>565</v>
       </c>
       <c r="B83" s="190"/>
-      <c r="C83" s="812"/>
-      <c r="D83" s="812"/>
+      <c r="C83" s="818"/>
+      <c r="D83" s="818"/>
       <c r="E83" s="340"/>
       <c r="F83" s="345">
         <f>'2-Cotización'!G22</f>
@@ -56192,22 +56190,22 @@
       <c r="A84" s="338"/>
       <c r="B84" s="348"/>
       <c r="C84" s="348"/>
-      <c r="D84" s="806"/>
-      <c r="E84" s="806"/>
+      <c r="D84" s="822"/>
+      <c r="E84" s="822"/>
       <c r="F84" s="348"/>
       <c r="G84" s="348"/>
     </row>
     <row r="85" spans="1:7" s="257" customFormat="1" ht="11.25"/>
     <row r="87" spans="1:7">
-      <c r="A87" s="803" t="s">
+      <c r="A87" s="819" t="s">
         <v>395</v>
       </c>
-      <c r="B87" s="804"/>
-      <c r="C87" s="804"/>
-      <c r="D87" s="804"/>
-      <c r="E87" s="804"/>
-      <c r="F87" s="804"/>
-      <c r="G87" s="805"/>
+      <c r="B87" s="820"/>
+      <c r="C87" s="820"/>
+      <c r="D87" s="820"/>
+      <c r="E87" s="820"/>
+      <c r="F87" s="820"/>
+      <c r="G87" s="821"/>
     </row>
     <row r="88" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
     <row r="89" spans="1:7" s="257" customFormat="1" ht="4.5" customHeight="1"/>
@@ -56608,10 +56606,10 @@
       </c>
     </row>
     <row r="113" spans="1:3" ht="23.25" thickTop="1">
-      <c r="A113" s="809" t="s">
+      <c r="A113" s="815" t="s">
         <v>680</v>
       </c>
-      <c r="B113" s="810"/>
+      <c r="B113" s="816"/>
       <c r="C113" s="337" t="s">
         <v>861</v>
       </c>
@@ -56673,15 +56671,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A40:G40"/>
     <mergeCell ref="A87:G87"/>
@@ -56692,6 +56681,15 @@
     <mergeCell ref="A55:G55"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A67:G67"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -56790,13 +56788,13 @@
         <v>900</v>
       </c>
       <c r="C6" s="306"/>
-      <c r="D6" s="816">
+      <c r="D6" s="828">
         <f>+'2-Cotización'!G10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="817"/>
-      <c r="F6" s="817"/>
-      <c r="G6" s="818"/>
+      <c r="E6" s="829"/>
+      <c r="F6" s="829"/>
+      <c r="G6" s="830"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="624" t="s">
@@ -57461,15 +57459,15 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="813" t="s">
+      <c r="A43" s="825" t="s">
         <v>688</v>
       </c>
-      <c r="B43" s="814"/>
-      <c r="C43" s="814"/>
-      <c r="D43" s="814"/>
-      <c r="E43" s="814"/>
-      <c r="F43" s="814"/>
-      <c r="G43" s="815"/>
+      <c r="B43" s="826"/>
+      <c r="C43" s="826"/>
+      <c r="D43" s="826"/>
+      <c r="E43" s="826"/>
+      <c r="F43" s="826"/>
+      <c r="G43" s="827"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="512" t="s">
@@ -57628,13 +57626,13 @@
         <v>900</v>
       </c>
       <c r="C6" s="306"/>
-      <c r="D6" s="820">
+      <c r="D6" s="832">
         <f>+'2-Cotización'!G10</f>
         <v>0</v>
       </c>
-      <c r="E6" s="821"/>
-      <c r="F6" s="821"/>
-      <c r="G6" s="822"/>
+      <c r="E6" s="833"/>
+      <c r="F6" s="833"/>
+      <c r="G6" s="834"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="624" t="s">
@@ -58299,18 +58297,18 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="813" t="s">
+      <c r="A43" s="825" t="s">
         <v>688</v>
       </c>
-      <c r="B43" s="814"/>
-      <c r="C43" s="814"/>
-      <c r="D43" s="814"/>
-      <c r="E43" s="814"/>
-      <c r="F43" s="814"/>
-      <c r="G43" s="815"/>
+      <c r="B43" s="826"/>
+      <c r="C43" s="826"/>
+      <c r="D43" s="826"/>
+      <c r="E43" s="826"/>
+      <c r="F43" s="826"/>
+      <c r="G43" s="827"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="819">
+      <c r="A44" s="831">
         <v>50004</v>
       </c>
       <c r="B44" s="513" t="s">
@@ -58325,7 +58323,7 @@
       <c r="G44" s="644"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="819"/>
+      <c r="A45" s="831"/>
       <c r="B45" s="513" t="s">
         <v>72</v>
       </c>
